--- a/carriers_source_analyses/corn.carrier.xlsx
+++ b/carriers_source_analyses/corn.carrier.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16100" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="163">
   <si>
     <t>Source</t>
   </si>
@@ -518,28 +518,130 @@
   <si>
     <t>This sheet summarizes all carrier attributes formatted in the way they are used by the Energy Transition Model. This sheet contains only pure carrier values. For some countries and carriers Fuel Chain Emissions are defined (only for NL); if so these FCE are documented in a separate sheet (e.g. nl_fce). Use the Excel formulas to find the original data and sources for these numbers.</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>potential_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>co2_conversion_per_mj</t>
+    </r>
+  </si>
+  <si>
+    <t>Actual CO2 emission from biomass</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>potential_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>co2_conversion_per_mj</t>
+    </r>
+  </si>
+  <si>
+    <t>IPCC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> IPCC_2006_Guidelines for National Greenhouse Gas Inventories - Vol 2 Energy - Ch 1 Introduction.pdf</t>
+  </si>
+  <si>
+    <t>kg CO2/TJ</t>
+  </si>
+  <si>
+    <t>gas biomass</t>
+  </si>
+  <si>
+    <t>TJ/MJ</t>
+  </si>
+  <si>
+    <t>CO2 conversion for gas biomass</t>
+  </si>
+  <si>
+    <t>global</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>http://refman.et-model.com/publications/1710</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="9">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;_-* #,##0.00\-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="0.000000000"/>
-    <numFmt numFmtId="168" formatCode="0.0000000000"/>
-    <numFmt numFmtId="169" formatCode="0.0%"/>
-    <numFmt numFmtId="170" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="171" formatCode="0.00000000000000"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;_-* #,##0.00\-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="168" formatCode="0.000000000"/>
+    <numFmt numFmtId="169" formatCode="0.0000000000"/>
+    <numFmt numFmtId="170" formatCode="0.0%"/>
+    <numFmt numFmtId="171" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="172" formatCode="0.00000000000000"/>
   </numFmts>
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="39" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Lettertype hoofdtekst"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -738,6 +840,26 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF474747"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Lettertype hoofdtekst"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
     </font>
   </fonts>
   <fills count="13">
@@ -1095,629 +1217,658 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="349">
+  <cellStyleXfs count="350">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="174">
+  <cellXfs count="198">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="14" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="18" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="9" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="19" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="20" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="2" fontId="13" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="17" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="9" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="183" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="168" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="27" fillId="0" borderId="0" xfId="320" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="170" fontId="31" fillId="0" borderId="0" xfId="320" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="27" fillId="0" borderId="0" xfId="321" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="31" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="27" fillId="0" borderId="0" xfId="320" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="171" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="27" fillId="0" borderId="0" xfId="320" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="167" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="183" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="167" fontId="9" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="9" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="23" fillId="0" borderId="0" xfId="320" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="169" fontId="27" fillId="0" borderId="0" xfId="320" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="23" fillId="0" borderId="0" xfId="321" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="27" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="23" fillId="0" borderId="0" xfId="320" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="320" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="9" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="349">
+  <cellStyles count="350">
     <cellStyle name="Comma" xfId="320" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -1976,6 +2127,7 @@
     <cellStyle name="Followed Hyperlink" xfId="346" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="347" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="348" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="349" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2667,6 +2819,44 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>460</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>497</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8064500" y="109283500"/>
+          <a:ext cx="9779000" cy="7556500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2789,6 +2979,7 @@
     <sheetNames>
       <sheetName val="Cover sheet"/>
       <sheetName val="Dashboard"/>
+      <sheetName val="carrier_manager.xlsm"/>
     </sheetNames>
     <definedNames>
       <definedName name="update_attributes"/>
@@ -2796,6 +2987,7 @@
     <sheetDataSet>
       <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3331,9 +3523,11 @@
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="B1:K14"/>
+  <dimension ref="B1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -3357,28 +3551,28 @@
       <c r="G1" s="33"/>
     </row>
     <row r="2" spans="2:11" ht="15" customHeight="1">
-      <c r="B2" s="165" t="s">
+      <c r="B2" s="188" t="s">
         <v>150</v>
       </c>
-      <c r="C2" s="166"/>
-      <c r="D2" s="166"/>
-      <c r="E2" s="167"/>
+      <c r="C2" s="189"/>
+      <c r="D2" s="189"/>
+      <c r="E2" s="190"/>
       <c r="F2" s="33"/>
       <c r="G2" s="33"/>
     </row>
     <row r="3" spans="2:11">
-      <c r="B3" s="168"/>
-      <c r="C3" s="169"/>
-      <c r="D3" s="169"/>
-      <c r="E3" s="170"/>
+      <c r="B3" s="191"/>
+      <c r="C3" s="192"/>
+      <c r="D3" s="192"/>
+      <c r="E3" s="193"/>
       <c r="F3" s="33"/>
       <c r="G3" s="33"/>
     </row>
     <row r="4" spans="2:11">
-      <c r="B4" s="171"/>
-      <c r="C4" s="172"/>
-      <c r="D4" s="172"/>
-      <c r="E4" s="173"/>
+      <c r="B4" s="194"/>
+      <c r="C4" s="195"/>
+      <c r="D4" s="195"/>
+      <c r="E4" s="196"/>
       <c r="F4" s="33"/>
       <c r="G4" s="33"/>
     </row>
@@ -3512,11 +3706,11 @@
         <v>48</v>
       </c>
       <c r="E13" s="104">
-        <f>'Research data'!G10</f>
+        <f>'Research data'!G11</f>
         <v>7716904.8000000007</v>
       </c>
       <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
+      <c r="G13" s="166"/>
       <c r="H13" s="34"/>
       <c r="I13" s="118" t="s">
         <v>43</v>
@@ -3524,16 +3718,38 @@
       <c r="J13" s="91"/>
       <c r="K13" s="33"/>
     </row>
-    <row r="14" spans="2:11" s="151" customFormat="1" ht="16" thickBot="1">
-      <c r="B14" s="152"/>
-      <c r="C14" s="153"/>
-      <c r="D14" s="153"/>
-      <c r="E14" s="153"/>
-      <c r="F14" s="153"/>
-      <c r="G14" s="153"/>
-      <c r="H14" s="153"/>
-      <c r="I14" s="153"/>
-      <c r="J14" s="154"/>
+    <row r="14" spans="2:11" s="39" customFormat="1" ht="19" thickBot="1">
+      <c r="B14" s="23"/>
+      <c r="C14" s="165" t="s">
+        <v>151</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="183">
+        <f>'Research data'!G10</f>
+        <v>5.4600000000000003E-2</v>
+      </c>
+      <c r="F14" s="165"/>
+      <c r="G14" s="167" t="s">
+        <v>152</v>
+      </c>
+      <c r="H14" s="30"/>
+      <c r="I14" s="197" t="s">
+        <v>154</v>
+      </c>
+      <c r="J14" s="40"/>
+    </row>
+    <row r="15" spans="2:11" s="151" customFormat="1" ht="16" thickBot="1">
+      <c r="B15" s="152"/>
+      <c r="C15" s="153"/>
+      <c r="D15" s="153"/>
+      <c r="E15" s="153"/>
+      <c r="F15" s="153"/>
+      <c r="G15" s="153"/>
+      <c r="H15" s="153"/>
+      <c r="I15" s="153"/>
+      <c r="J15" s="154"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3586,11 +3802,9 @@
   <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="B1:Q11"/>
+  <dimension ref="B1:R12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -3608,14 +3822,14 @@
     <col min="12" max="12" width="3.25" style="63" customWidth="1"/>
     <col min="13" max="13" width="8.5" style="63" customWidth="1"/>
     <col min="14" max="14" width="2.75" style="63" customWidth="1"/>
-    <col min="15" max="15" width="8.5" style="63" customWidth="1"/>
-    <col min="16" max="16" width="2.75" style="63" customWidth="1"/>
-    <col min="17" max="17" width="60" style="62" customWidth="1"/>
-    <col min="18" max="16384" width="10.625" style="62"/>
+    <col min="15" max="16" width="8.5" style="63" customWidth="1"/>
+    <col min="17" max="17" width="2.75" style="63" customWidth="1"/>
+    <col min="18" max="18" width="60" style="62" customWidth="1"/>
+    <col min="19" max="16384" width="10.625" style="62"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="16" thickBot="1"/>
-    <row r="2" spans="2:17">
+    <row r="1" spans="2:18" ht="16" thickBot="1"/>
+    <row r="2" spans="2:18">
       <c r="B2" s="64"/>
       <c r="C2" s="65"/>
       <c r="D2" s="65"/>
@@ -3631,9 +3845,10 @@
       <c r="N2" s="66"/>
       <c r="O2" s="66"/>
       <c r="P2" s="66"/>
-      <c r="Q2" s="67"/>
-    </row>
-    <row r="3" spans="2:17" s="24" customFormat="1">
+      <c r="Q2" s="66"/>
+      <c r="R2" s="67"/>
+    </row>
+    <row r="3" spans="2:18" s="24" customFormat="1">
       <c r="B3" s="23"/>
       <c r="C3" s="95" t="s">
         <v>29</v>
@@ -3662,12 +3877,15 @@
       <c r="O3" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="P3" s="60"/>
-      <c r="Q3" s="1" t="s">
+      <c r="P3" s="60" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q3" s="60"/>
+      <c r="R3" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="2:17">
+    <row r="4" spans="2:18">
       <c r="B4" s="68"/>
       <c r="C4" s="69"/>
       <c r="D4" s="69"/>
@@ -3682,10 +3900,11 @@
       <c r="M4" s="92"/>
       <c r="N4" s="94"/>
       <c r="O4" s="92"/>
-      <c r="P4" s="94"/>
-      <c r="Q4" s="2"/>
-    </row>
-    <row r="5" spans="2:17" ht="16" thickBot="1">
+      <c r="P4" s="92"/>
+      <c r="Q4" s="94"/>
+      <c r="R4" s="2"/>
+    </row>
+    <row r="5" spans="2:18" ht="16" thickBot="1">
       <c r="B5" s="68"/>
       <c r="C5" s="18" t="s">
         <v>47</v>
@@ -3703,9 +3922,10 @@
       <c r="N5" s="16"/>
       <c r="O5" s="16"/>
       <c r="P5" s="16"/>
-      <c r="Q5" s="3"/>
-    </row>
-    <row r="6" spans="2:17" ht="16" thickBot="1">
+      <c r="Q5" s="16"/>
+      <c r="R5" s="3"/>
+    </row>
+    <row r="6" spans="2:18" ht="16" thickBot="1">
       <c r="B6" s="68"/>
       <c r="C6" s="105" t="s">
         <v>36</v>
@@ -3731,9 +3951,10 @@
       <c r="N6" s="17"/>
       <c r="O6" s="16"/>
       <c r="P6" s="16"/>
-      <c r="Q6" s="3"/>
-    </row>
-    <row r="7" spans="2:17" s="6" customFormat="1" ht="16" thickBot="1">
+      <c r="Q6" s="16"/>
+      <c r="R6" s="3"/>
+    </row>
+    <row r="7" spans="2:18" s="6" customFormat="1" ht="16" thickBot="1">
       <c r="B7" s="5"/>
       <c r="C7" s="106" t="s">
         <v>37</v>
@@ -3763,9 +3984,10 @@
       <c r="N7" s="17"/>
       <c r="O7" s="16"/>
       <c r="P7" s="16"/>
-      <c r="Q7" s="112"/>
-    </row>
-    <row r="8" spans="2:17" s="6" customFormat="1" ht="16" thickBot="1">
+      <c r="Q7" s="16"/>
+      <c r="R7" s="112"/>
+    </row>
+    <row r="8" spans="2:18" s="6" customFormat="1" ht="16" thickBot="1">
       <c r="B8" s="5"/>
       <c r="C8" s="106" t="s">
         <v>146</v>
@@ -3795,9 +4017,10 @@
       <c r="N8" s="17"/>
       <c r="O8" s="16"/>
       <c r="P8" s="16"/>
-      <c r="Q8" s="149"/>
-    </row>
-    <row r="9" spans="2:17" s="6" customFormat="1" ht="16" thickBot="1">
+      <c r="Q8" s="16"/>
+      <c r="R8" s="149"/>
+    </row>
+    <row r="9" spans="2:18" s="6" customFormat="1" ht="16" thickBot="1">
       <c r="B9" s="5"/>
       <c r="C9" s="107" t="s">
         <v>38</v>
@@ -3821,59 +4044,97 @@
       <c r="N9" s="17"/>
       <c r="O9" s="16"/>
       <c r="P9" s="16"/>
-      <c r="Q9" s="3" t="s">
+      <c r="Q9" s="16"/>
+      <c r="R9" s="3" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="10" spans="2:17" ht="16" thickBot="1">
-      <c r="B10" s="68"/>
-      <c r="C10" s="107" t="s">
-        <v>39</v>
+    <row r="10" spans="2:18" s="6" customFormat="1" ht="16" thickBot="1">
+      <c r="B10" s="5"/>
+      <c r="C10" s="168" t="s">
+        <v>153</v>
       </c>
       <c r="D10" s="107" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E10" s="107" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" s="41">
-        <f>K10</f>
-        <v>7716904.8000000007</v>
-      </c>
-      <c r="H10" s="72"/>
+        <v>42</v>
+      </c>
+      <c r="G10" s="181">
+        <f>P10</f>
+        <v>5.4600000000000003E-2</v>
+      </c>
+      <c r="H10" s="4"/>
       <c r="I10" s="17"/>
       <c r="J10" s="17"/>
-      <c r="K10" s="41">
-        <f>Notes!H214*1000</f>
-        <v>7716904.8000000007</v>
-      </c>
+      <c r="K10" s="17"/>
       <c r="L10" s="17"/>
       <c r="M10" s="17"/>
       <c r="N10" s="17"/>
       <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="149"/>
-    </row>
-    <row r="11" spans="2:17" ht="16" thickBot="1">
-      <c r="B11" s="155"/>
-      <c r="C11" s="156"/>
-      <c r="D11" s="156"/>
-      <c r="E11" s="156"/>
-      <c r="F11" s="156"/>
-      <c r="G11" s="156"/>
-      <c r="H11" s="156"/>
-      <c r="I11" s="157"/>
-      <c r="J11" s="157"/>
-      <c r="K11" s="157"/>
-      <c r="L11" s="157"/>
-      <c r="M11" s="157"/>
-      <c r="N11" s="157"/>
-      <c r="O11" s="157"/>
-      <c r="P11" s="157"/>
-      <c r="Q11" s="158"/>
+      <c r="P10" s="186">
+        <f>Notes!G490</f>
+        <v>5.4600000000000003E-2</v>
+      </c>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="182" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" ht="16" thickBot="1">
+      <c r="B11" s="68"/>
+      <c r="C11" s="107" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="107" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="107" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="41">
+        <f>K11</f>
+        <v>7716904.8000000007</v>
+      </c>
+      <c r="H11" s="72"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="41">
+        <f>Notes!H214*1000</f>
+        <v>7716904.8000000007</v>
+      </c>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="149"/>
+    </row>
+    <row r="12" spans="2:18" ht="16" thickBot="1">
+      <c r="B12" s="155"/>
+      <c r="C12" s="156"/>
+      <c r="D12" s="156"/>
+      <c r="E12" s="156"/>
+      <c r="F12" s="156"/>
+      <c r="G12" s="156"/>
+      <c r="H12" s="156"/>
+      <c r="I12" s="157"/>
+      <c r="J12" s="157"/>
+      <c r="K12" s="157"/>
+      <c r="L12" s="157"/>
+      <c r="M12" s="157"/>
+      <c r="N12" s="157"/>
+      <c r="O12" s="157"/>
+      <c r="P12" s="157"/>
+      <c r="Q12" s="157"/>
+      <c r="R12" s="158"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3893,9 +4154,7 @@
   </sheetPr>
   <dimension ref="B1:L12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="33.125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -4022,14 +4281,25 @@
     </row>
     <row r="8" spans="2:12">
       <c r="B8" s="47"/>
-      <c r="C8" s="119"/>
+      <c r="C8" s="184" t="s">
+        <v>151</v>
+      </c>
       <c r="D8" s="56"/>
-      <c r="E8" s="114"/>
-      <c r="F8" s="114"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="51"/>
+      <c r="E8" s="185" t="s">
+        <v>154</v>
+      </c>
+      <c r="F8" s="185"/>
+      <c r="G8" s="50" t="s">
+        <v>160</v>
+      </c>
+      <c r="H8" s="51" t="s">
+        <v>161</v>
+      </c>
       <c r="I8" s="51"/>
       <c r="J8" s="51"/>
+      <c r="K8" s="187" t="s">
+        <v>162</v>
+      </c>
       <c r="L8" s="61"/>
     </row>
     <row r="9" spans="2:12">
@@ -4084,10 +4354,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:Z455"/>
+  <dimension ref="B1:AI501"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView topLeftCell="A472" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="F483" sqref="F483"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -13317,26 +13587,1706 @@
     <row r="448" spans="2:7" customFormat="1" ht="16">
       <c r="B448" s="98"/>
     </row>
-    <row r="449" spans="2:2" customFormat="1" ht="16">
+    <row r="449" spans="2:35" customFormat="1" ht="16">
       <c r="B449" s="98"/>
     </row>
-    <row r="450" spans="2:2" customFormat="1" ht="16">
+    <row r="450" spans="2:35" customFormat="1" ht="16">
       <c r="B450" s="98"/>
     </row>
-    <row r="451" spans="2:2" customFormat="1" ht="16">
+    <row r="451" spans="2:35" customFormat="1" ht="16">
       <c r="B451" s="98"/>
     </row>
-    <row r="452" spans="2:2" customFormat="1" ht="16">
+    <row r="452" spans="2:35" customFormat="1" ht="16">
       <c r="B452" s="98"/>
     </row>
-    <row r="453" spans="2:2" customFormat="1" ht="16">
+    <row r="453" spans="2:35" customFormat="1" ht="16">
       <c r="B453" s="98"/>
     </row>
-    <row r="454" spans="2:2" customFormat="1" ht="16">
+    <row r="454" spans="2:35" customFormat="1" ht="16">
       <c r="B454" s="98"/>
     </row>
-    <row r="455" spans="2:2" customFormat="1" ht="16">
+    <row r="455" spans="2:35" customFormat="1" ht="17" thickBot="1">
       <c r="B455" s="98"/>
+    </row>
+    <row r="456" spans="2:35" s="171" customFormat="1">
+      <c r="B456" s="169"/>
+      <c r="C456" s="170" t="s">
+        <v>24</v>
+      </c>
+      <c r="D456" s="170" t="s">
+        <v>50</v>
+      </c>
+      <c r="E456" s="170"/>
+      <c r="F456" s="170" t="s">
+        <v>31</v>
+      </c>
+      <c r="G456" s="170"/>
+      <c r="H456" s="170"/>
+      <c r="I456" s="170"/>
+      <c r="J456" s="170"/>
+      <c r="K456" s="170"/>
+      <c r="L456" s="170"/>
+      <c r="M456" s="170"/>
+      <c r="N456" s="170"/>
+      <c r="O456" s="170"/>
+      <c r="P456" s="170"/>
+      <c r="Q456" s="170"/>
+      <c r="R456" s="170"/>
+      <c r="S456" s="170"/>
+      <c r="T456" s="170"/>
+      <c r="U456" s="170"/>
+      <c r="V456" s="159"/>
+      <c r="W456" s="159"/>
+      <c r="X456" s="159"/>
+      <c r="Y456" s="159"/>
+      <c r="Z456" s="159"/>
+      <c r="AA456" s="159"/>
+      <c r="AB456" s="159"/>
+      <c r="AC456" s="159"/>
+      <c r="AD456" s="159"/>
+      <c r="AE456" s="159"/>
+      <c r="AF456" s="159"/>
+      <c r="AG456" s="159"/>
+      <c r="AH456" s="159"/>
+      <c r="AI456" s="159"/>
+    </row>
+    <row r="457" spans="2:35" s="171" customFormat="1">
+      <c r="B457" s="172"/>
+      <c r="C457" s="173"/>
+      <c r="D457" s="173"/>
+      <c r="E457" s="173"/>
+      <c r="F457" s="173"/>
+      <c r="G457" s="173"/>
+      <c r="H457" s="173"/>
+      <c r="I457" s="173"/>
+      <c r="J457" s="173"/>
+      <c r="K457" s="173"/>
+      <c r="L457" s="173"/>
+      <c r="M457" s="173"/>
+      <c r="N457" s="173"/>
+      <c r="O457" s="173"/>
+      <c r="P457" s="173"/>
+      <c r="Q457" s="173"/>
+      <c r="R457" s="173"/>
+      <c r="S457" s="173"/>
+      <c r="T457" s="173"/>
+      <c r="U457" s="173"/>
+      <c r="V457" s="173"/>
+      <c r="W457" s="173"/>
+      <c r="X457" s="173"/>
+      <c r="Y457" s="173"/>
+      <c r="Z457" s="173"/>
+      <c r="AA457" s="173"/>
+      <c r="AB457" s="173"/>
+      <c r="AC457" s="173"/>
+      <c r="AD457" s="173"/>
+      <c r="AE457" s="173"/>
+      <c r="AF457" s="173"/>
+      <c r="AG457" s="173"/>
+      <c r="AH457" s="173"/>
+      <c r="AI457" s="173"/>
+    </row>
+    <row r="458" spans="2:35" s="171" customFormat="1" ht="16">
+      <c r="B458" s="172"/>
+      <c r="C458" s="174" t="s">
+        <v>155</v>
+      </c>
+      <c r="D458" s="175"/>
+      <c r="E458" s="175"/>
+      <c r="F458" s="175"/>
+      <c r="G458" s="175"/>
+      <c r="H458" s="175"/>
+      <c r="I458" s="175"/>
+      <c r="J458" s="108"/>
+      <c r="K458" s="108"/>
+      <c r="L458" s="108"/>
+      <c r="M458" s="108"/>
+      <c r="N458" s="108"/>
+      <c r="O458" s="108"/>
+      <c r="P458" s="108"/>
+      <c r="Q458" s="108"/>
+      <c r="R458" s="108"/>
+      <c r="S458" s="108"/>
+      <c r="T458" s="108"/>
+      <c r="U458" s="108"/>
+      <c r="V458" s="108"/>
+      <c r="W458" s="108"/>
+      <c r="X458" s="108"/>
+      <c r="Y458" s="108"/>
+      <c r="Z458" s="176"/>
+      <c r="AA458" s="176"/>
+      <c r="AB458" s="176"/>
+      <c r="AC458" s="176"/>
+      <c r="AD458" s="176"/>
+      <c r="AE458" s="176"/>
+      <c r="AF458" s="176"/>
+      <c r="AG458" s="176"/>
+      <c r="AH458" s="176"/>
+      <c r="AI458" s="176"/>
+    </row>
+    <row r="459" spans="2:35" s="171" customFormat="1" ht="16">
+      <c r="B459" s="172"/>
+      <c r="C459" s="175"/>
+      <c r="D459" s="175"/>
+      <c r="E459" s="175"/>
+      <c r="F459" s="175"/>
+      <c r="G459" s="175"/>
+      <c r="H459" s="175"/>
+      <c r="I459" s="175"/>
+      <c r="J459" s="108"/>
+      <c r="K459" s="108"/>
+      <c r="L459" s="108"/>
+      <c r="M459" s="108"/>
+      <c r="N459" s="108"/>
+      <c r="O459" s="108"/>
+      <c r="P459" s="108"/>
+      <c r="Q459" s="108"/>
+      <c r="R459" s="108"/>
+      <c r="S459" s="108"/>
+      <c r="T459" s="108"/>
+      <c r="U459" s="108"/>
+      <c r="V459" s="108"/>
+      <c r="W459" s="108"/>
+      <c r="X459" s="108"/>
+      <c r="Y459" s="108"/>
+      <c r="Z459" s="176"/>
+      <c r="AA459" s="176"/>
+      <c r="AB459" s="176"/>
+      <c r="AC459" s="176"/>
+      <c r="AD459" s="176"/>
+      <c r="AE459" s="176"/>
+      <c r="AF459" s="176"/>
+      <c r="AG459" s="176"/>
+      <c r="AH459" s="176"/>
+      <c r="AI459" s="176"/>
+    </row>
+    <row r="460" spans="2:35" s="171" customFormat="1" ht="16">
+      <c r="B460" s="172"/>
+      <c r="C460" s="175"/>
+      <c r="D460" s="175"/>
+      <c r="E460" s="175"/>
+      <c r="F460" s="175"/>
+      <c r="G460" s="175"/>
+      <c r="H460" s="175"/>
+      <c r="I460" s="175"/>
+      <c r="J460" s="108"/>
+      <c r="K460" s="108"/>
+      <c r="L460" s="108"/>
+      <c r="M460" s="108"/>
+      <c r="N460" s="108"/>
+      <c r="O460" s="108"/>
+      <c r="P460" s="108"/>
+      <c r="Q460" s="108"/>
+      <c r="R460" s="108"/>
+      <c r="S460" s="108"/>
+      <c r="T460" s="108"/>
+      <c r="U460" s="108"/>
+      <c r="V460" s="108"/>
+      <c r="W460" s="108"/>
+      <c r="X460" s="108"/>
+      <c r="Y460" s="108"/>
+      <c r="Z460" s="176"/>
+      <c r="AA460" s="176"/>
+      <c r="AB460" s="176"/>
+      <c r="AC460" s="176"/>
+      <c r="AD460" s="176"/>
+      <c r="AE460" s="176"/>
+      <c r="AF460" s="176"/>
+      <c r="AG460" s="176"/>
+      <c r="AH460" s="176"/>
+      <c r="AI460" s="176"/>
+    </row>
+    <row r="461" spans="2:35" s="171" customFormat="1" ht="16">
+      <c r="B461" s="172"/>
+      <c r="C461" s="177"/>
+      <c r="D461" s="177"/>
+      <c r="E461" s="177"/>
+      <c r="F461" s="177"/>
+      <c r="G461" s="177"/>
+      <c r="H461" s="177"/>
+      <c r="I461" s="177"/>
+      <c r="J461" s="143"/>
+      <c r="K461" s="108"/>
+      <c r="L461" s="108"/>
+      <c r="M461" s="108"/>
+      <c r="N461" s="108"/>
+      <c r="O461" s="108"/>
+      <c r="P461" s="108"/>
+      <c r="Q461" s="108"/>
+      <c r="R461" s="108"/>
+      <c r="S461" s="108"/>
+      <c r="T461" s="108"/>
+      <c r="U461" s="108"/>
+      <c r="V461" s="108"/>
+      <c r="W461" s="108"/>
+      <c r="X461" s="108"/>
+      <c r="Y461" s="108"/>
+      <c r="Z461" s="176"/>
+      <c r="AA461" s="176"/>
+      <c r="AB461" s="176"/>
+      <c r="AC461" s="176"/>
+      <c r="AD461" s="176"/>
+      <c r="AE461" s="176"/>
+      <c r="AF461" s="176"/>
+      <c r="AG461" s="176"/>
+      <c r="AH461" s="176"/>
+      <c r="AI461" s="176"/>
+    </row>
+    <row r="462" spans="2:35" s="171" customFormat="1" ht="16">
+      <c r="B462" s="172"/>
+      <c r="C462" s="177"/>
+      <c r="D462" s="177"/>
+      <c r="E462" s="177"/>
+      <c r="F462" s="177"/>
+      <c r="G462" s="177"/>
+      <c r="H462" s="177"/>
+      <c r="I462" s="177"/>
+      <c r="J462" s="143"/>
+      <c r="K462" s="108"/>
+      <c r="L462" s="108"/>
+      <c r="M462" s="108"/>
+      <c r="N462" s="108"/>
+      <c r="O462" s="108"/>
+      <c r="P462" s="108"/>
+      <c r="Q462" s="108"/>
+      <c r="R462" s="108"/>
+      <c r="S462" s="108"/>
+      <c r="T462" s="108"/>
+      <c r="U462" s="108"/>
+      <c r="V462" s="108"/>
+      <c r="W462" s="108"/>
+      <c r="X462" s="108"/>
+      <c r="Y462" s="108"/>
+      <c r="Z462" s="176"/>
+      <c r="AA462" s="176"/>
+      <c r="AB462" s="176"/>
+      <c r="AC462" s="176"/>
+      <c r="AD462" s="176"/>
+      <c r="AE462" s="176"/>
+      <c r="AF462" s="176"/>
+      <c r="AG462" s="176"/>
+      <c r="AH462" s="176"/>
+      <c r="AI462" s="176"/>
+    </row>
+    <row r="463" spans="2:35" s="171" customFormat="1" ht="16">
+      <c r="B463" s="172"/>
+      <c r="C463" s="177"/>
+      <c r="D463" s="178"/>
+      <c r="E463" s="178"/>
+      <c r="F463" s="178"/>
+      <c r="G463" s="178"/>
+      <c r="H463" s="178"/>
+      <c r="I463" s="178"/>
+      <c r="J463" s="143"/>
+      <c r="K463" s="108"/>
+      <c r="L463" s="108"/>
+      <c r="M463" s="108"/>
+      <c r="N463" s="108"/>
+      <c r="O463" s="108"/>
+      <c r="P463" s="108"/>
+      <c r="Q463" s="108"/>
+      <c r="R463" s="108"/>
+      <c r="S463" s="108"/>
+      <c r="T463" s="108"/>
+      <c r="U463" s="108"/>
+      <c r="V463" s="108"/>
+      <c r="W463" s="108"/>
+      <c r="X463" s="108"/>
+      <c r="Y463" s="108"/>
+      <c r="Z463" s="176"/>
+      <c r="AA463" s="176"/>
+      <c r="AB463" s="176"/>
+      <c r="AC463" s="176"/>
+      <c r="AD463" s="176"/>
+      <c r="AE463" s="176"/>
+      <c r="AF463" s="176"/>
+      <c r="AG463" s="176"/>
+      <c r="AH463" s="176"/>
+      <c r="AI463" s="176"/>
+    </row>
+    <row r="464" spans="2:35" s="171" customFormat="1" ht="16">
+      <c r="B464" s="172"/>
+      <c r="C464" s="177"/>
+      <c r="D464" s="178"/>
+      <c r="E464" s="178"/>
+      <c r="F464" s="178"/>
+      <c r="G464" s="178"/>
+      <c r="H464" s="178"/>
+      <c r="I464" s="177"/>
+      <c r="J464" s="143"/>
+      <c r="K464" s="108"/>
+      <c r="L464" s="108"/>
+      <c r="M464" s="108"/>
+      <c r="N464" s="108"/>
+      <c r="O464" s="108"/>
+      <c r="P464" s="108"/>
+      <c r="Q464" s="108"/>
+      <c r="R464" s="108"/>
+      <c r="S464" s="108"/>
+      <c r="T464" s="108"/>
+      <c r="U464" s="108"/>
+      <c r="V464" s="108"/>
+      <c r="W464" s="108"/>
+      <c r="X464" s="108"/>
+      <c r="Y464" s="108"/>
+      <c r="Z464" s="176"/>
+      <c r="AA464" s="176"/>
+      <c r="AB464" s="176"/>
+      <c r="AC464" s="176"/>
+      <c r="AD464" s="176"/>
+      <c r="AE464" s="176"/>
+      <c r="AF464" s="176"/>
+      <c r="AG464" s="176"/>
+      <c r="AH464" s="176"/>
+      <c r="AI464" s="176"/>
+    </row>
+    <row r="465" spans="2:35" s="171" customFormat="1" ht="16">
+      <c r="B465" s="172"/>
+      <c r="C465" s="177"/>
+      <c r="D465" s="178"/>
+      <c r="E465" s="178"/>
+      <c r="F465" s="178"/>
+      <c r="G465" s="178"/>
+      <c r="H465" s="178"/>
+      <c r="I465" s="177"/>
+      <c r="J465" s="143"/>
+      <c r="K465" s="108"/>
+      <c r="L465" s="108"/>
+      <c r="M465" s="108"/>
+      <c r="N465" s="108"/>
+      <c r="O465" s="108"/>
+      <c r="P465" s="108"/>
+      <c r="Q465" s="108"/>
+      <c r="R465" s="108"/>
+      <c r="S465" s="108"/>
+      <c r="T465" s="108"/>
+      <c r="U465" s="108"/>
+      <c r="V465" s="108"/>
+      <c r="W465" s="108"/>
+      <c r="X465" s="108"/>
+      <c r="Y465" s="108"/>
+      <c r="Z465" s="176"/>
+      <c r="AA465" s="176"/>
+      <c r="AB465" s="176"/>
+      <c r="AC465" s="176"/>
+      <c r="AD465" s="176"/>
+      <c r="AE465" s="176"/>
+      <c r="AF465" s="176"/>
+      <c r="AG465" s="176"/>
+      <c r="AH465" s="176"/>
+      <c r="AI465" s="176"/>
+    </row>
+    <row r="466" spans="2:35" s="171" customFormat="1" ht="16">
+      <c r="B466" s="172"/>
+      <c r="C466" s="143"/>
+      <c r="D466" s="143"/>
+      <c r="E466" s="143"/>
+      <c r="F466" s="143"/>
+      <c r="G466" s="143"/>
+      <c r="H466" s="143"/>
+      <c r="I466" s="143"/>
+      <c r="J466" s="143"/>
+      <c r="K466" s="108"/>
+      <c r="L466" s="108"/>
+      <c r="M466" s="108"/>
+      <c r="N466" s="108"/>
+      <c r="O466" s="108"/>
+      <c r="P466" s="108"/>
+      <c r="Q466" s="108"/>
+      <c r="R466" s="108"/>
+      <c r="S466" s="108"/>
+      <c r="T466" s="108"/>
+      <c r="U466" s="108"/>
+      <c r="V466" s="108"/>
+      <c r="W466" s="108"/>
+      <c r="X466" s="108"/>
+      <c r="Y466" s="108"/>
+      <c r="Z466" s="176"/>
+      <c r="AA466" s="176"/>
+      <c r="AB466" s="176"/>
+      <c r="AC466" s="176"/>
+      <c r="AD466" s="176"/>
+      <c r="AE466" s="176"/>
+      <c r="AF466" s="176"/>
+      <c r="AG466" s="176"/>
+      <c r="AH466" s="176"/>
+      <c r="AI466" s="176"/>
+    </row>
+    <row r="467" spans="2:35" s="171" customFormat="1" ht="16">
+      <c r="B467" s="172"/>
+      <c r="C467" s="143"/>
+      <c r="D467" s="143"/>
+      <c r="E467" s="143"/>
+      <c r="F467" s="143"/>
+      <c r="G467" s="143"/>
+      <c r="H467" s="143"/>
+      <c r="I467" s="143"/>
+      <c r="J467" s="143"/>
+      <c r="K467" s="108"/>
+      <c r="L467" s="108"/>
+      <c r="M467" s="108"/>
+      <c r="N467" s="108"/>
+      <c r="O467" s="108"/>
+      <c r="P467" s="108"/>
+      <c r="Q467" s="108"/>
+      <c r="R467" s="108"/>
+      <c r="S467" s="108"/>
+      <c r="T467" s="108"/>
+      <c r="U467" s="108"/>
+      <c r="V467" s="108"/>
+      <c r="W467" s="108"/>
+      <c r="X467" s="108"/>
+      <c r="Y467" s="108"/>
+      <c r="Z467" s="176"/>
+      <c r="AA467" s="176"/>
+      <c r="AB467" s="176"/>
+      <c r="AC467" s="176"/>
+      <c r="AD467" s="176"/>
+      <c r="AE467" s="176"/>
+      <c r="AF467" s="176"/>
+      <c r="AG467" s="176"/>
+      <c r="AH467" s="176"/>
+      <c r="AI467" s="176"/>
+    </row>
+    <row r="468" spans="2:35" s="171" customFormat="1" ht="16">
+      <c r="B468" s="172"/>
+      <c r="C468" s="143"/>
+      <c r="D468" s="143"/>
+      <c r="E468" s="143"/>
+      <c r="F468" s="143"/>
+      <c r="G468" s="143"/>
+      <c r="H468" s="143"/>
+      <c r="I468" s="143"/>
+      <c r="J468" s="143"/>
+      <c r="K468" s="108"/>
+      <c r="L468" s="108"/>
+      <c r="M468" s="108"/>
+      <c r="N468" s="108"/>
+      <c r="O468" s="108"/>
+      <c r="P468" s="108"/>
+      <c r="Q468" s="108"/>
+      <c r="R468" s="108"/>
+      <c r="S468" s="108"/>
+      <c r="T468" s="108"/>
+      <c r="U468" s="108"/>
+      <c r="V468" s="108"/>
+      <c r="W468" s="108"/>
+      <c r="X468" s="108"/>
+      <c r="Y468" s="108"/>
+      <c r="Z468" s="176"/>
+      <c r="AA468" s="176"/>
+      <c r="AB468" s="176"/>
+      <c r="AC468" s="176"/>
+      <c r="AD468" s="176"/>
+      <c r="AE468" s="176"/>
+      <c r="AF468" s="176"/>
+      <c r="AG468" s="176"/>
+      <c r="AH468" s="176"/>
+      <c r="AI468" s="176"/>
+    </row>
+    <row r="469" spans="2:35" s="171" customFormat="1" ht="16">
+      <c r="B469" s="172"/>
+      <c r="C469" s="143"/>
+      <c r="D469" s="143"/>
+      <c r="E469" s="143"/>
+      <c r="F469" s="143"/>
+      <c r="G469" s="143"/>
+      <c r="H469" s="143"/>
+      <c r="I469" s="143"/>
+      <c r="J469" s="143"/>
+      <c r="K469" s="108"/>
+      <c r="L469" s="108"/>
+      <c r="M469" s="108"/>
+      <c r="N469" s="108"/>
+      <c r="O469" s="108"/>
+      <c r="P469" s="108"/>
+      <c r="Q469" s="108"/>
+      <c r="R469" s="108"/>
+      <c r="S469" s="108"/>
+      <c r="T469" s="108"/>
+      <c r="U469" s="108"/>
+      <c r="V469" s="108"/>
+      <c r="W469" s="108"/>
+      <c r="X469" s="108"/>
+      <c r="Y469" s="108"/>
+      <c r="Z469" s="176"/>
+      <c r="AA469" s="176"/>
+      <c r="AB469" s="176"/>
+      <c r="AC469" s="176"/>
+      <c r="AD469" s="176"/>
+      <c r="AE469" s="176"/>
+      <c r="AF469" s="176"/>
+      <c r="AG469" s="176"/>
+      <c r="AH469" s="176"/>
+      <c r="AI469" s="176"/>
+    </row>
+    <row r="470" spans="2:35" s="171" customFormat="1" ht="16">
+      <c r="B470" s="172"/>
+      <c r="C470" s="143"/>
+      <c r="D470" s="143"/>
+      <c r="E470" s="143"/>
+      <c r="F470" s="143"/>
+      <c r="G470" s="143"/>
+      <c r="H470" s="143"/>
+      <c r="I470" s="143"/>
+      <c r="J470" s="143"/>
+      <c r="K470" s="108"/>
+      <c r="L470" s="108"/>
+      <c r="M470" s="108"/>
+      <c r="N470" s="108"/>
+      <c r="O470" s="108"/>
+      <c r="P470" s="108"/>
+      <c r="Q470" s="108"/>
+      <c r="R470" s="108"/>
+      <c r="S470" s="108"/>
+      <c r="T470" s="108"/>
+      <c r="U470" s="108"/>
+      <c r="V470" s="108"/>
+      <c r="W470" s="108"/>
+      <c r="X470" s="108"/>
+      <c r="Y470" s="108"/>
+      <c r="Z470" s="176"/>
+      <c r="AA470" s="176"/>
+      <c r="AB470" s="176"/>
+      <c r="AC470" s="176"/>
+      <c r="AD470" s="176"/>
+      <c r="AE470" s="176"/>
+      <c r="AF470" s="176"/>
+      <c r="AG470" s="176"/>
+      <c r="AH470" s="176"/>
+      <c r="AI470" s="176"/>
+    </row>
+    <row r="471" spans="2:35" s="171" customFormat="1" ht="16">
+      <c r="B471" s="172"/>
+      <c r="C471" s="143"/>
+      <c r="D471" s="143"/>
+      <c r="E471" s="143"/>
+      <c r="F471" s="143"/>
+      <c r="G471" s="143"/>
+      <c r="H471" s="143"/>
+      <c r="I471" s="143"/>
+      <c r="J471" s="143"/>
+      <c r="K471" s="108"/>
+      <c r="L471" s="108"/>
+      <c r="M471" s="108"/>
+      <c r="N471" s="108"/>
+      <c r="O471" s="108"/>
+      <c r="P471" s="108"/>
+      <c r="Q471" s="108"/>
+      <c r="R471" s="108"/>
+      <c r="S471" s="108"/>
+      <c r="T471" s="108"/>
+      <c r="U471" s="108"/>
+      <c r="V471" s="108"/>
+      <c r="W471" s="108"/>
+      <c r="X471" s="108"/>
+      <c r="Y471" s="108"/>
+      <c r="Z471" s="176"/>
+      <c r="AA471" s="176"/>
+      <c r="AB471" s="176"/>
+      <c r="AC471" s="176"/>
+      <c r="AD471" s="176"/>
+      <c r="AE471" s="176"/>
+      <c r="AF471" s="176"/>
+      <c r="AG471" s="176"/>
+      <c r="AH471" s="176"/>
+      <c r="AI471" s="176"/>
+    </row>
+    <row r="472" spans="2:35" s="171" customFormat="1" ht="16">
+      <c r="B472" s="172"/>
+      <c r="C472" s="143"/>
+      <c r="D472" s="143"/>
+      <c r="E472" s="143"/>
+      <c r="F472" s="143"/>
+      <c r="G472" s="143"/>
+      <c r="H472" s="143"/>
+      <c r="I472" s="143"/>
+      <c r="J472" s="143"/>
+      <c r="K472" s="108"/>
+      <c r="L472" s="108"/>
+      <c r="M472" s="108"/>
+      <c r="N472" s="108"/>
+      <c r="O472" s="108"/>
+      <c r="P472" s="108"/>
+      <c r="Q472" s="108"/>
+      <c r="R472" s="108"/>
+      <c r="S472" s="108"/>
+      <c r="T472" s="108"/>
+      <c r="U472" s="108"/>
+      <c r="V472" s="108"/>
+      <c r="W472" s="108"/>
+      <c r="X472" s="108"/>
+      <c r="Y472" s="108"/>
+      <c r="Z472" s="176"/>
+      <c r="AA472" s="176"/>
+      <c r="AB472" s="176"/>
+      <c r="AC472" s="176"/>
+      <c r="AD472" s="176"/>
+      <c r="AE472" s="176"/>
+      <c r="AF472" s="176"/>
+      <c r="AG472" s="176"/>
+      <c r="AH472" s="176"/>
+      <c r="AI472" s="176"/>
+    </row>
+    <row r="473" spans="2:35" s="171" customFormat="1" ht="16">
+      <c r="B473" s="172"/>
+      <c r="C473" s="143"/>
+      <c r="D473" s="143"/>
+      <c r="E473" s="143"/>
+      <c r="F473" s="143"/>
+      <c r="G473" s="143"/>
+      <c r="H473" s="143"/>
+      <c r="I473" s="143"/>
+      <c r="J473" s="143"/>
+      <c r="K473" s="108"/>
+      <c r="L473" s="108"/>
+      <c r="M473" s="108"/>
+      <c r="N473" s="108"/>
+      <c r="O473" s="108"/>
+      <c r="P473" s="108"/>
+      <c r="Q473" s="108"/>
+      <c r="R473" s="108"/>
+      <c r="S473" s="108"/>
+      <c r="T473" s="108"/>
+      <c r="U473" s="108"/>
+      <c r="V473" s="108"/>
+      <c r="W473" s="108"/>
+      <c r="X473" s="108"/>
+      <c r="Y473" s="108"/>
+      <c r="Z473" s="176"/>
+      <c r="AA473" s="176"/>
+      <c r="AB473" s="176"/>
+      <c r="AC473" s="176"/>
+      <c r="AD473" s="176"/>
+      <c r="AE473" s="176"/>
+      <c r="AF473" s="176"/>
+      <c r="AG473" s="176"/>
+      <c r="AH473" s="176"/>
+      <c r="AI473" s="176"/>
+    </row>
+    <row r="474" spans="2:35" s="171" customFormat="1" ht="16">
+      <c r="B474" s="172"/>
+      <c r="C474" s="143"/>
+      <c r="D474" s="143"/>
+      <c r="E474" s="143"/>
+      <c r="F474" s="143"/>
+      <c r="G474" s="143"/>
+      <c r="H474" s="143"/>
+      <c r="I474" s="143"/>
+      <c r="J474" s="143"/>
+      <c r="K474" s="108"/>
+      <c r="L474" s="108"/>
+      <c r="M474" s="108"/>
+      <c r="N474" s="108"/>
+      <c r="O474" s="108"/>
+      <c r="P474" s="108"/>
+      <c r="Q474" s="108"/>
+      <c r="R474" s="108"/>
+      <c r="S474" s="108"/>
+      <c r="T474" s="108"/>
+      <c r="U474" s="108"/>
+      <c r="V474" s="108"/>
+      <c r="W474" s="108"/>
+      <c r="X474" s="108"/>
+      <c r="Y474" s="108"/>
+      <c r="Z474" s="176"/>
+      <c r="AA474" s="176"/>
+      <c r="AB474" s="176"/>
+      <c r="AC474" s="176"/>
+      <c r="AD474" s="176"/>
+      <c r="AE474" s="176"/>
+      <c r="AF474" s="176"/>
+      <c r="AG474" s="176"/>
+      <c r="AH474" s="176"/>
+      <c r="AI474" s="176"/>
+    </row>
+    <row r="475" spans="2:35" s="171" customFormat="1" ht="16">
+      <c r="B475" s="172"/>
+      <c r="C475" s="143"/>
+      <c r="D475" s="143"/>
+      <c r="E475" s="143"/>
+      <c r="F475" s="143"/>
+      <c r="G475" s="143"/>
+      <c r="H475" s="143"/>
+      <c r="I475" s="143"/>
+      <c r="J475" s="143"/>
+      <c r="K475" s="108"/>
+      <c r="L475" s="108"/>
+      <c r="M475" s="108"/>
+      <c r="N475" s="108"/>
+      <c r="O475" s="108"/>
+      <c r="P475" s="108"/>
+      <c r="Q475" s="108"/>
+      <c r="R475" s="108"/>
+      <c r="S475" s="108"/>
+      <c r="T475" s="108"/>
+      <c r="U475" s="108"/>
+      <c r="V475" s="108"/>
+      <c r="W475" s="108"/>
+      <c r="X475" s="108"/>
+      <c r="Y475" s="108"/>
+      <c r="Z475" s="176"/>
+      <c r="AA475" s="176"/>
+      <c r="AB475" s="176"/>
+      <c r="AC475" s="176"/>
+      <c r="AD475" s="176"/>
+      <c r="AE475" s="176"/>
+      <c r="AF475" s="176"/>
+      <c r="AG475" s="176"/>
+      <c r="AH475" s="176"/>
+      <c r="AI475" s="176"/>
+    </row>
+    <row r="476" spans="2:35" s="171" customFormat="1" ht="16">
+      <c r="B476" s="172"/>
+      <c r="C476" s="143"/>
+      <c r="D476" s="143"/>
+      <c r="E476" s="143"/>
+      <c r="F476" s="143"/>
+      <c r="G476" s="143"/>
+      <c r="H476" s="143"/>
+      <c r="I476" s="143"/>
+      <c r="J476" s="143"/>
+      <c r="K476" s="108"/>
+      <c r="L476" s="108"/>
+      <c r="M476" s="108"/>
+      <c r="N476" s="108"/>
+      <c r="O476" s="108"/>
+      <c r="P476" s="108"/>
+      <c r="Q476" s="108"/>
+      <c r="R476" s="108"/>
+      <c r="S476" s="108"/>
+      <c r="T476" s="108"/>
+      <c r="U476" s="108"/>
+      <c r="V476" s="108"/>
+      <c r="W476" s="108"/>
+      <c r="X476" s="108"/>
+      <c r="Y476" s="108"/>
+      <c r="Z476" s="176"/>
+      <c r="AA476" s="176"/>
+      <c r="AB476" s="176"/>
+      <c r="AC476" s="176"/>
+      <c r="AD476" s="176"/>
+      <c r="AE476" s="176"/>
+      <c r="AF476" s="176"/>
+      <c r="AG476" s="176"/>
+      <c r="AH476" s="176"/>
+      <c r="AI476" s="176"/>
+    </row>
+    <row r="477" spans="2:35" s="171" customFormat="1" ht="16">
+      <c r="B477" s="172"/>
+      <c r="C477" s="143"/>
+      <c r="D477" s="143"/>
+      <c r="E477" s="143"/>
+      <c r="F477" s="143"/>
+      <c r="G477" s="143"/>
+      <c r="H477" s="143"/>
+      <c r="I477" s="143"/>
+      <c r="J477" s="143"/>
+      <c r="K477" s="108"/>
+      <c r="L477" s="108"/>
+      <c r="M477" s="108"/>
+      <c r="N477" s="108"/>
+      <c r="O477" s="108"/>
+      <c r="P477" s="108"/>
+      <c r="Q477" s="108"/>
+      <c r="R477" s="108"/>
+      <c r="S477" s="108"/>
+      <c r="T477" s="108"/>
+      <c r="U477" s="108"/>
+      <c r="V477" s="108"/>
+      <c r="W477" s="108"/>
+      <c r="X477" s="108"/>
+      <c r="Y477" s="108"/>
+      <c r="Z477" s="176"/>
+      <c r="AA477" s="176"/>
+      <c r="AB477" s="176"/>
+      <c r="AC477" s="176"/>
+      <c r="AD477" s="176"/>
+      <c r="AE477" s="176"/>
+      <c r="AF477" s="176"/>
+      <c r="AG477" s="176"/>
+      <c r="AH477" s="176"/>
+      <c r="AI477" s="176"/>
+    </row>
+    <row r="478" spans="2:35" s="171" customFormat="1" ht="16">
+      <c r="B478" s="172"/>
+      <c r="C478" s="143"/>
+      <c r="D478" s="143"/>
+      <c r="E478" s="143"/>
+      <c r="F478" s="143"/>
+      <c r="G478" s="143"/>
+      <c r="H478" s="143"/>
+      <c r="I478" s="143"/>
+      <c r="J478" s="143"/>
+      <c r="K478" s="108"/>
+      <c r="L478" s="108"/>
+      <c r="M478" s="108"/>
+      <c r="N478" s="108"/>
+      <c r="O478" s="108"/>
+      <c r="P478" s="108"/>
+      <c r="Q478" s="108"/>
+      <c r="R478" s="108"/>
+      <c r="S478" s="108"/>
+      <c r="T478" s="108"/>
+      <c r="U478" s="108"/>
+      <c r="V478" s="108"/>
+      <c r="W478" s="108"/>
+      <c r="X478" s="108"/>
+      <c r="Y478" s="108"/>
+      <c r="Z478" s="176"/>
+      <c r="AA478" s="176"/>
+      <c r="AB478" s="176"/>
+      <c r="AC478" s="176"/>
+      <c r="AD478" s="176"/>
+      <c r="AE478" s="176"/>
+      <c r="AF478" s="176"/>
+      <c r="AG478" s="176"/>
+      <c r="AH478" s="176"/>
+      <c r="AI478" s="176"/>
+    </row>
+    <row r="479" spans="2:35" s="171" customFormat="1" ht="16">
+      <c r="B479" s="172"/>
+      <c r="C479" s="143"/>
+      <c r="D479" s="143"/>
+      <c r="E479" s="143"/>
+      <c r="F479" s="143"/>
+      <c r="G479" s="143"/>
+      <c r="H479" s="143"/>
+      <c r="I479" s="143"/>
+      <c r="J479" s="143"/>
+      <c r="K479" s="108"/>
+      <c r="L479" s="108"/>
+      <c r="M479" s="108"/>
+      <c r="N479" s="108"/>
+      <c r="O479" s="108"/>
+      <c r="P479" s="108"/>
+      <c r="Q479" s="108"/>
+      <c r="R479" s="108"/>
+      <c r="S479" s="108"/>
+      <c r="T479" s="108"/>
+      <c r="U479" s="108"/>
+      <c r="V479" s="108"/>
+      <c r="W479" s="108"/>
+      <c r="X479" s="108"/>
+      <c r="Y479" s="108"/>
+      <c r="Z479" s="176"/>
+      <c r="AA479" s="176"/>
+      <c r="AB479" s="176"/>
+      <c r="AC479" s="176"/>
+      <c r="AD479" s="176"/>
+      <c r="AE479" s="176"/>
+      <c r="AF479" s="176"/>
+      <c r="AG479" s="176"/>
+      <c r="AH479" s="176"/>
+      <c r="AI479" s="176"/>
+    </row>
+    <row r="480" spans="2:35" s="171" customFormat="1" ht="16">
+      <c r="B480" s="172"/>
+      <c r="C480" s="143"/>
+      <c r="D480" s="143"/>
+      <c r="E480" s="143"/>
+      <c r="F480" s="143"/>
+      <c r="G480" s="143"/>
+      <c r="H480" s="143"/>
+      <c r="I480" s="143"/>
+      <c r="J480" s="143"/>
+      <c r="K480" s="108"/>
+      <c r="L480" s="108"/>
+      <c r="M480" s="108"/>
+      <c r="N480" s="108"/>
+      <c r="O480" s="108"/>
+      <c r="P480" s="108"/>
+      <c r="Q480" s="108"/>
+      <c r="R480" s="108"/>
+      <c r="S480" s="108"/>
+      <c r="T480" s="108"/>
+      <c r="U480" s="108"/>
+      <c r="V480" s="108"/>
+      <c r="W480" s="108"/>
+      <c r="X480" s="108"/>
+      <c r="Y480" s="108"/>
+      <c r="Z480" s="176"/>
+      <c r="AA480" s="176"/>
+      <c r="AB480" s="176"/>
+      <c r="AC480" s="176"/>
+      <c r="AD480" s="176"/>
+      <c r="AE480" s="176"/>
+      <c r="AF480" s="176"/>
+      <c r="AG480" s="176"/>
+      <c r="AH480" s="176"/>
+      <c r="AI480" s="176"/>
+    </row>
+    <row r="481" spans="2:35" s="171" customFormat="1" ht="16">
+      <c r="B481" s="172"/>
+      <c r="C481" s="143"/>
+      <c r="D481" s="143"/>
+      <c r="E481" s="143"/>
+      <c r="F481" s="143"/>
+      <c r="G481" s="143"/>
+      <c r="H481" s="143"/>
+      <c r="I481" s="143"/>
+      <c r="J481" s="143"/>
+      <c r="K481" s="108"/>
+      <c r="L481" s="108"/>
+      <c r="M481" s="108"/>
+      <c r="N481" s="108"/>
+      <c r="O481" s="108"/>
+      <c r="P481" s="108"/>
+      <c r="Q481" s="108"/>
+      <c r="R481" s="108"/>
+      <c r="S481" s="108"/>
+      <c r="T481" s="108"/>
+      <c r="U481" s="108"/>
+      <c r="V481" s="108"/>
+      <c r="W481" s="108"/>
+      <c r="X481" s="108"/>
+      <c r="Y481" s="108"/>
+      <c r="Z481" s="176"/>
+      <c r="AA481" s="176"/>
+      <c r="AB481" s="176"/>
+      <c r="AC481" s="176"/>
+      <c r="AD481" s="176"/>
+      <c r="AE481" s="176"/>
+      <c r="AF481" s="176"/>
+      <c r="AG481" s="176"/>
+      <c r="AH481" s="176"/>
+      <c r="AI481" s="176"/>
+    </row>
+    <row r="482" spans="2:35" s="171" customFormat="1" ht="16">
+      <c r="B482" s="172"/>
+      <c r="C482" s="143"/>
+      <c r="D482" s="143"/>
+      <c r="E482" s="143"/>
+      <c r="F482" s="143"/>
+      <c r="G482" s="143"/>
+      <c r="H482" s="143"/>
+      <c r="I482" s="143"/>
+      <c r="J482" s="143"/>
+      <c r="K482" s="108"/>
+      <c r="L482" s="108"/>
+      <c r="M482" s="108"/>
+      <c r="N482" s="108"/>
+      <c r="O482" s="108"/>
+      <c r="P482" s="108"/>
+      <c r="Q482" s="108"/>
+      <c r="R482" s="108"/>
+      <c r="S482" s="108"/>
+      <c r="T482" s="108"/>
+      <c r="U482" s="108"/>
+      <c r="V482" s="108"/>
+      <c r="W482" s="108"/>
+      <c r="X482" s="108"/>
+      <c r="Y482" s="108"/>
+      <c r="Z482" s="176"/>
+      <c r="AA482" s="176"/>
+      <c r="AB482" s="176"/>
+      <c r="AC482" s="176"/>
+      <c r="AD482" s="176"/>
+      <c r="AE482" s="176"/>
+      <c r="AF482" s="176"/>
+      <c r="AG482" s="176"/>
+      <c r="AH482" s="176"/>
+      <c r="AI482" s="176"/>
+    </row>
+    <row r="483" spans="2:35" s="171" customFormat="1" ht="16">
+      <c r="B483" s="172"/>
+      <c r="C483" s="179"/>
+      <c r="D483" s="179"/>
+      <c r="E483" s="179"/>
+      <c r="F483" s="179"/>
+      <c r="G483" s="179"/>
+      <c r="H483" s="179"/>
+      <c r="I483" s="179"/>
+      <c r="J483" s="179"/>
+      <c r="K483" s="176"/>
+      <c r="L483" s="176"/>
+      <c r="M483" s="176"/>
+      <c r="N483" s="176"/>
+      <c r="O483" s="176"/>
+      <c r="P483" s="176"/>
+      <c r="Q483" s="176"/>
+      <c r="R483" s="176"/>
+      <c r="S483" s="176"/>
+      <c r="T483" s="176"/>
+      <c r="U483" s="176"/>
+      <c r="V483" s="176"/>
+      <c r="W483" s="176"/>
+      <c r="X483" s="176"/>
+      <c r="Y483" s="176"/>
+      <c r="Z483" s="176"/>
+      <c r="AA483" s="176"/>
+      <c r="AB483" s="176"/>
+      <c r="AC483" s="176"/>
+      <c r="AD483" s="176"/>
+      <c r="AE483" s="176"/>
+      <c r="AF483" s="176"/>
+      <c r="AG483" s="176"/>
+      <c r="AH483" s="176"/>
+      <c r="AI483" s="176"/>
+    </row>
+    <row r="484" spans="2:35" s="171" customFormat="1" ht="16">
+      <c r="B484" s="172"/>
+      <c r="C484" s="179"/>
+      <c r="D484" s="178"/>
+      <c r="E484" s="178"/>
+      <c r="F484" s="178"/>
+      <c r="G484" s="178"/>
+      <c r="H484" s="178"/>
+      <c r="I484" s="179"/>
+      <c r="J484" s="179"/>
+      <c r="K484" s="176"/>
+      <c r="L484" s="176"/>
+      <c r="M484" s="176"/>
+      <c r="N484" s="176"/>
+      <c r="O484" s="176"/>
+      <c r="P484" s="176"/>
+      <c r="Q484" s="176"/>
+      <c r="R484" s="176"/>
+      <c r="S484" s="176"/>
+      <c r="T484" s="176"/>
+      <c r="U484" s="176"/>
+      <c r="V484" s="176"/>
+      <c r="W484" s="176"/>
+      <c r="X484" s="176"/>
+      <c r="Y484" s="176"/>
+      <c r="Z484" s="176"/>
+      <c r="AA484" s="176"/>
+      <c r="AB484" s="176"/>
+      <c r="AC484" s="176"/>
+      <c r="AD484" s="176"/>
+      <c r="AE484" s="176"/>
+      <c r="AF484" s="176"/>
+      <c r="AG484" s="176"/>
+      <c r="AH484" s="176"/>
+      <c r="AI484" s="176"/>
+    </row>
+    <row r="485" spans="2:35" s="171" customFormat="1" ht="16">
+      <c r="B485" s="172"/>
+      <c r="C485" s="179"/>
+      <c r="D485" s="178"/>
+      <c r="E485" s="178"/>
+      <c r="F485" s="178"/>
+      <c r="G485" s="178"/>
+      <c r="H485" s="178"/>
+      <c r="I485" s="179"/>
+      <c r="J485" s="179"/>
+      <c r="K485" s="176"/>
+      <c r="L485" s="176"/>
+      <c r="M485" s="176"/>
+      <c r="N485" s="176"/>
+      <c r="O485" s="176"/>
+      <c r="P485" s="176"/>
+      <c r="Q485" s="176"/>
+      <c r="R485" s="176"/>
+      <c r="S485" s="176"/>
+      <c r="T485" s="176"/>
+      <c r="U485" s="176"/>
+      <c r="V485" s="176"/>
+      <c r="W485" s="176"/>
+      <c r="X485" s="176"/>
+      <c r="Y485" s="176"/>
+      <c r="Z485" s="176"/>
+      <c r="AA485" s="176"/>
+      <c r="AB485" s="176"/>
+      <c r="AC485" s="176"/>
+      <c r="AD485" s="176"/>
+      <c r="AE485" s="176"/>
+      <c r="AF485" s="176"/>
+      <c r="AG485" s="176"/>
+      <c r="AH485" s="176"/>
+      <c r="AI485" s="176"/>
+    </row>
+    <row r="486" spans="2:35" s="171" customFormat="1" ht="16">
+      <c r="B486" s="172"/>
+      <c r="C486" s="179"/>
+      <c r="D486" s="178"/>
+      <c r="E486" s="178"/>
+      <c r="F486" s="178"/>
+      <c r="G486" s="178"/>
+      <c r="H486" s="178"/>
+      <c r="I486" s="179"/>
+      <c r="J486" s="179"/>
+      <c r="K486" s="176"/>
+      <c r="L486" s="176"/>
+      <c r="M486" s="176"/>
+      <c r="N486" s="176"/>
+      <c r="O486" s="176"/>
+      <c r="P486" s="176"/>
+      <c r="Q486" s="176"/>
+      <c r="R486" s="176"/>
+      <c r="S486" s="176"/>
+      <c r="T486" s="176"/>
+      <c r="U486" s="176"/>
+      <c r="V486" s="176"/>
+      <c r="W486" s="176"/>
+      <c r="X486" s="176"/>
+      <c r="Y486" s="176"/>
+      <c r="Z486" s="176"/>
+      <c r="AA486" s="176"/>
+      <c r="AB486" s="176"/>
+      <c r="AC486" s="176"/>
+      <c r="AD486" s="176"/>
+      <c r="AE486" s="176"/>
+      <c r="AF486" s="176"/>
+      <c r="AG486" s="176"/>
+      <c r="AH486" s="176"/>
+      <c r="AI486" s="176"/>
+    </row>
+    <row r="487" spans="2:35" s="171" customFormat="1" ht="16">
+      <c r="B487" s="172"/>
+      <c r="C487" s="179"/>
+      <c r="D487" s="179"/>
+      <c r="E487" s="179"/>
+      <c r="F487" s="179"/>
+      <c r="G487" s="179"/>
+      <c r="H487" s="179"/>
+      <c r="I487" s="179"/>
+      <c r="J487" s="179"/>
+      <c r="K487" s="176"/>
+      <c r="L487" s="176"/>
+      <c r="M487" s="176"/>
+      <c r="N487" s="176"/>
+      <c r="O487" s="176"/>
+      <c r="P487" s="176"/>
+      <c r="Q487" s="176"/>
+      <c r="R487" s="176"/>
+      <c r="S487" s="176"/>
+      <c r="T487" s="176"/>
+      <c r="U487" s="176"/>
+      <c r="V487" s="176"/>
+      <c r="W487" s="176"/>
+      <c r="X487" s="176"/>
+      <c r="Y487" s="176"/>
+      <c r="Z487" s="176"/>
+      <c r="AA487" s="176"/>
+      <c r="AB487" s="176"/>
+      <c r="AC487" s="176"/>
+      <c r="AD487" s="176"/>
+      <c r="AE487" s="176"/>
+      <c r="AF487" s="176"/>
+      <c r="AG487" s="176"/>
+      <c r="AH487" s="176"/>
+      <c r="AI487" s="176"/>
+    </row>
+    <row r="488" spans="2:35" s="171" customFormat="1" ht="16">
+      <c r="B488" s="172"/>
+      <c r="C488" s="176"/>
+      <c r="D488" s="175">
+        <v>1.24</v>
+      </c>
+      <c r="E488" s="180"/>
+      <c r="F488" s="175"/>
+      <c r="G488" s="175">
+        <v>54600</v>
+      </c>
+      <c r="H488" s="175" t="s">
+        <v>156</v>
+      </c>
+      <c r="I488" s="175" t="s">
+        <v>157</v>
+      </c>
+      <c r="J488" s="176"/>
+      <c r="K488" s="176"/>
+      <c r="L488" s="176"/>
+      <c r="M488" s="176"/>
+      <c r="N488" s="176"/>
+      <c r="O488" s="176"/>
+      <c r="P488" s="176"/>
+      <c r="Q488" s="176"/>
+      <c r="R488" s="176"/>
+      <c r="S488" s="176"/>
+      <c r="T488" s="176"/>
+      <c r="U488" s="176"/>
+      <c r="V488" s="176"/>
+      <c r="W488" s="176"/>
+      <c r="X488" s="176"/>
+      <c r="Y488" s="176"/>
+      <c r="Z488" s="176"/>
+      <c r="AA488" s="176"/>
+      <c r="AB488" s="176"/>
+      <c r="AC488" s="176"/>
+      <c r="AD488" s="176"/>
+      <c r="AE488" s="176"/>
+      <c r="AF488" s="176"/>
+      <c r="AG488" s="176"/>
+      <c r="AH488" s="176"/>
+      <c r="AI488" s="176"/>
+    </row>
+    <row r="489" spans="2:35" s="171" customFormat="1" ht="16">
+      <c r="B489" s="172"/>
+      <c r="C489" s="176"/>
+      <c r="D489" s="175"/>
+      <c r="E489" s="180"/>
+      <c r="F489" s="175"/>
+      <c r="G489" s="175">
+        <v>1000000</v>
+      </c>
+      <c r="H489" s="175" t="s">
+        <v>158</v>
+      </c>
+      <c r="I489" s="176"/>
+      <c r="J489" s="176"/>
+      <c r="K489" s="176"/>
+      <c r="L489" s="176"/>
+      <c r="M489" s="176"/>
+      <c r="N489" s="176"/>
+      <c r="O489" s="176"/>
+      <c r="P489" s="176"/>
+      <c r="Q489" s="176"/>
+      <c r="R489" s="176"/>
+      <c r="S489" s="176"/>
+      <c r="T489" s="176"/>
+      <c r="U489" s="176"/>
+      <c r="V489" s="176"/>
+      <c r="W489" s="176"/>
+      <c r="X489" s="176"/>
+      <c r="Y489" s="176"/>
+      <c r="Z489" s="176"/>
+      <c r="AA489" s="176"/>
+      <c r="AB489" s="176"/>
+      <c r="AC489" s="176"/>
+      <c r="AD489" s="176"/>
+      <c r="AE489" s="176"/>
+      <c r="AF489" s="176"/>
+      <c r="AG489" s="176"/>
+      <c r="AH489" s="176"/>
+      <c r="AI489" s="176"/>
+    </row>
+    <row r="490" spans="2:35" s="171" customFormat="1" ht="16">
+      <c r="B490" s="172"/>
+      <c r="C490" s="176"/>
+      <c r="D490" s="175"/>
+      <c r="E490" s="180"/>
+      <c r="F490" s="175"/>
+      <c r="G490" s="175">
+        <v>5.4600000000000003E-2</v>
+      </c>
+      <c r="H490" s="175" t="s">
+        <v>156</v>
+      </c>
+      <c r="I490" s="176"/>
+      <c r="J490" s="176"/>
+      <c r="K490" s="176"/>
+      <c r="L490" s="176"/>
+      <c r="M490" s="176"/>
+      <c r="N490" s="176"/>
+      <c r="O490" s="176"/>
+      <c r="P490" s="176"/>
+      <c r="Q490" s="176"/>
+      <c r="R490" s="176"/>
+      <c r="S490" s="176"/>
+      <c r="T490" s="176"/>
+      <c r="U490" s="176"/>
+      <c r="V490" s="176"/>
+      <c r="W490" s="176"/>
+      <c r="X490" s="176"/>
+      <c r="Y490" s="176"/>
+      <c r="Z490" s="176"/>
+      <c r="AA490" s="176"/>
+      <c r="AB490" s="176"/>
+      <c r="AC490" s="176"/>
+      <c r="AD490" s="176"/>
+      <c r="AE490" s="176"/>
+      <c r="AF490" s="176"/>
+      <c r="AG490" s="176"/>
+      <c r="AH490" s="176"/>
+      <c r="AI490" s="176"/>
+    </row>
+    <row r="491" spans="2:35" s="171" customFormat="1" ht="16">
+      <c r="B491" s="172"/>
+      <c r="C491" s="176"/>
+      <c r="D491" s="176"/>
+      <c r="E491" s="176"/>
+      <c r="F491" s="176"/>
+      <c r="G491" s="176"/>
+      <c r="H491" s="176"/>
+      <c r="I491" s="176"/>
+      <c r="J491" s="176"/>
+      <c r="K491" s="176"/>
+      <c r="L491" s="176"/>
+      <c r="M491" s="176"/>
+      <c r="N491" s="176"/>
+      <c r="O491" s="176"/>
+      <c r="P491" s="176"/>
+      <c r="Q491" s="176"/>
+      <c r="R491" s="176"/>
+      <c r="S491" s="176"/>
+      <c r="T491" s="176"/>
+      <c r="U491" s="176"/>
+      <c r="V491" s="176"/>
+      <c r="W491" s="176"/>
+      <c r="X491" s="176"/>
+      <c r="Y491" s="176"/>
+      <c r="Z491" s="176"/>
+      <c r="AA491" s="176"/>
+      <c r="AB491" s="176"/>
+      <c r="AC491" s="176"/>
+      <c r="AD491" s="176"/>
+      <c r="AE491" s="176"/>
+      <c r="AF491" s="176"/>
+      <c r="AG491" s="176"/>
+      <c r="AH491" s="176"/>
+      <c r="AI491" s="176"/>
+    </row>
+    <row r="492" spans="2:35" s="171" customFormat="1" ht="16">
+      <c r="B492" s="172"/>
+      <c r="C492" s="176"/>
+      <c r="D492" s="176"/>
+      <c r="E492" s="176"/>
+      <c r="F492" s="176"/>
+      <c r="G492" s="176"/>
+      <c r="H492" s="176"/>
+      <c r="I492" s="176"/>
+      <c r="J492" s="176"/>
+      <c r="K492" s="176"/>
+      <c r="L492" s="176"/>
+      <c r="M492" s="176"/>
+      <c r="N492" s="176"/>
+      <c r="O492" s="176"/>
+      <c r="P492" s="176"/>
+      <c r="Q492" s="176"/>
+      <c r="R492" s="176"/>
+      <c r="S492" s="176"/>
+      <c r="T492" s="176"/>
+      <c r="U492" s="176"/>
+      <c r="V492" s="176"/>
+      <c r="W492" s="176"/>
+      <c r="X492" s="176"/>
+      <c r="Y492" s="176"/>
+      <c r="Z492" s="176"/>
+      <c r="AA492" s="176"/>
+      <c r="AB492" s="176"/>
+      <c r="AC492" s="176"/>
+      <c r="AD492" s="176"/>
+      <c r="AE492" s="176"/>
+      <c r="AF492" s="176"/>
+      <c r="AG492" s="176"/>
+      <c r="AH492" s="176"/>
+      <c r="AI492" s="176"/>
+    </row>
+    <row r="493" spans="2:35" s="171" customFormat="1" ht="16">
+      <c r="B493" s="172"/>
+      <c r="C493" s="176"/>
+      <c r="D493" s="176"/>
+      <c r="E493" s="176"/>
+      <c r="F493" s="176"/>
+      <c r="G493" s="176"/>
+      <c r="H493" s="176"/>
+      <c r="I493" s="176"/>
+      <c r="J493" s="176"/>
+      <c r="K493" s="176"/>
+      <c r="L493" s="176"/>
+      <c r="M493" s="176"/>
+      <c r="N493" s="176"/>
+      <c r="O493" s="176"/>
+      <c r="P493" s="176"/>
+      <c r="Q493" s="176"/>
+      <c r="R493" s="176"/>
+      <c r="S493" s="176"/>
+      <c r="T493" s="176"/>
+      <c r="U493" s="176"/>
+      <c r="V493" s="176"/>
+      <c r="W493" s="176"/>
+      <c r="X493" s="176"/>
+      <c r="Y493" s="176"/>
+      <c r="Z493" s="176"/>
+      <c r="AA493" s="176"/>
+      <c r="AB493" s="176"/>
+      <c r="AC493" s="176"/>
+      <c r="AD493" s="176"/>
+      <c r="AE493" s="176"/>
+      <c r="AF493" s="176"/>
+      <c r="AG493" s="176"/>
+      <c r="AH493" s="176"/>
+      <c r="AI493" s="176"/>
+    </row>
+    <row r="494" spans="2:35" s="171" customFormat="1" ht="16">
+      <c r="B494" s="172"/>
+      <c r="C494" s="176"/>
+      <c r="D494" s="176"/>
+      <c r="E494" s="176"/>
+      <c r="F494" s="176"/>
+      <c r="G494" s="176"/>
+      <c r="H494" s="176"/>
+      <c r="I494" s="176"/>
+      <c r="J494" s="176"/>
+      <c r="K494" s="176"/>
+      <c r="L494" s="176"/>
+      <c r="M494" s="176"/>
+      <c r="N494" s="176"/>
+      <c r="O494" s="176"/>
+      <c r="P494" s="176"/>
+      <c r="Q494" s="176"/>
+      <c r="R494" s="176"/>
+      <c r="S494" s="176"/>
+      <c r="T494" s="176"/>
+      <c r="U494" s="176"/>
+      <c r="V494" s="176"/>
+      <c r="W494" s="176"/>
+      <c r="X494" s="176"/>
+      <c r="Y494" s="176"/>
+      <c r="Z494" s="176"/>
+      <c r="AA494" s="176"/>
+      <c r="AB494" s="176"/>
+      <c r="AC494" s="176"/>
+      <c r="AD494" s="176"/>
+      <c r="AE494" s="176"/>
+      <c r="AF494" s="176"/>
+      <c r="AG494" s="176"/>
+      <c r="AH494" s="176"/>
+      <c r="AI494" s="176"/>
+    </row>
+    <row r="495" spans="2:35" s="171" customFormat="1" ht="16">
+      <c r="B495" s="172"/>
+      <c r="C495" s="176"/>
+      <c r="D495" s="176"/>
+      <c r="E495" s="176"/>
+      <c r="F495" s="176"/>
+      <c r="G495" s="176"/>
+      <c r="H495" s="176"/>
+      <c r="I495" s="176"/>
+      <c r="J495" s="176"/>
+      <c r="K495" s="176"/>
+      <c r="L495" s="176"/>
+      <c r="M495" s="176"/>
+      <c r="N495" s="176"/>
+      <c r="O495" s="176"/>
+      <c r="P495" s="176"/>
+      <c r="Q495" s="176"/>
+      <c r="R495" s="176"/>
+      <c r="S495" s="176"/>
+      <c r="T495" s="176"/>
+      <c r="U495" s="176"/>
+      <c r="V495" s="176"/>
+      <c r="W495" s="176"/>
+      <c r="X495" s="176"/>
+      <c r="Y495" s="176"/>
+      <c r="Z495" s="176"/>
+      <c r="AA495" s="176"/>
+      <c r="AB495" s="176"/>
+      <c r="AC495" s="176"/>
+      <c r="AD495" s="176"/>
+      <c r="AE495" s="176"/>
+      <c r="AF495" s="176"/>
+      <c r="AG495" s="176"/>
+      <c r="AH495" s="176"/>
+      <c r="AI495" s="176"/>
+    </row>
+    <row r="496" spans="2:35" s="171" customFormat="1" ht="16">
+      <c r="B496" s="172"/>
+      <c r="C496" s="176"/>
+      <c r="D496" s="176"/>
+      <c r="E496" s="176"/>
+      <c r="F496" s="176"/>
+      <c r="G496" s="176"/>
+      <c r="H496" s="176"/>
+      <c r="I496" s="176"/>
+      <c r="J496" s="176"/>
+      <c r="K496" s="176"/>
+      <c r="L496" s="176"/>
+      <c r="M496" s="176"/>
+      <c r="N496" s="176"/>
+      <c r="O496" s="176"/>
+      <c r="P496" s="176"/>
+      <c r="Q496" s="176"/>
+      <c r="R496" s="176"/>
+      <c r="S496" s="176"/>
+      <c r="T496" s="176"/>
+      <c r="U496" s="176"/>
+      <c r="V496" s="176"/>
+      <c r="W496" s="176"/>
+      <c r="X496" s="176"/>
+      <c r="Y496" s="176"/>
+      <c r="Z496" s="176"/>
+      <c r="AA496" s="176"/>
+      <c r="AB496" s="176"/>
+      <c r="AC496" s="176"/>
+      <c r="AD496" s="176"/>
+      <c r="AE496" s="176"/>
+      <c r="AF496" s="176"/>
+      <c r="AG496" s="176"/>
+      <c r="AH496" s="176"/>
+      <c r="AI496" s="176"/>
+    </row>
+    <row r="497" spans="2:35" s="171" customFormat="1" ht="16">
+      <c r="B497" s="172"/>
+      <c r="C497" s="176"/>
+      <c r="D497" s="176"/>
+      <c r="E497" s="176"/>
+      <c r="F497" s="176"/>
+      <c r="G497" s="176"/>
+      <c r="H497" s="176"/>
+      <c r="I497" s="176"/>
+      <c r="J497" s="176"/>
+      <c r="K497" s="176"/>
+      <c r="L497" s="176"/>
+      <c r="M497" s="176"/>
+      <c r="N497" s="176"/>
+      <c r="O497" s="176"/>
+      <c r="P497" s="176"/>
+      <c r="Q497" s="176"/>
+      <c r="R497" s="176"/>
+      <c r="S497" s="176"/>
+      <c r="T497" s="176"/>
+      <c r="U497" s="176"/>
+      <c r="V497" s="176"/>
+      <c r="W497" s="176"/>
+      <c r="X497" s="176"/>
+      <c r="Y497" s="176"/>
+      <c r="Z497" s="176"/>
+      <c r="AA497" s="176"/>
+      <c r="AB497" s="176"/>
+      <c r="AC497" s="176"/>
+      <c r="AD497" s="176"/>
+      <c r="AE497" s="176"/>
+      <c r="AF497" s="176"/>
+      <c r="AG497" s="176"/>
+      <c r="AH497" s="176"/>
+      <c r="AI497" s="176"/>
+    </row>
+    <row r="498" spans="2:35" s="171" customFormat="1" ht="16">
+      <c r="B498" s="172"/>
+      <c r="C498" s="176"/>
+      <c r="D498" s="176"/>
+      <c r="E498" s="176"/>
+      <c r="F498" s="176"/>
+      <c r="G498" s="176"/>
+      <c r="H498" s="176"/>
+      <c r="I498" s="176"/>
+      <c r="J498" s="176"/>
+      <c r="K498" s="176"/>
+      <c r="L498" s="176"/>
+      <c r="M498" s="176"/>
+      <c r="N498" s="176"/>
+      <c r="O498" s="176"/>
+      <c r="P498" s="176"/>
+      <c r="Q498" s="176"/>
+      <c r="R498" s="176"/>
+      <c r="S498" s="176"/>
+      <c r="T498" s="176"/>
+      <c r="U498" s="176"/>
+      <c r="V498" s="176"/>
+      <c r="W498" s="176"/>
+      <c r="X498" s="176"/>
+      <c r="Y498" s="176"/>
+      <c r="Z498" s="176"/>
+      <c r="AA498" s="176"/>
+      <c r="AB498" s="176"/>
+      <c r="AC498" s="176"/>
+      <c r="AD498" s="176"/>
+      <c r="AE498" s="176"/>
+      <c r="AF498" s="176"/>
+      <c r="AG498" s="176"/>
+      <c r="AH498" s="176"/>
+      <c r="AI498" s="176"/>
+    </row>
+    <row r="499" spans="2:35" s="171" customFormat="1" ht="16">
+      <c r="B499" s="172"/>
+      <c r="C499" s="176"/>
+      <c r="D499" s="176"/>
+      <c r="E499" s="176"/>
+      <c r="F499" s="176"/>
+      <c r="G499" s="176"/>
+      <c r="H499" s="176"/>
+      <c r="I499" s="176"/>
+      <c r="J499" s="176"/>
+      <c r="K499" s="176"/>
+      <c r="L499" s="176"/>
+      <c r="M499" s="176"/>
+      <c r="N499" s="176"/>
+      <c r="O499" s="176"/>
+      <c r="P499" s="176"/>
+      <c r="Q499" s="176"/>
+      <c r="R499" s="176"/>
+      <c r="S499" s="176"/>
+      <c r="T499" s="176"/>
+      <c r="U499" s="176"/>
+      <c r="V499" s="176"/>
+      <c r="W499" s="176"/>
+      <c r="X499" s="176"/>
+      <c r="Y499" s="176"/>
+      <c r="Z499" s="176"/>
+      <c r="AA499" s="176"/>
+      <c r="AB499" s="176"/>
+      <c r="AC499" s="176"/>
+      <c r="AD499" s="176"/>
+      <c r="AE499" s="176"/>
+      <c r="AF499" s="176"/>
+      <c r="AG499" s="176"/>
+      <c r="AH499" s="176"/>
+      <c r="AI499" s="176"/>
+    </row>
+    <row r="500" spans="2:35" s="171" customFormat="1" ht="16">
+      <c r="B500" s="172"/>
+      <c r="C500" s="176"/>
+      <c r="D500" s="176"/>
+      <c r="E500" s="176"/>
+      <c r="F500" s="176"/>
+      <c r="G500" s="176"/>
+      <c r="H500" s="176"/>
+      <c r="I500" s="176"/>
+      <c r="J500" s="176"/>
+      <c r="K500" s="176"/>
+      <c r="L500" s="176"/>
+      <c r="M500" s="176"/>
+      <c r="N500" s="176"/>
+      <c r="O500" s="176"/>
+      <c r="P500" s="176"/>
+      <c r="Q500" s="176"/>
+      <c r="R500" s="176"/>
+      <c r="S500" s="176"/>
+      <c r="T500" s="176"/>
+      <c r="U500" s="176"/>
+      <c r="V500" s="176"/>
+      <c r="W500" s="176"/>
+      <c r="X500" s="176"/>
+      <c r="Y500" s="176"/>
+      <c r="Z500" s="176"/>
+      <c r="AA500" s="176"/>
+      <c r="AB500" s="176"/>
+      <c r="AC500" s="176"/>
+      <c r="AD500" s="176"/>
+      <c r="AE500" s="176"/>
+      <c r="AF500" s="176"/>
+      <c r="AG500" s="176"/>
+      <c r="AH500" s="176"/>
+      <c r="AI500" s="176"/>
+    </row>
+    <row r="501" spans="2:35" s="171" customFormat="1" ht="16">
+      <c r="B501" s="172"/>
+      <c r="C501" s="176"/>
+      <c r="D501" s="176"/>
+      <c r="E501" s="176"/>
+      <c r="F501" s="176"/>
+      <c r="G501" s="176"/>
+      <c r="H501" s="176"/>
+      <c r="I501" s="176"/>
+      <c r="J501" s="176"/>
+      <c r="K501" s="176"/>
+      <c r="L501" s="176"/>
+      <c r="M501" s="176"/>
+      <c r="N501" s="176"/>
+      <c r="O501" s="176"/>
+      <c r="P501" s="176"/>
+      <c r="Q501" s="176"/>
+      <c r="R501" s="176"/>
+      <c r="S501" s="176"/>
+      <c r="T501" s="176"/>
+      <c r="U501" s="176"/>
+      <c r="V501" s="176"/>
+      <c r="W501" s="176"/>
+      <c r="X501" s="176"/>
+      <c r="Y501" s="176"/>
+      <c r="Z501" s="176"/>
+      <c r="AA501" s="176"/>
+      <c r="AB501" s="176"/>
+      <c r="AC501" s="176"/>
+      <c r="AD501" s="176"/>
+      <c r="AE501" s="176"/>
+      <c r="AF501" s="176"/>
+      <c r="AG501" s="176"/>
+      <c r="AH501" s="176"/>
+      <c r="AI501" s="176"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/carriers_source_analyses/corn.carrier.xlsx
+++ b/carriers_source_analyses/corn.carrier.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/carriers_source_analyses/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16100" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="43680" yWindow="-1440" windowWidth="27860" windowHeight="16100" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -32,8 +37,11 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -514,9 +522,6 @@
   </si>
   <si>
     <t>Carrier (global properties)</t>
-  </si>
-  <si>
-    <t>This sheet summarizes all carrier attributes formatted in the way they are used by the Energy Transition Model. This sheet contains only pure carrier values. For some countries and carriers Fuel Chain Emissions are defined (only for NL); if so these FCE are documented in a separate sheet (e.g. nl_fce). Use the Excel formulas to find the original data and sources for these numbers.</t>
   </si>
   <si>
     <r>
@@ -592,6 +597,9 @@
   <si>
     <t>http://refman.et-model.com/publications/1710</t>
   </si>
+  <si>
+    <t xml:space="preserve">This sheet summarizes all carrier attributes formatted in the way they are used by the Energy Transition Model. This sheet contains only pure carrier values. For some countries and carriers Fuel Chain Emissions are defined (only for NL); if so these FCE are documented in a separate sheet (e.g. nl_fce). Use the Excel formulas to find the original data and sources for these numbers. The carrier analysis can be imported on ETSource by running the following rake task: rake import:carrier CARRIER="carrier name" (eg rake import:carrier CARRIER=crude_oil) </t>
+  </si>
 </sst>
 </file>
 
@@ -608,7 +616,7 @@
     <numFmt numFmtId="171" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="172" formatCode="0.00000000000000"/>
   </numFmts>
-  <fonts count="39" x14ac:knownFonts="1">
+  <fonts count="38" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -828,11 +836,6 @@
       <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Lucida Grande"/>
     </font>
     <font>
       <b/>
@@ -1806,7 +1809,7 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="12" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1818,18 +1821,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="25" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="167" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="4" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1839,6 +1842,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1866,7 +1870,6 @@
     <xf numFmtId="0" fontId="25" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="350">
     <cellStyle name="Comma" xfId="320" builtinId="3"/>
@@ -2222,80 +2225,15 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>165100</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>3949700</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3073" name="export_data" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s3073"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Lucida Grande"/>
-                  <a:ea typeface="Lucida Grande"/>
-                  <a:cs typeface="Lucida Grande"/>
-                </a:rPr>
-                <a:t>Update carrier attributes on ETSource</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2861,7 +2799,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cover Sheet"/>
@@ -2974,12 +2912,13 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cover sheet"/>
       <sheetName val="Dashboard"/>
       <sheetName val="carrier_manager.xlsm"/>
+      <sheetName val="carrier_manager"/>
     </sheetNames>
     <definedNames>
       <definedName name="update_attributes"/>
@@ -2988,6 +2927,7 @@
       <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3320,33 +3260,33 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="29" customWidth="1"/>
-    <col min="2" max="2" width="9.125" style="21" customWidth="1"/>
-    <col min="3" max="3" width="44.125" style="21" customWidth="1"/>
-    <col min="4" max="4" width="2.125" style="21" customWidth="1"/>
-    <col min="5" max="16384" width="10.625" style="21"/>
+    <col min="1" max="1" width="3.42578125" style="29" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="21" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" style="21" customWidth="1"/>
+    <col min="4" max="4" width="2.140625" style="21" customWidth="1"/>
+    <col min="5" max="16384" width="10.7109375" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="27" customFormat="1">
+    <row r="1" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="25"/>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
     </row>
-    <row r="2" spans="1:4" ht="20">
+    <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="28" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="28"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="7"/>
       <c r="B4" s="8" t="s">
         <v>147</v>
@@ -3355,7 +3295,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="10" t="s">
         <v>13</v>
@@ -3364,7 +3304,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
       <c r="B6" s="12" t="s">
         <v>8</v>
@@ -3373,17 +3313,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
       <c r="B9" s="73" t="s">
         <v>14</v>
@@ -3391,13 +3331,13 @@
       <c r="C9" s="74"/>
       <c r="D9" s="160"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
       <c r="B10" s="75"/>
       <c r="C10" s="76"/>
       <c r="D10" s="161"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
       <c r="B11" s="75" t="s">
         <v>15</v>
@@ -3407,7 +3347,7 @@
       </c>
       <c r="D11" s="161"/>
     </row>
-    <row r="12" spans="1:4" ht="16" thickBot="1">
+    <row r="12" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="75"/>
       <c r="C12" s="18" t="s">
@@ -3415,7 +3355,7 @@
       </c>
       <c r="D12" s="161"/>
     </row>
-    <row r="13" spans="1:4" ht="16" thickBot="1">
+    <row r="13" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="75"/>
       <c r="C13" s="78" t="s">
@@ -3423,7 +3363,7 @@
       </c>
       <c r="D13" s="161"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
       <c r="B14" s="75"/>
       <c r="C14" s="76" t="s">
@@ -3431,13 +3371,13 @@
       </c>
       <c r="D14" s="161"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
       <c r="B15" s="75"/>
       <c r="C15" s="76"/>
       <c r="D15" s="161"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
       <c r="B16" s="75" t="s">
         <v>20</v>
@@ -3447,7 +3387,7 @@
       </c>
       <c r="D16" s="161"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="7"/>
       <c r="B17" s="75"/>
       <c r="C17" s="80" t="s">
@@ -3455,7 +3395,7 @@
       </c>
       <c r="D17" s="161"/>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="7"/>
       <c r="B18" s="75"/>
       <c r="C18" s="81" t="s">
@@ -3463,7 +3403,7 @@
       </c>
       <c r="D18" s="161"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="7"/>
       <c r="B19" s="75"/>
       <c r="C19" s="82" t="s">
@@ -3471,7 +3411,7 @@
       </c>
       <c r="D19" s="161"/>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="7"/>
       <c r="B20" s="83"/>
       <c r="C20" s="84" t="s">
@@ -3479,7 +3419,7 @@
       </c>
       <c r="D20" s="161"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="7"/>
       <c r="B21" s="83"/>
       <c r="C21" s="85" t="s">
@@ -3487,7 +3427,7 @@
       </c>
       <c r="D21" s="161"/>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="7"/>
       <c r="B22" s="83"/>
       <c r="C22" s="86" t="s">
@@ -3495,14 +3435,14 @@
       </c>
       <c r="D22" s="161"/>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B23" s="83"/>
       <c r="C23" s="87" t="s">
         <v>28</v>
       </c>
       <c r="D23" s="161"/>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B24" s="162"/>
       <c r="C24" s="163"/>
       <c r="D24" s="164"/>
@@ -3510,76 +3450,71 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="B1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.25" style="35" customWidth="1"/>
-    <col min="2" max="2" width="3.75" style="35" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="35" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="35" customWidth="1"/>
     <col min="3" max="3" width="46" style="35" customWidth="1"/>
-    <col min="4" max="4" width="12.75" style="35" customWidth="1"/>
-    <col min="5" max="5" width="17.375" style="35" customWidth="1"/>
-    <col min="6" max="6" width="4.625" style="35" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="35" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="35" customWidth="1"/>
+    <col min="6" max="6" width="4.5703125" style="35" customWidth="1"/>
     <col min="7" max="7" width="45" style="35" customWidth="1"/>
-    <col min="8" max="8" width="5.125" style="35" customWidth="1"/>
-    <col min="9" max="9" width="51.5" style="35" customWidth="1"/>
-    <col min="10" max="10" width="5.375" style="35" customWidth="1"/>
-    <col min="11" max="16384" width="10.625" style="35"/>
+    <col min="8" max="8" width="5.140625" style="35" customWidth="1"/>
+    <col min="9" max="9" width="51.42578125" style="35" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="35" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
       <c r="D1" s="33"/>
       <c r="E1" s="33"/>
       <c r="F1" s="33"/>
       <c r="G1" s="33"/>
     </row>
-    <row r="2" spans="2:11" ht="15" customHeight="1">
-      <c r="B2" s="188" t="s">
-        <v>150</v>
-      </c>
-      <c r="C2" s="189"/>
-      <c r="D2" s="189"/>
-      <c r="E2" s="190"/>
+    <row r="2" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="189" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2" s="190"/>
+      <c r="D2" s="190"/>
+      <c r="E2" s="191"/>
       <c r="F2" s="33"/>
       <c r="G2" s="33"/>
     </row>
-    <row r="3" spans="2:11">
-      <c r="B3" s="191"/>
-      <c r="C3" s="192"/>
-      <c r="D3" s="192"/>
-      <c r="E3" s="193"/>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B3" s="192"/>
+      <c r="C3" s="193"/>
+      <c r="D3" s="193"/>
+      <c r="E3" s="194"/>
       <c r="F3" s="33"/>
       <c r="G3" s="33"/>
     </row>
-    <row r="4" spans="2:11">
-      <c r="B4" s="194"/>
-      <c r="C4" s="195"/>
-      <c r="D4" s="195"/>
-      <c r="E4" s="196"/>
+    <row r="4" spans="2:11" ht="59" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="195"/>
+      <c r="C4" s="196"/>
+      <c r="D4" s="196"/>
+      <c r="E4" s="197"/>
       <c r="F4" s="33"/>
       <c r="G4" s="33"/>
     </row>
-    <row r="5" spans="2:11" ht="16" thickBot="1">
+    <row r="5" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D5" s="33"/>
     </row>
-    <row r="6" spans="2:11">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" s="36"/>
       <c r="C6" s="20"/>
       <c r="D6" s="20"/>
@@ -3590,7 +3525,7 @@
       <c r="I6" s="20"/>
       <c r="J6" s="37"/>
     </row>
-    <row r="7" spans="2:11" s="39" customFormat="1" ht="18">
+    <row r="7" spans="2:11" s="39" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="B7" s="88"/>
       <c r="C7" s="19" t="s">
         <v>12</v>
@@ -3611,7 +3546,7 @@
       </c>
       <c r="J7" s="90"/>
     </row>
-    <row r="8" spans="2:11" s="39" customFormat="1" ht="18">
+    <row r="8" spans="2:11" s="39" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="B8" s="23"/>
       <c r="C8" s="18"/>
       <c r="D8" s="31"/>
@@ -3622,7 +3557,7 @@
       <c r="I8" s="18"/>
       <c r="J8" s="40"/>
     </row>
-    <row r="9" spans="2:11" s="39" customFormat="1" ht="19" thickBot="1">
+    <row r="9" spans="2:11" s="39" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="23"/>
       <c r="C9" s="159" t="s">
         <v>149</v>
@@ -3635,7 +3570,7 @@
       <c r="I9" s="18"/>
       <c r="J9" s="40"/>
     </row>
-    <row r="10" spans="2:11" s="39" customFormat="1" ht="19" thickBot="1">
+    <row r="10" spans="2:11" s="39" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="23"/>
       <c r="C10" s="96" t="s">
         <v>36</v>
@@ -3657,7 +3592,7 @@
       </c>
       <c r="J10" s="40"/>
     </row>
-    <row r="11" spans="2:11" s="39" customFormat="1" ht="19" thickBot="1">
+    <row r="11" spans="2:11" s="39" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="23"/>
       <c r="C11" s="102" t="s">
         <v>37</v>
@@ -3677,7 +3612,7 @@
       </c>
       <c r="J11" s="40"/>
     </row>
-    <row r="12" spans="2:11" s="39" customFormat="1" ht="19" thickBot="1">
+    <row r="12" spans="2:11" s="39" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="23"/>
       <c r="C12" s="102" t="s">
         <v>146</v>
@@ -3697,7 +3632,7 @@
       </c>
       <c r="J12" s="40"/>
     </row>
-    <row r="13" spans="2:11" ht="16" thickBot="1">
+    <row r="13" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="38"/>
       <c r="C13" s="34" t="s">
         <v>39</v>
@@ -3718,10 +3653,10 @@
       <c r="J13" s="91"/>
       <c r="K13" s="33"/>
     </row>
-    <row r="14" spans="2:11" s="39" customFormat="1" ht="19" thickBot="1">
+    <row r="14" spans="2:11" s="39" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="23"/>
       <c r="C14" s="165" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D14" s="22" t="s">
         <v>42</v>
@@ -3732,15 +3667,15 @@
       </c>
       <c r="F14" s="165"/>
       <c r="G14" s="167" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H14" s="30"/>
-      <c r="I14" s="197" t="s">
-        <v>154</v>
+      <c r="I14" s="188" t="s">
+        <v>153</v>
       </c>
       <c r="J14" s="40"/>
     </row>
-    <row r="15" spans="2:11" s="151" customFormat="1" ht="16" thickBot="1">
+    <row r="15" spans="2:11" s="151" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="152"/>
       <c r="C15" s="153"/>
       <c r="D15" s="153"/>
@@ -3757,43 +3692,6 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x14">
-      <controls>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="3073" r:id="rId3" name="export_data">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[2]!update_attributes">
-                <anchor moveWithCells="1" sizeWithCells="1">
-                  <from>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>165100</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>3949700</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-          <mc:Fallback/>
-        </mc:AlternateContent>
-      </controls>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3806,30 +3704,29 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="62" customWidth="1"/>
-    <col min="2" max="2" width="3.5" style="62" customWidth="1"/>
-    <col min="3" max="3" width="35.875" style="62" customWidth="1"/>
-    <col min="4" max="4" width="16.625" style="62" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="62" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.625" style="62" customWidth="1"/>
-    <col min="7" max="7" width="10.75" style="62" customWidth="1"/>
-    <col min="8" max="8" width="4.75" style="62" customWidth="1"/>
-    <col min="9" max="9" width="9.875" style="63" customWidth="1"/>
+    <col min="1" max="2" width="3.42578125" style="62" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="62" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="62" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="62" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="62" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="62" customWidth="1"/>
+    <col min="8" max="8" width="4.7109375" style="62" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" style="63" customWidth="1"/>
     <col min="10" max="10" width="3" style="63" customWidth="1"/>
-    <col min="11" max="11" width="8.75" style="63" customWidth="1"/>
-    <col min="12" max="12" width="3.25" style="63" customWidth="1"/>
-    <col min="13" max="13" width="8.5" style="63" customWidth="1"/>
-    <col min="14" max="14" width="2.75" style="63" customWidth="1"/>
-    <col min="15" max="16" width="8.5" style="63" customWidth="1"/>
-    <col min="17" max="17" width="2.75" style="63" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" style="63" customWidth="1"/>
+    <col min="12" max="12" width="3.28515625" style="63" customWidth="1"/>
+    <col min="13" max="13" width="8.42578125" style="63" customWidth="1"/>
+    <col min="14" max="14" width="2.7109375" style="63" customWidth="1"/>
+    <col min="15" max="16" width="8.42578125" style="63" customWidth="1"/>
+    <col min="17" max="17" width="2.7109375" style="63" customWidth="1"/>
     <col min="18" max="18" width="60" style="62" customWidth="1"/>
-    <col min="19" max="16384" width="10.625" style="62"/>
+    <col min="19" max="16384" width="10.7109375" style="62"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="16" thickBot="1"/>
-    <row r="2" spans="2:18">
+    <row r="1" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B2" s="64"/>
       <c r="C2" s="65"/>
       <c r="D2" s="65"/>
@@ -3848,7 +3745,7 @@
       <c r="Q2" s="66"/>
       <c r="R2" s="67"/>
     </row>
-    <row r="3" spans="2:18" s="24" customFormat="1">
+    <row r="3" spans="2:18" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="23"/>
       <c r="C3" s="95" t="s">
         <v>29</v>
@@ -3878,14 +3775,14 @@
         <v>49</v>
       </c>
       <c r="P3" s="60" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Q3" s="60"/>
       <c r="R3" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="2:18">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B4" s="68"/>
       <c r="C4" s="69"/>
       <c r="D4" s="69"/>
@@ -3904,7 +3801,7 @@
       <c r="Q4" s="94"/>
       <c r="R4" s="2"/>
     </row>
-    <row r="5" spans="2:18" ht="16" thickBot="1">
+    <row r="5" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="68"/>
       <c r="C5" s="18" t="s">
         <v>47</v>
@@ -3925,7 +3822,7 @@
       <c r="Q5" s="16"/>
       <c r="R5" s="3"/>
     </row>
-    <row r="6" spans="2:18" ht="16" thickBot="1">
+    <row r="6" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="68"/>
       <c r="C6" s="105" t="s">
         <v>36</v>
@@ -3954,7 +3851,7 @@
       <c r="Q6" s="16"/>
       <c r="R6" s="3"/>
     </row>
-    <row r="7" spans="2:18" s="6" customFormat="1" ht="16" thickBot="1">
+    <row r="7" spans="2:18" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
       <c r="C7" s="106" t="s">
         <v>37</v>
@@ -3987,7 +3884,7 @@
       <c r="Q7" s="16"/>
       <c r="R7" s="112"/>
     </row>
-    <row r="8" spans="2:18" s="6" customFormat="1" ht="16" thickBot="1">
+    <row r="8" spans="2:18" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
       <c r="C8" s="106" t="s">
         <v>146</v>
@@ -4020,7 +3917,7 @@
       <c r="Q8" s="16"/>
       <c r="R8" s="149"/>
     </row>
-    <row r="9" spans="2:18" s="6" customFormat="1" ht="16" thickBot="1">
+    <row r="9" spans="2:18" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
       <c r="C9" s="107" t="s">
         <v>38</v>
@@ -4049,10 +3946,10 @@
         <v>145</v>
       </c>
     </row>
-    <row r="10" spans="2:18" s="6" customFormat="1" ht="16" thickBot="1">
+    <row r="10" spans="2:18" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
       <c r="C10" s="168" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D10" s="107" t="s">
         <v>38</v>
@@ -4081,10 +3978,10 @@
       </c>
       <c r="Q10" s="16"/>
       <c r="R10" s="182" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="11" spans="2:18" ht="16" thickBot="1">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="68"/>
       <c r="C11" s="107" t="s">
         <v>39</v>
@@ -4117,7 +4014,7 @@
       <c r="Q11" s="16"/>
       <c r="R11" s="149"/>
     </row>
-    <row r="12" spans="2:18" ht="16" thickBot="1">
+    <row r="12" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="155"/>
       <c r="C12" s="156"/>
       <c r="D12" s="156"/>
@@ -4139,11 +4036,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4156,23 +4048,23 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.25" style="42" customWidth="1"/>
-    <col min="2" max="2" width="3.375" style="42" customWidth="1"/>
-    <col min="3" max="3" width="28.75" style="42" customWidth="1"/>
-    <col min="4" max="4" width="3.125" style="42" customWidth="1"/>
-    <col min="5" max="5" width="16.125" style="42" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="42" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" style="42" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" style="42" customWidth="1"/>
+    <col min="4" max="4" width="3.140625" style="42" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="42" customWidth="1"/>
     <col min="6" max="6" width="5" style="42" customWidth="1"/>
-    <col min="7" max="7" width="10.25" style="42" customWidth="1"/>
-    <col min="8" max="10" width="12.125" style="42" customWidth="1"/>
-    <col min="11" max="11" width="33.125" style="43" customWidth="1"/>
-    <col min="12" max="12" width="87.25" style="42" customWidth="1"/>
-    <col min="13" max="16384" width="33.125" style="42"/>
+    <col min="7" max="7" width="10.28515625" style="42" customWidth="1"/>
+    <col min="8" max="10" width="12.140625" style="42" customWidth="1"/>
+    <col min="11" max="11" width="33.140625" style="43" customWidth="1"/>
+    <col min="12" max="12" width="87.28515625" style="42" customWidth="1"/>
+    <col min="13" max="16384" width="33.140625" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="16" thickBot="1"/>
-    <row r="2" spans="2:12">
+    <row r="1" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B2" s="44"/>
       <c r="C2" s="45"/>
       <c r="D2" s="45"/>
@@ -4185,7 +4077,7 @@
       <c r="K2" s="46"/>
       <c r="L2" s="45"/>
     </row>
-    <row r="3" spans="2:12">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B3" s="47"/>
       <c r="C3" s="48" t="s">
         <v>10</v>
@@ -4200,7 +4092,7 @@
       <c r="K3" s="49"/>
       <c r="L3" s="50"/>
     </row>
-    <row r="4" spans="2:12">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B4" s="47"/>
       <c r="C4" s="50"/>
       <c r="D4" s="50"/>
@@ -4213,7 +4105,7 @@
       <c r="K4" s="51"/>
       <c r="L4" s="50"/>
     </row>
-    <row r="5" spans="2:12">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B5" s="52"/>
       <c r="C5" s="53" t="s">
         <v>12</v>
@@ -4242,7 +4134,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:12">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B6" s="47"/>
       <c r="C6" s="48"/>
       <c r="D6" s="48"/>
@@ -4255,7 +4147,7 @@
       <c r="K6" s="49"/>
       <c r="L6" s="48"/>
     </row>
-    <row r="7" spans="2:12" ht="16">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B7" s="47"/>
       <c r="C7" s="119" t="s">
         <v>146</v>
@@ -4279,30 +4171,30 @@
       </c>
       <c r="L7" s="115"/>
     </row>
-    <row r="8" spans="2:12">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B8" s="47"/>
       <c r="C8" s="184" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D8" s="56"/>
       <c r="E8" s="185" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F8" s="185"/>
       <c r="G8" s="50" t="s">
+        <v>159</v>
+      </c>
+      <c r="H8" s="51" t="s">
         <v>160</v>
-      </c>
-      <c r="H8" s="51" t="s">
-        <v>161</v>
       </c>
       <c r="I8" s="51"/>
       <c r="J8" s="51"/>
       <c r="K8" s="187" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L8" s="61"/>
     </row>
-    <row r="9" spans="2:12">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B9" s="47"/>
       <c r="C9" s="119" t="s">
         <v>39</v>
@@ -4310,7 +4202,7 @@
       <c r="D9" s="56"/>
       <c r="L9" s="61"/>
     </row>
-    <row r="10" spans="2:12">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B10" s="47"/>
       <c r="C10" s="119"/>
       <c r="D10" s="56"/>
@@ -4323,7 +4215,7 @@
       <c r="K10" s="51"/>
       <c r="L10" s="61"/>
     </row>
-    <row r="11" spans="2:12" ht="16">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B11" s="47"/>
       <c r="C11" s="119" t="s">
         <v>37</v>
@@ -4338,17 +4230,12 @@
       <c r="K11" s="51"/>
       <c r="L11" s="115"/>
     </row>
-    <row r="12" spans="2:12">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B12" s="47"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4360,19 +4247,19 @@
       <selection activeCell="F483" sqref="F483"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="7" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="7" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.625" style="97" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" style="97" customWidth="1"/>
     <col min="2" max="2" width="5" style="97" customWidth="1"/>
     <col min="3" max="5" width="7" style="97"/>
-    <col min="6" max="6" width="10.875" style="97" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" style="97" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" style="97"/>
-    <col min="8" max="8" width="8.875" style="97" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" style="97" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="7" style="97"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:26" ht="16" thickBot="1"/>
-    <row r="2" spans="2:26" s="24" customFormat="1">
+    <row r="1" spans="2:26" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:26" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="100"/>
       <c r="C2" s="101" t="s">
         <v>24</v>
@@ -4400,7 +4287,7 @@
       <c r="T2" s="101"/>
       <c r="U2" s="101"/>
     </row>
-    <row r="3" spans="2:26">
+    <row r="3" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B3" s="98"/>
       <c r="C3" s="99"/>
       <c r="D3" s="99"/>
@@ -4422,7 +4309,7 @@
       <c r="T3" s="99"/>
       <c r="U3" s="99"/>
     </row>
-    <row r="4" spans="2:26" customFormat="1" ht="16">
+    <row r="4" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="98"/>
       <c r="C4" s="108"/>
       <c r="D4" s="108"/>
@@ -4447,7 +4334,7 @@
       <c r="W4" s="108"/>
       <c r="X4" s="108"/>
     </row>
-    <row r="5" spans="2:26" customFormat="1" ht="16">
+    <row r="5" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="98"/>
       <c r="C5" s="108" t="s">
         <v>66</v>
@@ -4476,7 +4363,7 @@
       <c r="Y5" s="108"/>
       <c r="Z5" s="108"/>
     </row>
-    <row r="6" spans="2:26" customFormat="1" ht="16">
+    <row r="6" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="98"/>
       <c r="C6" s="108"/>
       <c r="D6" s="108"/>
@@ -4503,7 +4390,7 @@
       <c r="Y6" s="108"/>
       <c r="Z6" s="108"/>
     </row>
-    <row r="7" spans="2:26" customFormat="1" ht="16">
+    <row r="7" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="98"/>
       <c r="C7" s="108"/>
       <c r="D7" s="108" t="s">
@@ -4534,7 +4421,7 @@
       <c r="Y7" s="108"/>
       <c r="Z7" s="108"/>
     </row>
-    <row r="8" spans="2:26" customFormat="1" ht="16">
+    <row r="8" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="98"/>
       <c r="C8" s="108"/>
       <c r="D8" s="108"/>
@@ -4563,7 +4450,7 @@
       <c r="Y8" s="108"/>
       <c r="Z8" s="108"/>
     </row>
-    <row r="9" spans="2:26" customFormat="1" ht="16">
+    <row r="9" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="98"/>
       <c r="C9" s="108"/>
       <c r="D9" s="108"/>
@@ -4590,7 +4477,7 @@
       <c r="Y9" s="108"/>
       <c r="Z9" s="108"/>
     </row>
-    <row r="10" spans="2:26" customFormat="1" ht="16">
+    <row r="10" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="98"/>
       <c r="C10" s="108"/>
       <c r="D10" s="108"/>
@@ -4617,7 +4504,7 @@
       <c r="Y10" s="108"/>
       <c r="Z10" s="108"/>
     </row>
-    <row r="11" spans="2:26" customFormat="1" ht="16">
+    <row r="11" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="98"/>
       <c r="C11" s="108"/>
       <c r="D11" s="108"/>
@@ -4644,7 +4531,7 @@
       <c r="Y11" s="108"/>
       <c r="Z11" s="108"/>
     </row>
-    <row r="12" spans="2:26" customFormat="1" ht="16">
+    <row r="12" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="98"/>
       <c r="C12" s="108"/>
       <c r="D12" s="108"/>
@@ -4671,7 +4558,7 @@
       <c r="Y12" s="108"/>
       <c r="Z12" s="108"/>
     </row>
-    <row r="13" spans="2:26" customFormat="1" ht="16">
+    <row r="13" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="98"/>
       <c r="C13" s="108"/>
       <c r="D13" s="108"/>
@@ -4698,7 +4585,7 @@
       <c r="Y13" s="108"/>
       <c r="Z13" s="108"/>
     </row>
-    <row r="14" spans="2:26" customFormat="1" ht="16">
+    <row r="14" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="98"/>
       <c r="C14" s="108"/>
       <c r="D14" s="108"/>
@@ -4725,7 +4612,7 @@
       <c r="Y14" s="108"/>
       <c r="Z14" s="108"/>
     </row>
-    <row r="15" spans="2:26" customFormat="1" ht="16">
+    <row r="15" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="98"/>
       <c r="C15" s="108"/>
       <c r="D15" s="108"/>
@@ -4752,7 +4639,7 @@
       <c r="Y15" s="108"/>
       <c r="Z15" s="108"/>
     </row>
-    <row r="16" spans="2:26" customFormat="1" ht="16">
+    <row r="16" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="98"/>
       <c r="C16" s="108"/>
       <c r="D16" s="108"/>
@@ -4779,7 +4666,7 @@
       <c r="Y16" s="108"/>
       <c r="Z16" s="108"/>
     </row>
-    <row r="17" spans="2:26" customFormat="1" ht="16">
+    <row r="17" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="98"/>
       <c r="C17" s="108"/>
       <c r="D17" s="108"/>
@@ -4806,7 +4693,7 @@
       <c r="Y17" s="108"/>
       <c r="Z17" s="108"/>
     </row>
-    <row r="18" spans="2:26" customFormat="1" ht="16">
+    <row r="18" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="98"/>
       <c r="C18" s="108"/>
       <c r="D18" s="108"/>
@@ -4833,7 +4720,7 @@
       <c r="Y18" s="108"/>
       <c r="Z18" s="108"/>
     </row>
-    <row r="19" spans="2:26" customFormat="1" ht="16">
+    <row r="19" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="98"/>
       <c r="C19" s="108"/>
       <c r="D19" s="108"/>
@@ -4860,7 +4747,7 @@
       <c r="Y19" s="108"/>
       <c r="Z19" s="108"/>
     </row>
-    <row r="20" spans="2:26" customFormat="1" ht="16">
+    <row r="20" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="98"/>
       <c r="C20" s="108"/>
       <c r="D20" s="108"/>
@@ -4887,7 +4774,7 @@
       <c r="Y20" s="108"/>
       <c r="Z20" s="108"/>
     </row>
-    <row r="21" spans="2:26" customFormat="1" ht="16">
+    <row r="21" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="98"/>
       <c r="C21" s="108"/>
       <c r="D21" s="108"/>
@@ -4914,7 +4801,7 @@
       <c r="Y21" s="108"/>
       <c r="Z21" s="108"/>
     </row>
-    <row r="22" spans="2:26" customFormat="1" ht="16">
+    <row r="22" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="98"/>
       <c r="C22" s="108"/>
       <c r="D22" s="108" t="s">
@@ -4943,7 +4830,7 @@
       <c r="Y22" s="108"/>
       <c r="Z22" s="108"/>
     </row>
-    <row r="23" spans="2:26" customFormat="1" ht="16">
+    <row r="23" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="98"/>
       <c r="C23" s="108"/>
       <c r="D23" s="108"/>
@@ -4974,7 +4861,7 @@
       <c r="Y23" s="108"/>
       <c r="Z23" s="108"/>
     </row>
-    <row r="24" spans="2:26" customFormat="1" ht="16">
+    <row r="24" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="98"/>
       <c r="C24" s="108"/>
       <c r="D24" s="108"/>
@@ -5005,7 +4892,7 @@
       <c r="Y24" s="108"/>
       <c r="Z24" s="108"/>
     </row>
-    <row r="25" spans="2:26" customFormat="1" ht="16">
+    <row r="25" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="98"/>
       <c r="C25" s="108"/>
       <c r="D25" s="108"/>
@@ -5038,7 +4925,7 @@
       <c r="Y25" s="108"/>
       <c r="Z25" s="108"/>
     </row>
-    <row r="26" spans="2:26" customFormat="1" ht="16">
+    <row r="26" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="98"/>
       <c r="C26" s="108"/>
       <c r="D26" s="108"/>
@@ -5071,7 +4958,7 @@
       <c r="Y26" s="108"/>
       <c r="Z26" s="108"/>
     </row>
-    <row r="27" spans="2:26" customFormat="1" ht="16">
+    <row r="27" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="98"/>
       <c r="C27" s="108"/>
       <c r="D27" s="108"/>
@@ -5105,7 +4992,7 @@
       <c r="Y27" s="108"/>
       <c r="Z27" s="108"/>
     </row>
-    <row r="28" spans="2:26" customFormat="1" ht="16">
+    <row r="28" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="98"/>
       <c r="C28" s="108"/>
       <c r="D28" s="108"/>
@@ -5139,7 +5026,7 @@
       <c r="Y28" s="108"/>
       <c r="Z28" s="108"/>
     </row>
-    <row r="29" spans="2:26" customFormat="1" ht="16">
+    <row r="29" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="98"/>
       <c r="C29" s="108"/>
       <c r="D29" s="108"/>
@@ -5172,7 +5059,7 @@
       <c r="Y29" s="108"/>
       <c r="Z29" s="108"/>
     </row>
-    <row r="30" spans="2:26" customFormat="1" ht="16">
+    <row r="30" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="98"/>
       <c r="C30" s="108"/>
       <c r="D30" s="108"/>
@@ -5203,7 +5090,7 @@
       <c r="Y30" s="108"/>
       <c r="Z30" s="108"/>
     </row>
-    <row r="31" spans="2:26" customFormat="1" ht="16">
+    <row r="31" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="98"/>
       <c r="C31" s="108"/>
       <c r="D31" s="108"/>
@@ -5237,7 +5124,7 @@
       <c r="Y31" s="108"/>
       <c r="Z31" s="108"/>
     </row>
-    <row r="32" spans="2:26" customFormat="1" ht="16">
+    <row r="32" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="98"/>
       <c r="C32" s="108"/>
       <c r="D32" s="108"/>
@@ -5270,7 +5157,7 @@
       <c r="Y32" s="108"/>
       <c r="Z32" s="108"/>
     </row>
-    <row r="33" spans="2:26" customFormat="1" ht="16">
+    <row r="33" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="98"/>
       <c r="C33" s="108"/>
       <c r="D33" s="108"/>
@@ -5304,7 +5191,7 @@
       <c r="Y33" s="108"/>
       <c r="Z33" s="108"/>
     </row>
-    <row r="34" spans="2:26" customFormat="1" ht="16">
+    <row r="34" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="98"/>
       <c r="C34" s="108"/>
       <c r="D34" s="108"/>
@@ -5337,7 +5224,7 @@
       <c r="Y34" s="108"/>
       <c r="Z34" s="108"/>
     </row>
-    <row r="35" spans="2:26" customFormat="1" ht="16">
+    <row r="35" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="98"/>
       <c r="C35" s="108"/>
       <c r="D35" s="108"/>
@@ -5371,7 +5258,7 @@
       <c r="Y35" s="108"/>
       <c r="Z35" s="108"/>
     </row>
-    <row r="36" spans="2:26" customFormat="1" ht="16">
+    <row r="36" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="98"/>
       <c r="C36" s="108"/>
       <c r="D36" s="108"/>
@@ -5405,7 +5292,7 @@
       <c r="Y36" s="108"/>
       <c r="Z36" s="108"/>
     </row>
-    <row r="37" spans="2:26" customFormat="1" ht="16">
+    <row r="37" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="98"/>
       <c r="C37" s="108"/>
       <c r="D37" s="108"/>
@@ -5439,7 +5326,7 @@
       <c r="Y37" s="108"/>
       <c r="Z37" s="108"/>
     </row>
-    <row r="38" spans="2:26" customFormat="1" ht="16">
+    <row r="38" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="98"/>
       <c r="C38" s="108"/>
       <c r="D38" s="108"/>
@@ -5473,7 +5360,7 @@
       <c r="Y38" s="108"/>
       <c r="Z38" s="108"/>
     </row>
-    <row r="39" spans="2:26" customFormat="1" ht="16">
+    <row r="39" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="98"/>
       <c r="C39" s="108"/>
       <c r="D39" s="108"/>
@@ -5507,7 +5394,7 @@
       <c r="Y39" s="108"/>
       <c r="Z39" s="108"/>
     </row>
-    <row r="40" spans="2:26" customFormat="1" ht="16">
+    <row r="40" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="98"/>
       <c r="C40" s="108"/>
       <c r="D40" s="108"/>
@@ -5541,7 +5428,7 @@
       <c r="Y40" s="108"/>
       <c r="Z40" s="108"/>
     </row>
-    <row r="41" spans="2:26" customFormat="1" ht="16">
+    <row r="41" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="98"/>
       <c r="C41" s="108"/>
       <c r="D41" s="108"/>
@@ -5568,7 +5455,7 @@
       <c r="Y41" s="108"/>
       <c r="Z41" s="108"/>
     </row>
-    <row r="42" spans="2:26" customFormat="1" ht="16">
+    <row r="42" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B42" s="98"/>
       <c r="C42" s="108"/>
       <c r="D42" s="108"/>
@@ -5595,7 +5482,7 @@
       <c r="Y42" s="108"/>
       <c r="Z42" s="108"/>
     </row>
-    <row r="43" spans="2:26" customFormat="1" ht="16">
+    <row r="43" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="98"/>
       <c r="C43" s="108"/>
       <c r="D43" s="108"/>
@@ -5622,7 +5509,7 @@
       <c r="Y43" s="108"/>
       <c r="Z43" s="108"/>
     </row>
-    <row r="44" spans="2:26" customFormat="1" ht="16">
+    <row r="44" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B44" s="98"/>
       <c r="C44" s="108"/>
       <c r="D44" s="108"/>
@@ -5649,7 +5536,7 @@
       <c r="Y44" s="108"/>
       <c r="Z44" s="108"/>
     </row>
-    <row r="45" spans="2:26" customFormat="1" ht="16">
+    <row r="45" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B45" s="98"/>
       <c r="C45" s="108"/>
       <c r="D45" s="108"/>
@@ -5676,7 +5563,7 @@
       <c r="Y45" s="108"/>
       <c r="Z45" s="108"/>
     </row>
-    <row r="46" spans="2:26" customFormat="1" ht="16">
+    <row r="46" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B46" s="98"/>
       <c r="C46" s="108"/>
       <c r="D46" s="108"/>
@@ -5705,7 +5592,7 @@
       <c r="Y46" s="108"/>
       <c r="Z46" s="108"/>
     </row>
-    <row r="47" spans="2:26" customFormat="1" ht="16">
+    <row r="47" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B47" s="98"/>
       <c r="C47" s="108"/>
       <c r="D47" s="108"/>
@@ -5734,7 +5621,7 @@
       <c r="Y47" s="108"/>
       <c r="Z47" s="108"/>
     </row>
-    <row r="48" spans="2:26" customFormat="1" ht="16">
+    <row r="48" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B48" s="98"/>
       <c r="C48" s="108"/>
       <c r="D48" s="108"/>
@@ -5764,7 +5651,7 @@
       <c r="Y48" s="108"/>
       <c r="Z48" s="108"/>
     </row>
-    <row r="49" spans="2:26" customFormat="1" ht="16">
+    <row r="49" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B49" s="98"/>
       <c r="C49" s="108"/>
       <c r="D49" s="108"/>
@@ -5791,7 +5678,7 @@
       <c r="Y49" s="108"/>
       <c r="Z49" s="108"/>
     </row>
-    <row r="50" spans="2:26" customFormat="1" ht="16">
+    <row r="50" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" s="98"/>
       <c r="C50" s="108"/>
       <c r="D50" s="108"/>
@@ -5818,7 +5705,7 @@
       <c r="Y50" s="108"/>
       <c r="Z50" s="108"/>
     </row>
-    <row r="51" spans="2:26" customFormat="1" ht="16">
+    <row r="51" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B51" s="98"/>
       <c r="C51" s="108"/>
       <c r="D51" s="108"/>
@@ -5845,7 +5732,7 @@
       <c r="Y51" s="108"/>
       <c r="Z51" s="108"/>
     </row>
-    <row r="52" spans="2:26" customFormat="1" ht="16">
+    <row r="52" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B52" s="98"/>
       <c r="C52" s="108"/>
       <c r="D52" s="108"/>
@@ -5872,7 +5759,7 @@
       <c r="Y52" s="108"/>
       <c r="Z52" s="108"/>
     </row>
-    <row r="53" spans="2:26" customFormat="1" ht="16">
+    <row r="53" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B53" s="98"/>
       <c r="C53" s="108"/>
       <c r="D53" s="108"/>
@@ -5899,7 +5786,7 @@
       <c r="Y53" s="108"/>
       <c r="Z53" s="108"/>
     </row>
-    <row r="54" spans="2:26" customFormat="1" ht="16">
+    <row r="54" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B54" s="98"/>
       <c r="C54" s="108"/>
       <c r="D54" s="108"/>
@@ -5926,7 +5813,7 @@
       <c r="Y54" s="108"/>
       <c r="Z54" s="108"/>
     </row>
-    <row r="55" spans="2:26" customFormat="1" ht="16">
+    <row r="55" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B55" s="98"/>
       <c r="C55" s="108"/>
       <c r="D55" s="108"/>
@@ -5953,7 +5840,7 @@
       <c r="Y55" s="108"/>
       <c r="Z55" s="108"/>
     </row>
-    <row r="56" spans="2:26" customFormat="1" ht="16">
+    <row r="56" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B56" s="98"/>
       <c r="C56" s="108"/>
       <c r="D56" s="108"/>
@@ -5980,7 +5867,7 @@
       <c r="Y56" s="108"/>
       <c r="Z56" s="108"/>
     </row>
-    <row r="57" spans="2:26" customFormat="1" ht="16">
+    <row r="57" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B57" s="98"/>
       <c r="C57" s="108"/>
       <c r="D57" s="108"/>
@@ -6007,7 +5894,7 @@
       <c r="Y57" s="108"/>
       <c r="Z57" s="108"/>
     </row>
-    <row r="58" spans="2:26" customFormat="1" ht="16">
+    <row r="58" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B58" s="98"/>
       <c r="C58" s="108"/>
       <c r="D58" s="108"/>
@@ -6034,7 +5921,7 @@
       <c r="Y58" s="108"/>
       <c r="Z58" s="108"/>
     </row>
-    <row r="59" spans="2:26" customFormat="1" ht="16">
+    <row r="59" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B59" s="98"/>
       <c r="C59" s="108"/>
       <c r="D59" s="108"/>
@@ -6061,7 +5948,7 @@
       <c r="Y59" s="108"/>
       <c r="Z59" s="108"/>
     </row>
-    <row r="60" spans="2:26" customFormat="1" ht="16">
+    <row r="60" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B60" s="98"/>
       <c r="C60" s="108"/>
       <c r="D60" s="108"/>
@@ -6088,7 +5975,7 @@
       <c r="Y60" s="108"/>
       <c r="Z60" s="108"/>
     </row>
-    <row r="61" spans="2:26" customFormat="1" ht="16">
+    <row r="61" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B61" s="98"/>
       <c r="C61" s="108"/>
       <c r="D61" s="108"/>
@@ -6115,7 +6002,7 @@
       <c r="Y61" s="108"/>
       <c r="Z61" s="108"/>
     </row>
-    <row r="62" spans="2:26" customFormat="1" ht="16">
+    <row r="62" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B62" s="98"/>
       <c r="C62" s="108"/>
       <c r="D62" s="108"/>
@@ -6142,7 +6029,7 @@
       <c r="Y62" s="108"/>
       <c r="Z62" s="108"/>
     </row>
-    <row r="63" spans="2:26" customFormat="1" ht="16">
+    <row r="63" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B63" s="98"/>
       <c r="C63" s="108"/>
       <c r="D63" s="108"/>
@@ -6169,7 +6056,7 @@
       <c r="Y63" s="108"/>
       <c r="Z63" s="108"/>
     </row>
-    <row r="64" spans="2:26" customFormat="1" ht="16">
+    <row r="64" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B64" s="98"/>
       <c r="C64" s="108"/>
       <c r="D64" s="108"/>
@@ -6196,7 +6083,7 @@
       <c r="Y64" s="108"/>
       <c r="Z64" s="108"/>
     </row>
-    <row r="65" spans="2:26" customFormat="1" ht="16">
+    <row r="65" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B65" s="98"/>
       <c r="C65" s="108"/>
       <c r="D65" s="108"/>
@@ -6223,7 +6110,7 @@
       <c r="Y65" s="108"/>
       <c r="Z65" s="108"/>
     </row>
-    <row r="66" spans="2:26" customFormat="1" ht="16">
+    <row r="66" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B66" s="98"/>
       <c r="C66" s="108"/>
       <c r="D66" s="108"/>
@@ -6250,7 +6137,7 @@
       <c r="Y66" s="108"/>
       <c r="Z66" s="108"/>
     </row>
-    <row r="67" spans="2:26" customFormat="1" ht="16">
+    <row r="67" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B67" s="98"/>
       <c r="C67" s="108"/>
       <c r="D67" s="108"/>
@@ -6277,7 +6164,7 @@
       <c r="Y67" s="108"/>
       <c r="Z67" s="108"/>
     </row>
-    <row r="68" spans="2:26" customFormat="1" ht="16">
+    <row r="68" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B68" s="98"/>
       <c r="C68" s="108"/>
       <c r="D68" s="108" t="s">
@@ -6306,7 +6193,7 @@
       <c r="Y68" s="108"/>
       <c r="Z68" s="108"/>
     </row>
-    <row r="69" spans="2:26" s="128" customFormat="1" ht="16">
+    <row r="69" spans="2:26" s="128" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B69" s="98"/>
       <c r="C69" s="125"/>
       <c r="D69" s="125"/>
@@ -6338,7 +6225,7 @@
       <c r="Y69" s="125"/>
       <c r="Z69" s="125"/>
     </row>
-    <row r="70" spans="2:26" s="128" customFormat="1" ht="16">
+    <row r="70" spans="2:26" s="128" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B70" s="98"/>
       <c r="C70" s="125"/>
       <c r="D70" s="125"/>
@@ -6370,7 +6257,7 @@
       <c r="Y70" s="125"/>
       <c r="Z70" s="125"/>
     </row>
-    <row r="71" spans="2:26" s="128" customFormat="1" ht="16">
+    <row r="71" spans="2:26" s="128" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B71" s="98"/>
       <c r="C71" s="125"/>
       <c r="D71" s="125"/>
@@ -6402,7 +6289,7 @@
       <c r="Y71" s="125"/>
       <c r="Z71" s="125"/>
     </row>
-    <row r="72" spans="2:26" s="128" customFormat="1" ht="16">
+    <row r="72" spans="2:26" s="128" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B72" s="98"/>
       <c r="C72" s="125"/>
       <c r="D72" s="125"/>
@@ -6436,7 +6323,7 @@
       <c r="Y72" s="125"/>
       <c r="Z72" s="125"/>
     </row>
-    <row r="73" spans="2:26" s="128" customFormat="1" ht="16">
+    <row r="73" spans="2:26" s="128" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B73" s="98"/>
       <c r="C73" s="125"/>
       <c r="D73" s="125"/>
@@ -6462,7 +6349,7 @@
       <c r="Y73" s="125"/>
       <c r="Z73" s="125"/>
     </row>
-    <row r="74" spans="2:26" s="128" customFormat="1" ht="16">
+    <row r="74" spans="2:26" s="128" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B74" s="98"/>
       <c r="C74" s="125"/>
       <c r="D74" s="125"/>
@@ -6494,7 +6381,7 @@
       <c r="Y74" s="125"/>
       <c r="Z74" s="125"/>
     </row>
-    <row r="75" spans="2:26" s="128" customFormat="1" ht="16">
+    <row r="75" spans="2:26" s="128" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B75" s="98"/>
       <c r="C75" s="125"/>
       <c r="D75" s="125"/>
@@ -6526,7 +6413,7 @@
       <c r="Y75" s="125"/>
       <c r="Z75" s="125"/>
     </row>
-    <row r="76" spans="2:26" customFormat="1" ht="16">
+    <row r="76" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B76" s="98"/>
       <c r="C76" s="108"/>
       <c r="D76" s="108"/>
@@ -6552,7 +6439,7 @@
       <c r="Y76" s="108"/>
       <c r="Z76" s="108"/>
     </row>
-    <row r="77" spans="2:26" customFormat="1" ht="16">
+    <row r="77" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B77" s="98"/>
       <c r="C77" s="108"/>
       <c r="D77" s="108"/>
@@ -6586,7 +6473,7 @@
       <c r="Y77" s="108"/>
       <c r="Z77" s="108"/>
     </row>
-    <row r="78" spans="2:26" customFormat="1" ht="16">
+    <row r="78" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B78" s="98"/>
       <c r="C78" s="108"/>
       <c r="D78" s="108"/>
@@ -6620,7 +6507,7 @@
       <c r="Y78" s="108"/>
       <c r="Z78" s="108"/>
     </row>
-    <row r="79" spans="2:26" customFormat="1" ht="16">
+    <row r="79" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B79" s="98"/>
       <c r="C79" s="108"/>
       <c r="D79" s="108"/>
@@ -6647,7 +6534,7 @@
       <c r="Y79" s="108"/>
       <c r="Z79" s="108"/>
     </row>
-    <row r="80" spans="2:26" customFormat="1" ht="16">
+    <row r="80" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B80" s="98"/>
       <c r="C80" s="108"/>
       <c r="D80" s="108"/>
@@ -6674,7 +6561,7 @@
       <c r="Y80" s="108"/>
       <c r="Z80" s="108"/>
     </row>
-    <row r="81" spans="2:26" customFormat="1" ht="16">
+    <row r="81" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B81" s="98"/>
       <c r="C81" s="108"/>
       <c r="D81" s="108"/>
@@ -6701,7 +6588,7 @@
       <c r="Y81" s="108"/>
       <c r="Z81" s="108"/>
     </row>
-    <row r="82" spans="2:26" customFormat="1" ht="16">
+    <row r="82" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B82" s="98"/>
       <c r="C82" s="108"/>
       <c r="D82" s="108"/>
@@ -6728,7 +6615,7 @@
       <c r="Y82" s="108"/>
       <c r="Z82" s="108"/>
     </row>
-    <row r="83" spans="2:26" customFormat="1" ht="16">
+    <row r="83" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B83" s="98"/>
       <c r="C83" s="108"/>
       <c r="D83" s="108"/>
@@ -6755,7 +6642,7 @@
       <c r="Y83" s="108"/>
       <c r="Z83" s="108"/>
     </row>
-    <row r="84" spans="2:26" customFormat="1" ht="16">
+    <row r="84" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B84" s="98"/>
       <c r="C84" s="108"/>
       <c r="D84" s="108"/>
@@ -6782,7 +6669,7 @@
       <c r="Y84" s="108"/>
       <c r="Z84" s="108"/>
     </row>
-    <row r="85" spans="2:26" customFormat="1" ht="16">
+    <row r="85" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B85" s="98"/>
       <c r="C85" s="108"/>
       <c r="D85" s="108"/>
@@ -6809,7 +6696,7 @@
       <c r="Y85" s="108"/>
       <c r="Z85" s="108"/>
     </row>
-    <row r="86" spans="2:26" customFormat="1" ht="16">
+    <row r="86" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B86" s="98"/>
       <c r="C86" s="108"/>
       <c r="D86" s="108"/>
@@ -6836,7 +6723,7 @@
       <c r="Y86" s="108"/>
       <c r="Z86" s="108"/>
     </row>
-    <row r="87" spans="2:26" customFormat="1" ht="16">
+    <row r="87" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B87" s="98"/>
       <c r="C87" s="108"/>
       <c r="D87" s="108"/>
@@ -6863,7 +6750,7 @@
       <c r="Y87" s="108"/>
       <c r="Z87" s="108"/>
     </row>
-    <row r="88" spans="2:26" customFormat="1" ht="16">
+    <row r="88" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B88" s="98"/>
       <c r="C88" s="108"/>
       <c r="D88" s="108"/>
@@ -6890,7 +6777,7 @@
       <c r="Y88" s="108"/>
       <c r="Z88" s="108"/>
     </row>
-    <row r="89" spans="2:26" customFormat="1" ht="16">
+    <row r="89" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B89" s="98"/>
       <c r="C89" s="108"/>
       <c r="D89" s="108"/>
@@ -6917,7 +6804,7 @@
       <c r="Y89" s="108"/>
       <c r="Z89" s="108"/>
     </row>
-    <row r="90" spans="2:26" customFormat="1" ht="16">
+    <row r="90" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B90" s="98"/>
       <c r="C90" s="108"/>
       <c r="D90" s="108"/>
@@ -6944,7 +6831,7 @@
       <c r="Y90" s="108"/>
       <c r="Z90" s="108"/>
     </row>
-    <row r="91" spans="2:26" customFormat="1" ht="16">
+    <row r="91" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B91" s="98"/>
       <c r="C91" s="108"/>
       <c r="D91" s="108"/>
@@ -6971,7 +6858,7 @@
       <c r="Y91" s="108"/>
       <c r="Z91" s="108"/>
     </row>
-    <row r="92" spans="2:26" customFormat="1" ht="16">
+    <row r="92" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B92" s="98"/>
       <c r="C92" s="108"/>
       <c r="D92" s="108"/>
@@ -6998,7 +6885,7 @@
       <c r="Y92" s="108"/>
       <c r="Z92" s="108"/>
     </row>
-    <row r="93" spans="2:26" customFormat="1" ht="16">
+    <row r="93" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B93" s="98"/>
       <c r="C93" s="108"/>
       <c r="D93" s="108"/>
@@ -7025,7 +6912,7 @@
       <c r="Y93" s="108"/>
       <c r="Z93" s="108"/>
     </row>
-    <row r="94" spans="2:26" customFormat="1" ht="16">
+    <row r="94" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B94" s="98"/>
       <c r="C94" s="108"/>
       <c r="D94" s="108"/>
@@ -7052,7 +6939,7 @@
       <c r="Y94" s="108"/>
       <c r="Z94" s="108"/>
     </row>
-    <row r="95" spans="2:26" customFormat="1" ht="16">
+    <row r="95" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B95" s="98"/>
       <c r="C95" s="108"/>
       <c r="D95" s="108"/>
@@ -7079,7 +6966,7 @@
       <c r="Y95" s="108"/>
       <c r="Z95" s="108"/>
     </row>
-    <row r="96" spans="2:26" customFormat="1" ht="16">
+    <row r="96" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B96" s="98"/>
       <c r="C96" s="108"/>
       <c r="D96" s="108"/>
@@ -7106,7 +6993,7 @@
       <c r="Y96" s="108"/>
       <c r="Z96" s="108"/>
     </row>
-    <row r="97" spans="2:26" customFormat="1" ht="16">
+    <row r="97" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B97" s="98"/>
       <c r="C97" s="108"/>
       <c r="D97" s="108"/>
@@ -7133,7 +7020,7 @@
       <c r="Y97" s="108"/>
       <c r="Z97" s="108"/>
     </row>
-    <row r="98" spans="2:26" customFormat="1" ht="16">
+    <row r="98" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B98" s="98"/>
       <c r="C98" s="108"/>
       <c r="D98" s="108"/>
@@ -7160,7 +7047,7 @@
       <c r="Y98" s="108"/>
       <c r="Z98" s="108"/>
     </row>
-    <row r="99" spans="2:26" customFormat="1" ht="16">
+    <row r="99" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B99" s="98"/>
       <c r="C99" s="108"/>
       <c r="D99" s="108"/>
@@ -7187,7 +7074,7 @@
       <c r="Y99" s="108"/>
       <c r="Z99" s="108"/>
     </row>
-    <row r="100" spans="2:26" customFormat="1" ht="16">
+    <row r="100" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B100" s="98"/>
       <c r="C100" s="108"/>
       <c r="D100" s="108"/>
@@ -7214,7 +7101,7 @@
       <c r="Y100" s="108"/>
       <c r="Z100" s="108"/>
     </row>
-    <row r="101" spans="2:26" customFormat="1" ht="16">
+    <row r="101" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B101" s="98"/>
       <c r="C101" s="108"/>
       <c r="D101" s="108"/>
@@ -7241,7 +7128,7 @@
       <c r="Y101" s="108"/>
       <c r="Z101" s="108"/>
     </row>
-    <row r="102" spans="2:26" customFormat="1" ht="16">
+    <row r="102" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B102" s="98"/>
       <c r="C102" s="108"/>
       <c r="D102" s="108"/>
@@ -7268,7 +7155,7 @@
       <c r="Y102" s="108"/>
       <c r="Z102" s="108"/>
     </row>
-    <row r="103" spans="2:26" customFormat="1" ht="16">
+    <row r="103" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B103" s="98"/>
       <c r="C103" s="108"/>
       <c r="D103" s="108"/>
@@ -7295,7 +7182,7 @@
       <c r="Y103" s="108"/>
       <c r="Z103" s="108"/>
     </row>
-    <row r="104" spans="2:26" customFormat="1" ht="16">
+    <row r="104" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B104" s="98"/>
       <c r="C104" s="108"/>
       <c r="D104" s="108"/>
@@ -7322,7 +7209,7 @@
       <c r="Y104" s="108"/>
       <c r="Z104" s="108"/>
     </row>
-    <row r="105" spans="2:26" customFormat="1" ht="16">
+    <row r="105" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B105" s="98"/>
       <c r="C105" s="108"/>
       <c r="D105" s="108"/>
@@ -7349,7 +7236,7 @@
       <c r="Y105" s="108"/>
       <c r="Z105" s="108"/>
     </row>
-    <row r="106" spans="2:26" customFormat="1" ht="16">
+    <row r="106" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B106" s="98"/>
       <c r="C106" s="108"/>
       <c r="D106" s="108"/>
@@ -7376,7 +7263,7 @@
       <c r="Y106" s="108"/>
       <c r="Z106" s="108"/>
     </row>
-    <row r="107" spans="2:26" customFormat="1" ht="16">
+    <row r="107" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B107" s="98"/>
       <c r="C107" s="108"/>
       <c r="D107" s="108"/>
@@ -7403,7 +7290,7 @@
       <c r="Y107" s="108"/>
       <c r="Z107" s="108"/>
     </row>
-    <row r="108" spans="2:26" customFormat="1" ht="16">
+    <row r="108" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B108" s="98"/>
       <c r="C108" s="108"/>
       <c r="D108" s="108"/>
@@ -7430,7 +7317,7 @@
       <c r="Y108" s="108"/>
       <c r="Z108" s="108"/>
     </row>
-    <row r="109" spans="2:26" customFormat="1" ht="16">
+    <row r="109" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B109" s="98"/>
       <c r="C109" s="108"/>
       <c r="D109" s="108"/>
@@ -7457,7 +7344,7 @@
       <c r="Y109" s="108"/>
       <c r="Z109" s="108"/>
     </row>
-    <row r="110" spans="2:26" customFormat="1" ht="16">
+    <row r="110" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B110" s="98"/>
       <c r="C110" s="108"/>
       <c r="D110" s="108"/>
@@ -7484,7 +7371,7 @@
       <c r="Y110" s="108"/>
       <c r="Z110" s="108"/>
     </row>
-    <row r="111" spans="2:26" customFormat="1" ht="16">
+    <row r="111" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B111" s="98"/>
       <c r="C111" s="108"/>
       <c r="D111" s="108"/>
@@ -7511,7 +7398,7 @@
       <c r="Y111" s="108"/>
       <c r="Z111" s="108"/>
     </row>
-    <row r="112" spans="2:26" customFormat="1" ht="16">
+    <row r="112" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B112" s="98"/>
       <c r="C112" s="108"/>
       <c r="D112" s="108"/>
@@ -7538,7 +7425,7 @@
       <c r="Y112" s="108"/>
       <c r="Z112" s="108"/>
     </row>
-    <row r="113" spans="2:26" customFormat="1" ht="16">
+    <row r="113" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B113" s="98"/>
       <c r="C113" s="108"/>
       <c r="D113" s="108"/>
@@ -7565,7 +7452,7 @@
       <c r="Y113" s="108"/>
       <c r="Z113" s="108"/>
     </row>
-    <row r="114" spans="2:26" customFormat="1" ht="16">
+    <row r="114" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B114" s="98"/>
       <c r="C114" s="108"/>
       <c r="D114" s="108"/>
@@ -7592,7 +7479,7 @@
       <c r="Y114" s="108"/>
       <c r="Z114" s="108"/>
     </row>
-    <row r="115" spans="2:26" customFormat="1" ht="16">
+    <row r="115" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B115" s="98"/>
       <c r="C115" s="108"/>
       <c r="D115" s="108"/>
@@ -7619,7 +7506,7 @@
       <c r="Y115" s="108"/>
       <c r="Z115" s="108"/>
     </row>
-    <row r="116" spans="2:26" customFormat="1" ht="16">
+    <row r="116" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B116" s="98"/>
       <c r="C116" s="108"/>
       <c r="D116" s="108"/>
@@ -7646,7 +7533,7 @@
       <c r="Y116" s="108"/>
       <c r="Z116" s="108"/>
     </row>
-    <row r="117" spans="2:26" customFormat="1" ht="16">
+    <row r="117" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B117" s="98"/>
       <c r="C117" s="108"/>
       <c r="D117" s="108"/>
@@ -7673,7 +7560,7 @@
       <c r="Y117" s="108"/>
       <c r="Z117" s="108"/>
     </row>
-    <row r="118" spans="2:26" customFormat="1" ht="16">
+    <row r="118" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B118" s="98"/>
       <c r="C118" s="108"/>
       <c r="D118" s="108"/>
@@ -7700,7 +7587,7 @@
       <c r="Y118" s="108"/>
       <c r="Z118" s="108"/>
     </row>
-    <row r="119" spans="2:26" customFormat="1" ht="16">
+    <row r="119" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B119" s="98"/>
       <c r="C119" s="108"/>
       <c r="D119" s="108"/>
@@ -7727,7 +7614,7 @@
       <c r="Y119" s="108"/>
       <c r="Z119" s="108"/>
     </row>
-    <row r="120" spans="2:26" customFormat="1" ht="16">
+    <row r="120" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B120" s="98"/>
       <c r="C120" s="108"/>
       <c r="D120" s="108"/>
@@ -7754,7 +7641,7 @@
       <c r="Y120" s="108"/>
       <c r="Z120" s="108"/>
     </row>
-    <row r="121" spans="2:26" customFormat="1" ht="16">
+    <row r="121" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B121" s="98"/>
       <c r="C121" s="108"/>
       <c r="D121" s="108"/>
@@ -7781,7 +7668,7 @@
       <c r="Y121" s="108"/>
       <c r="Z121" s="108"/>
     </row>
-    <row r="122" spans="2:26" customFormat="1" ht="16">
+    <row r="122" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B122" s="98"/>
       <c r="C122" s="108"/>
       <c r="D122" s="108"/>
@@ -7808,7 +7695,7 @@
       <c r="Y122" s="108"/>
       <c r="Z122" s="108"/>
     </row>
-    <row r="123" spans="2:26" customFormat="1" ht="16">
+    <row r="123" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B123" s="98"/>
       <c r="C123" s="108"/>
       <c r="D123" s="108"/>
@@ -7835,7 +7722,7 @@
       <c r="Y123" s="108"/>
       <c r="Z123" s="108"/>
     </row>
-    <row r="124" spans="2:26" customFormat="1" ht="16">
+    <row r="124" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B124" s="98"/>
       <c r="C124" s="108"/>
       <c r="D124" s="108"/>
@@ -7862,7 +7749,7 @@
       <c r="Y124" s="108"/>
       <c r="Z124" s="108"/>
     </row>
-    <row r="125" spans="2:26" customFormat="1" ht="16">
+    <row r="125" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B125" s="98"/>
       <c r="C125" s="108"/>
       <c r="D125" s="108"/>
@@ -7889,7 +7776,7 @@
       <c r="Y125" s="108"/>
       <c r="Z125" s="108"/>
     </row>
-    <row r="126" spans="2:26" customFormat="1" ht="16">
+    <row r="126" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B126" s="98"/>
       <c r="C126" s="108"/>
       <c r="D126" s="108"/>
@@ -7916,7 +7803,7 @@
       <c r="Y126" s="108"/>
       <c r="Z126" s="108"/>
     </row>
-    <row r="127" spans="2:26" customFormat="1" ht="16">
+    <row r="127" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B127" s="98"/>
       <c r="C127" s="108"/>
       <c r="D127" s="108"/>
@@ -7943,7 +7830,7 @@
       <c r="Y127" s="108"/>
       <c r="Z127" s="108"/>
     </row>
-    <row r="128" spans="2:26" customFormat="1" ht="16">
+    <row r="128" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B128" s="98"/>
       <c r="C128" s="108"/>
       <c r="D128" s="108"/>
@@ -7970,7 +7857,7 @@
       <c r="Y128" s="108"/>
       <c r="Z128" s="108"/>
     </row>
-    <row r="129" spans="2:26" customFormat="1" ht="16">
+    <row r="129" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B129" s="98"/>
       <c r="C129" s="108"/>
       <c r="D129" s="108"/>
@@ -7997,7 +7884,7 @@
       <c r="Y129" s="108"/>
       <c r="Z129" s="108"/>
     </row>
-    <row r="130" spans="2:26" customFormat="1" ht="16">
+    <row r="130" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B130" s="98"/>
       <c r="C130" s="108"/>
       <c r="D130" s="108" t="s">
@@ -8026,7 +7913,7 @@
       <c r="Y130" s="108"/>
       <c r="Z130" s="108"/>
     </row>
-    <row r="131" spans="2:26" customFormat="1" ht="16">
+    <row r="131" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B131" s="98"/>
       <c r="C131" s="108"/>
       <c r="D131" s="108"/>
@@ -8059,7 +7946,7 @@
       <c r="Y131" s="108"/>
       <c r="Z131" s="108"/>
     </row>
-    <row r="132" spans="2:26" customFormat="1" ht="16">
+    <row r="132" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B132" s="98"/>
       <c r="C132" s="108"/>
       <c r="D132" s="108"/>
@@ -8088,7 +7975,7 @@
       <c r="Y132" s="108"/>
       <c r="Z132" s="108"/>
     </row>
-    <row r="133" spans="2:26" customFormat="1" ht="16">
+    <row r="133" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B133" s="98"/>
       <c r="C133" s="108"/>
       <c r="D133" s="108"/>
@@ -8121,7 +8008,7 @@
       <c r="Y133" s="108"/>
       <c r="Z133" s="108"/>
     </row>
-    <row r="134" spans="2:26" customFormat="1" ht="16">
+    <row r="134" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B134" s="98"/>
       <c r="C134" s="108"/>
       <c r="D134" s="108"/>
@@ -8154,7 +8041,7 @@
       <c r="Y134" s="108"/>
       <c r="Z134" s="108"/>
     </row>
-    <row r="135" spans="2:26" customFormat="1" ht="16">
+    <row r="135" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B135" s="98"/>
       <c r="C135" s="108"/>
       <c r="D135" s="108"/>
@@ -8187,7 +8074,7 @@
       <c r="Y135" s="108"/>
       <c r="Z135" s="108"/>
     </row>
-    <row r="136" spans="2:26" customFormat="1" ht="16">
+    <row r="136" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B136" s="98"/>
       <c r="C136" s="108"/>
       <c r="D136" s="108"/>
@@ -8223,7 +8110,7 @@
       <c r="Y136" s="108"/>
       <c r="Z136" s="108"/>
     </row>
-    <row r="137" spans="2:26" customFormat="1" ht="16">
+    <row r="137" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B137" s="98"/>
       <c r="C137" s="108"/>
       <c r="D137" s="108"/>
@@ -8250,7 +8137,7 @@
       <c r="Y137" s="108"/>
       <c r="Z137" s="108"/>
     </row>
-    <row r="138" spans="2:26" customFormat="1" ht="16">
+    <row r="138" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B138" s="98"/>
       <c r="C138" s="108"/>
       <c r="D138" s="108"/>
@@ -8279,7 +8166,7 @@
       <c r="Y138" s="108"/>
       <c r="Z138" s="108"/>
     </row>
-    <row r="139" spans="2:26" customFormat="1" ht="16">
+    <row r="139" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B139" s="98"/>
       <c r="C139" s="108"/>
       <c r="D139" s="108"/>
@@ -8312,7 +8199,7 @@
       <c r="Y139" s="108"/>
       <c r="Z139" s="108"/>
     </row>
-    <row r="140" spans="2:26" customFormat="1" ht="16">
+    <row r="140" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B140" s="98"/>
       <c r="C140" s="108"/>
       <c r="D140" s="108"/>
@@ -8345,7 +8232,7 @@
       <c r="Y140" s="108"/>
       <c r="Z140" s="108"/>
     </row>
-    <row r="141" spans="2:26" customFormat="1" ht="16">
+    <row r="141" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B141" s="98"/>
       <c r="C141" s="108"/>
       <c r="D141" s="108"/>
@@ -8378,7 +8265,7 @@
       <c r="Y141" s="108"/>
       <c r="Z141" s="108"/>
     </row>
-    <row r="142" spans="2:26" customFormat="1" ht="16">
+    <row r="142" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B142" s="98"/>
       <c r="C142" s="108"/>
       <c r="D142" s="108"/>
@@ -8412,7 +8299,7 @@
       <c r="Y142" s="108"/>
       <c r="Z142" s="108"/>
     </row>
-    <row r="143" spans="2:26" customFormat="1" ht="16">
+    <row r="143" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B143" s="98"/>
       <c r="C143" s="108"/>
       <c r="D143" s="108"/>
@@ -8446,7 +8333,7 @@
       <c r="Y143" s="108"/>
       <c r="Z143" s="108"/>
     </row>
-    <row r="144" spans="2:26" customFormat="1" ht="16">
+    <row r="144" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B144" s="98"/>
       <c r="C144" s="108"/>
       <c r="D144" s="108"/>
@@ -8473,7 +8360,7 @@
       <c r="Y144" s="108"/>
       <c r="Z144" s="108"/>
     </row>
-    <row r="145" spans="2:26" customFormat="1" ht="16">
+    <row r="145" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B145" s="98"/>
       <c r="C145" s="108"/>
       <c r="D145" s="108"/>
@@ -8502,7 +8389,7 @@
       <c r="Y145" s="108"/>
       <c r="Z145" s="108"/>
     </row>
-    <row r="146" spans="2:26" customFormat="1" ht="16">
+    <row r="146" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B146" s="98"/>
       <c r="C146" s="108"/>
       <c r="D146" s="108"/>
@@ -8535,7 +8422,7 @@
       <c r="Y146" s="108"/>
       <c r="Z146" s="108"/>
     </row>
-    <row r="147" spans="2:26" customFormat="1" ht="16">
+    <row r="147" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B147" s="98"/>
       <c r="C147" s="108"/>
       <c r="D147" s="108"/>
@@ -8564,7 +8451,7 @@
       <c r="Y147" s="108"/>
       <c r="Z147" s="108"/>
     </row>
-    <row r="148" spans="2:26" customFormat="1" ht="16">
+    <row r="148" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B148" s="98"/>
       <c r="C148" s="108"/>
       <c r="D148" s="108"/>
@@ -8597,7 +8484,7 @@
       <c r="Y148" s="108"/>
       <c r="Z148" s="108"/>
     </row>
-    <row r="149" spans="2:26" customFormat="1" ht="16">
+    <row r="149" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B149" s="98"/>
       <c r="C149" s="108"/>
       <c r="D149" s="108"/>
@@ -8630,7 +8517,7 @@
       <c r="Y149" s="108"/>
       <c r="Z149" s="108"/>
     </row>
-    <row r="150" spans="2:26" customFormat="1" ht="16">
+    <row r="150" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B150" s="98"/>
       <c r="C150" s="108"/>
       <c r="D150" s="108"/>
@@ -8663,7 +8550,7 @@
       <c r="Y150" s="108"/>
       <c r="Z150" s="108"/>
     </row>
-    <row r="151" spans="2:26" customFormat="1" ht="16">
+    <row r="151" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B151" s="98"/>
       <c r="C151" s="108"/>
       <c r="D151" s="108"/>
@@ -8697,7 +8584,7 @@
       <c r="Y151" s="108"/>
       <c r="Z151" s="108"/>
     </row>
-    <row r="152" spans="2:26" customFormat="1" ht="16">
+    <row r="152" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B152" s="98"/>
       <c r="C152" s="108"/>
       <c r="D152" s="108"/>
@@ -8724,7 +8611,7 @@
       <c r="Y152" s="108"/>
       <c r="Z152" s="108"/>
     </row>
-    <row r="153" spans="2:26" customFormat="1" ht="16">
+    <row r="153" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B153" s="98"/>
       <c r="C153" s="108"/>
       <c r="D153" s="108"/>
@@ -8753,7 +8640,7 @@
       <c r="Y153" s="108"/>
       <c r="Z153" s="108"/>
     </row>
-    <row r="154" spans="2:26" customFormat="1" ht="16">
+    <row r="154" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B154" s="98"/>
       <c r="C154" s="108"/>
       <c r="D154" s="108"/>
@@ -8786,7 +8673,7 @@
       <c r="Y154" s="108"/>
       <c r="Z154" s="108"/>
     </row>
-    <row r="155" spans="2:26" customFormat="1" ht="16">
+    <row r="155" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B155" s="98"/>
       <c r="C155" s="108"/>
       <c r="D155" s="108"/>
@@ -8819,7 +8706,7 @@
       <c r="Y155" s="108"/>
       <c r="Z155" s="108"/>
     </row>
-    <row r="156" spans="2:26" customFormat="1" ht="16">
+    <row r="156" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B156" s="98"/>
       <c r="C156" s="108"/>
       <c r="D156" s="108"/>
@@ -8852,7 +8739,7 @@
       <c r="Y156" s="108"/>
       <c r="Z156" s="108"/>
     </row>
-    <row r="157" spans="2:26" customFormat="1" ht="16">
+    <row r="157" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B157" s="98"/>
       <c r="C157" s="108"/>
       <c r="D157" s="108"/>
@@ -8886,7 +8773,7 @@
       <c r="Y157" s="108"/>
       <c r="Z157" s="108"/>
     </row>
-    <row r="158" spans="2:26" customFormat="1" ht="16">
+    <row r="158" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B158" s="98"/>
       <c r="C158" s="108"/>
       <c r="D158" s="108"/>
@@ -8920,7 +8807,7 @@
       <c r="Y158" s="108"/>
       <c r="Z158" s="108"/>
     </row>
-    <row r="159" spans="2:26" customFormat="1" ht="16">
+    <row r="159" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B159" s="98"/>
       <c r="C159" s="108"/>
       <c r="D159" s="108"/>
@@ -8947,7 +8834,7 @@
       <c r="Y159" s="108"/>
       <c r="Z159" s="108"/>
     </row>
-    <row r="160" spans="2:26" customFormat="1" ht="16">
+    <row r="160" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B160" s="98"/>
       <c r="C160" s="108"/>
       <c r="D160" s="108"/>
@@ -8974,7 +8861,7 @@
       <c r="Y160" s="108"/>
       <c r="Z160" s="108"/>
     </row>
-    <row r="161" spans="2:26" customFormat="1" ht="16">
+    <row r="161" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B161" s="98"/>
       <c r="C161" s="108"/>
       <c r="D161" s="108"/>
@@ -9001,7 +8888,7 @@
       <c r="Y161" s="108"/>
       <c r="Z161" s="108"/>
     </row>
-    <row r="162" spans="2:26" customFormat="1" ht="16">
+    <row r="162" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B162" s="98"/>
       <c r="C162" s="108"/>
       <c r="D162" s="108"/>
@@ -9028,7 +8915,7 @@
       <c r="Y162" s="108"/>
       <c r="Z162" s="108"/>
     </row>
-    <row r="163" spans="2:26" customFormat="1" ht="16">
+    <row r="163" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B163" s="98"/>
       <c r="C163" s="108"/>
       <c r="D163" s="108"/>
@@ -9055,7 +8942,7 @@
       <c r="Y163" s="108"/>
       <c r="Z163" s="108"/>
     </row>
-    <row r="164" spans="2:26" customFormat="1" ht="16">
+    <row r="164" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B164" s="98"/>
       <c r="C164" s="108"/>
       <c r="D164" s="108"/>
@@ -9082,7 +8969,7 @@
       <c r="Y164" s="108"/>
       <c r="Z164" s="108"/>
     </row>
-    <row r="165" spans="2:26" customFormat="1" ht="16">
+    <row r="165" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B165" s="98"/>
       <c r="C165" s="108"/>
       <c r="D165" s="108"/>
@@ -9109,7 +8996,7 @@
       <c r="Y165" s="108"/>
       <c r="Z165" s="108"/>
     </row>
-    <row r="166" spans="2:26" customFormat="1" ht="16">
+    <row r="166" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B166" s="98"/>
       <c r="C166" s="108"/>
       <c r="D166" s="108"/>
@@ -9136,7 +9023,7 @@
       <c r="Y166" s="108"/>
       <c r="Z166" s="108"/>
     </row>
-    <row r="167" spans="2:26" customFormat="1" ht="16">
+    <row r="167" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B167" s="98"/>
       <c r="C167" s="108"/>
       <c r="D167" s="108"/>
@@ -9163,7 +9050,7 @@
       <c r="Y167" s="108"/>
       <c r="Z167" s="108"/>
     </row>
-    <row r="168" spans="2:26" customFormat="1" ht="16">
+    <row r="168" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B168" s="98"/>
       <c r="C168" s="108"/>
       <c r="D168" s="108"/>
@@ -9190,7 +9077,7 @@
       <c r="Y168" s="108"/>
       <c r="Z168" s="108"/>
     </row>
-    <row r="169" spans="2:26" customFormat="1" ht="16">
+    <row r="169" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B169" s="98"/>
       <c r="C169" s="108"/>
       <c r="D169" s="108"/>
@@ -9217,7 +9104,7 @@
       <c r="Y169" s="108"/>
       <c r="Z169" s="108"/>
     </row>
-    <row r="170" spans="2:26" customFormat="1" ht="16">
+    <row r="170" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B170" s="98"/>
       <c r="C170" s="108"/>
       <c r="D170" s="108"/>
@@ -9244,7 +9131,7 @@
       <c r="Y170" s="108"/>
       <c r="Z170" s="108"/>
     </row>
-    <row r="171" spans="2:26" customFormat="1" ht="16">
+    <row r="171" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B171" s="98"/>
       <c r="C171" s="108"/>
       <c r="D171" s="108"/>
@@ -9271,7 +9158,7 @@
       <c r="Y171" s="108"/>
       <c r="Z171" s="108"/>
     </row>
-    <row r="172" spans="2:26" customFormat="1" ht="16">
+    <row r="172" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B172" s="98"/>
       <c r="C172" s="108"/>
       <c r="D172" s="108"/>
@@ -9298,7 +9185,7 @@
       <c r="Y172" s="108"/>
       <c r="Z172" s="108"/>
     </row>
-    <row r="173" spans="2:26" customFormat="1" ht="16">
+    <row r="173" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B173" s="98"/>
       <c r="C173" s="108"/>
       <c r="D173" s="108"/>
@@ -9325,7 +9212,7 @@
       <c r="Y173" s="108"/>
       <c r="Z173" s="108"/>
     </row>
-    <row r="174" spans="2:26" customFormat="1" ht="16">
+    <row r="174" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B174" s="98"/>
       <c r="C174" s="108"/>
       <c r="D174" s="108"/>
@@ -9352,7 +9239,7 @@
       <c r="Y174" s="108"/>
       <c r="Z174" s="108"/>
     </row>
-    <row r="175" spans="2:26" customFormat="1" ht="16">
+    <row r="175" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B175" s="98"/>
       <c r="C175" s="108"/>
       <c r="D175" s="108"/>
@@ -9379,7 +9266,7 @@
       <c r="Y175" s="108"/>
       <c r="Z175" s="108"/>
     </row>
-    <row r="176" spans="2:26" customFormat="1" ht="16">
+    <row r="176" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B176" s="98"/>
       <c r="C176" s="108"/>
       <c r="D176" s="108"/>
@@ -9406,7 +9293,7 @@
       <c r="Y176" s="108"/>
       <c r="Z176" s="108"/>
     </row>
-    <row r="177" spans="2:26" customFormat="1" ht="16">
+    <row r="177" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B177" s="98"/>
       <c r="C177" s="108"/>
       <c r="D177" s="108"/>
@@ -9433,7 +9320,7 @@
       <c r="Y177" s="108"/>
       <c r="Z177" s="108"/>
     </row>
-    <row r="178" spans="2:26" customFormat="1" ht="16">
+    <row r="178" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B178" s="98"/>
       <c r="C178" s="108"/>
       <c r="D178" s="108"/>
@@ -9460,7 +9347,7 @@
       <c r="Y178" s="108"/>
       <c r="Z178" s="108"/>
     </row>
-    <row r="179" spans="2:26" customFormat="1" ht="16">
+    <row r="179" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B179" s="98"/>
       <c r="C179" s="108"/>
       <c r="D179" s="108"/>
@@ -9487,7 +9374,7 @@
       <c r="Y179" s="108"/>
       <c r="Z179" s="108"/>
     </row>
-    <row r="180" spans="2:26" customFormat="1" ht="16">
+    <row r="180" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B180" s="98"/>
       <c r="C180" s="108"/>
       <c r="D180" s="108"/>
@@ -9514,7 +9401,7 @@
       <c r="Y180" s="108"/>
       <c r="Z180" s="108"/>
     </row>
-    <row r="181" spans="2:26" customFormat="1" ht="16">
+    <row r="181" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B181" s="98"/>
       <c r="C181" s="108"/>
       <c r="D181" s="108"/>
@@ -9541,7 +9428,7 @@
       <c r="Y181" s="108"/>
       <c r="Z181" s="108"/>
     </row>
-    <row r="182" spans="2:26" customFormat="1" ht="16">
+    <row r="182" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B182" s="98"/>
       <c r="C182" s="108"/>
       <c r="D182" s="108"/>
@@ -9568,7 +9455,7 @@
       <c r="Y182" s="108"/>
       <c r="Z182" s="108"/>
     </row>
-    <row r="183" spans="2:26" customFormat="1" ht="16">
+    <row r="183" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B183" s="98"/>
       <c r="C183" s="108"/>
       <c r="D183" s="108"/>
@@ -9595,7 +9482,7 @@
       <c r="Y183" s="108"/>
       <c r="Z183" s="108"/>
     </row>
-    <row r="184" spans="2:26" customFormat="1" ht="16">
+    <row r="184" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B184" s="98"/>
       <c r="C184" s="108"/>
       <c r="D184" s="108"/>
@@ -9622,7 +9509,7 @@
       <c r="Y184" s="108"/>
       <c r="Z184" s="108"/>
     </row>
-    <row r="185" spans="2:26" customFormat="1" ht="16">
+    <row r="185" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B185" s="98"/>
       <c r="C185" s="108"/>
       <c r="D185" s="108"/>
@@ -9649,7 +9536,7 @@
       <c r="Y185" s="108"/>
       <c r="Z185" s="108"/>
     </row>
-    <row r="186" spans="2:26" customFormat="1" ht="16">
+    <row r="186" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B186" s="98"/>
       <c r="C186" s="108"/>
       <c r="D186" s="108"/>
@@ -9676,7 +9563,7 @@
       <c r="Y186" s="108"/>
       <c r="Z186" s="108"/>
     </row>
-    <row r="187" spans="2:26" customFormat="1" ht="16">
+    <row r="187" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B187" s="98"/>
       <c r="C187" s="108"/>
       <c r="D187" s="108"/>
@@ -9703,7 +9590,7 @@
       <c r="Y187" s="108"/>
       <c r="Z187" s="108"/>
     </row>
-    <row r="188" spans="2:26" customFormat="1" ht="16">
+    <row r="188" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B188" s="98"/>
       <c r="C188" s="108"/>
       <c r="D188" s="108"/>
@@ -9730,7 +9617,7 @@
       <c r="Y188" s="108"/>
       <c r="Z188" s="108"/>
     </row>
-    <row r="189" spans="2:26" customFormat="1" ht="16">
+    <row r="189" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B189" s="98"/>
       <c r="C189" s="108"/>
       <c r="D189" s="108"/>
@@ -9757,7 +9644,7 @@
       <c r="Y189" s="108"/>
       <c r="Z189" s="108"/>
     </row>
-    <row r="190" spans="2:26" customFormat="1" ht="16">
+    <row r="190" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B190" s="98"/>
       <c r="C190" s="108"/>
       <c r="D190" s="108"/>
@@ -9784,7 +9671,7 @@
       <c r="Y190" s="108"/>
       <c r="Z190" s="108"/>
     </row>
-    <row r="191" spans="2:26" customFormat="1" ht="16">
+    <row r="191" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B191" s="98"/>
       <c r="C191" s="108"/>
       <c r="D191" s="108"/>
@@ -9811,7 +9698,7 @@
       <c r="Y191" s="108"/>
       <c r="Z191" s="108"/>
     </row>
-    <row r="192" spans="2:26" customFormat="1" ht="16">
+    <row r="192" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B192" s="98"/>
       <c r="C192" s="108"/>
       <c r="D192" s="108"/>
@@ -9838,7 +9725,7 @@
       <c r="Y192" s="108"/>
       <c r="Z192" s="108"/>
     </row>
-    <row r="193" spans="2:26" customFormat="1" ht="16">
+    <row r="193" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B193" s="98"/>
       <c r="C193" s="108"/>
       <c r="D193" s="108"/>
@@ -9865,7 +9752,7 @@
       <c r="Y193" s="108"/>
       <c r="Z193" s="108"/>
     </row>
-    <row r="194" spans="2:26" customFormat="1" ht="16">
+    <row r="194" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B194" s="98"/>
       <c r="C194" s="108"/>
       <c r="D194" s="108"/>
@@ -9892,7 +9779,7 @@
       <c r="Y194" s="108"/>
       <c r="Z194" s="108"/>
     </row>
-    <row r="195" spans="2:26" customFormat="1" ht="16">
+    <row r="195" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B195" s="98"/>
       <c r="C195" s="108"/>
       <c r="D195" s="108"/>
@@ -9919,7 +9806,7 @@
       <c r="Y195" s="108"/>
       <c r="Z195" s="108"/>
     </row>
-    <row r="196" spans="2:26" customFormat="1" ht="16">
+    <row r="196" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B196" s="98"/>
       <c r="C196" s="108"/>
       <c r="D196" s="108"/>
@@ -9946,7 +9833,7 @@
       <c r="Y196" s="108"/>
       <c r="Z196" s="108"/>
     </row>
-    <row r="197" spans="2:26" customFormat="1" ht="16">
+    <row r="197" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B197" s="98"/>
       <c r="C197" s="108"/>
       <c r="D197" s="108"/>
@@ -9973,7 +9860,7 @@
       <c r="Y197" s="108"/>
       <c r="Z197" s="108"/>
     </row>
-    <row r="198" spans="2:26" customFormat="1" ht="16">
+    <row r="198" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B198" s="98"/>
       <c r="C198" s="108"/>
       <c r="D198" s="108"/>
@@ -10002,7 +9889,7 @@
       <c r="Y198" s="108"/>
       <c r="Z198" s="108"/>
     </row>
-    <row r="199" spans="2:26" customFormat="1" ht="16">
+    <row r="199" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B199" s="98"/>
       <c r="C199" s="108"/>
       <c r="D199" s="108"/>
@@ -10029,7 +9916,7 @@
       <c r="Y199" s="108"/>
       <c r="Z199" s="108"/>
     </row>
-    <row r="200" spans="2:26" customFormat="1" ht="16">
+    <row r="200" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B200" s="98"/>
       <c r="C200" s="108"/>
       <c r="D200" s="108"/>
@@ -10058,7 +9945,7 @@
       <c r="Y200" s="108"/>
       <c r="Z200" s="108"/>
     </row>
-    <row r="201" spans="2:26" customFormat="1" ht="16">
+    <row r="201" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B201" s="98"/>
       <c r="C201" s="108"/>
       <c r="D201" s="108"/>
@@ -10085,7 +9972,7 @@
       <c r="Y201" s="108"/>
       <c r="Z201" s="108"/>
     </row>
-    <row r="202" spans="2:26" customFormat="1" ht="16">
+    <row r="202" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B202" s="98"/>
       <c r="C202" s="108"/>
       <c r="D202" s="108"/>
@@ -10114,7 +10001,7 @@
       <c r="Y202" s="108"/>
       <c r="Z202" s="108"/>
     </row>
-    <row r="203" spans="2:26" customFormat="1" ht="16">
+    <row r="203" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B203" s="98"/>
       <c r="C203" s="108"/>
       <c r="D203" s="108"/>
@@ -10143,7 +10030,7 @@
       <c r="Y203" s="108"/>
       <c r="Z203" s="108"/>
     </row>
-    <row r="204" spans="2:26" customFormat="1" ht="16">
+    <row r="204" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B204" s="98"/>
       <c r="C204" s="108"/>
       <c r="D204" s="108"/>
@@ -10172,7 +10059,7 @@
       <c r="Y204" s="108"/>
       <c r="Z204" s="108"/>
     </row>
-    <row r="205" spans="2:26" customFormat="1" ht="16">
+    <row r="205" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B205" s="98"/>
       <c r="C205" s="108"/>
       <c r="D205" s="108"/>
@@ -10202,7 +10089,7 @@
       <c r="Y205" s="108"/>
       <c r="Z205" s="108"/>
     </row>
-    <row r="206" spans="2:26" customFormat="1" ht="16">
+    <row r="206" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B206" s="98"/>
       <c r="C206" s="108"/>
       <c r="D206" s="142"/>
@@ -10229,7 +10116,7 @@
       <c r="Y206" s="108"/>
       <c r="Z206" s="108"/>
     </row>
-    <row r="207" spans="2:26" customFormat="1" ht="16">
+    <row r="207" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B207" s="98"/>
       <c r="C207" s="108"/>
       <c r="D207" s="108"/>
@@ -10256,7 +10143,7 @@
       <c r="Y207" s="108"/>
       <c r="Z207" s="108"/>
     </row>
-    <row r="208" spans="2:26" customFormat="1" ht="16">
+    <row r="208" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B208" s="98"/>
       <c r="C208" s="108"/>
       <c r="D208" s="108"/>
@@ -10283,7 +10170,7 @@
       <c r="Y208" s="108"/>
       <c r="Z208" s="108"/>
     </row>
-    <row r="209" spans="2:26" customFormat="1" ht="16">
+    <row r="209" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B209" s="98"/>
       <c r="C209" s="108"/>
       <c r="D209" s="108"/>
@@ -10310,7 +10197,7 @@
       <c r="Y209" s="108"/>
       <c r="Z209" s="108"/>
     </row>
-    <row r="210" spans="2:26" customFormat="1" ht="16">
+    <row r="210" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B210" s="98"/>
       <c r="C210" s="108"/>
       <c r="D210" s="108"/>
@@ -10339,7 +10226,7 @@
       <c r="Y210" s="108"/>
       <c r="Z210" s="108"/>
     </row>
-    <row r="211" spans="2:26" customFormat="1" ht="16">
+    <row r="211" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B211" s="98"/>
       <c r="C211" s="108"/>
       <c r="D211" s="108" t="s">
@@ -10373,7 +10260,7 @@
       <c r="Y211" s="108"/>
       <c r="Z211" s="108"/>
     </row>
-    <row r="212" spans="2:26" customFormat="1" ht="16">
+    <row r="212" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B212" s="98"/>
       <c r="C212" s="108"/>
       <c r="D212" s="108"/>
@@ -10400,7 +10287,7 @@
       <c r="Y212" s="108"/>
       <c r="Z212" s="108"/>
     </row>
-    <row r="213" spans="2:26" customFormat="1" ht="16">
+    <row r="213" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B213" s="98"/>
       <c r="C213" s="108"/>
       <c r="D213" s="108"/>
@@ -10432,7 +10319,7 @@
       <c r="Y213" s="108"/>
       <c r="Z213" s="108"/>
     </row>
-    <row r="214" spans="2:26" customFormat="1" ht="16">
+    <row r="214" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B214" s="98"/>
       <c r="C214" s="108"/>
       <c r="D214" s="108"/>
@@ -10464,7 +10351,7 @@
       <c r="Y214" s="108"/>
       <c r="Z214" s="108"/>
     </row>
-    <row r="215" spans="2:26" customFormat="1" ht="16">
+    <row r="215" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B215" s="98"/>
       <c r="C215" s="108"/>
       <c r="D215" s="108"/>
@@ -10499,7 +10386,7 @@
       <c r="Y215" s="108"/>
       <c r="Z215" s="108"/>
     </row>
-    <row r="216" spans="2:26" customFormat="1" ht="16">
+    <row r="216" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B216" s="98"/>
       <c r="C216" s="108"/>
       <c r="D216" s="108"/>
@@ -10531,7 +10418,7 @@
       <c r="Y216" s="108"/>
       <c r="Z216" s="108"/>
     </row>
-    <row r="217" spans="2:26" customFormat="1" ht="16">
+    <row r="217" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B217" s="98"/>
       <c r="C217" s="108"/>
       <c r="D217" s="108"/>
@@ -10558,7 +10445,7 @@
       <c r="Y217" s="108"/>
       <c r="Z217" s="108"/>
     </row>
-    <row r="218" spans="2:26" customFormat="1" ht="16">
+    <row r="218" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B218" s="98"/>
       <c r="C218" s="108"/>
       <c r="D218" s="108"/>
@@ -10584,7 +10471,7 @@
       <c r="X218" s="108"/>
       <c r="Y218" s="108"/>
     </row>
-    <row r="219" spans="2:26" customFormat="1" ht="17" thickBot="1">
+    <row r="219" spans="2:26" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B219" s="98"/>
       <c r="C219" s="108"/>
       <c r="D219" s="108"/>
@@ -10609,7 +10496,7 @@
       <c r="X219" s="108"/>
       <c r="Y219" s="108"/>
     </row>
-    <row r="220" spans="2:26" s="24" customFormat="1">
+    <row r="220" spans="2:26" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B220" s="101"/>
       <c r="C220" s="101" t="s">
         <v>24</v>
@@ -10637,7 +10524,7 @@
       <c r="T220" s="101"/>
       <c r="U220" s="101"/>
     </row>
-    <row r="221" spans="2:26" customFormat="1" ht="16">
+    <row r="221" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B221" s="98"/>
       <c r="C221" s="108"/>
       <c r="D221" s="108"/>
@@ -10663,7 +10550,7 @@
       <c r="X221" s="108"/>
       <c r="Y221" s="108"/>
     </row>
-    <row r="222" spans="2:26" customFormat="1" ht="16">
+    <row r="222" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B222" s="98"/>
       <c r="C222" s="108"/>
       <c r="D222" s="108"/>
@@ -10688,7 +10575,7 @@
       <c r="W222" s="108"/>
       <c r="X222" s="108"/>
     </row>
-    <row r="223" spans="2:26" customFormat="1" ht="16">
+    <row r="223" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B223" s="98"/>
       <c r="C223" s="108" t="s">
         <v>134</v>
@@ -10715,7 +10602,7 @@
       <c r="W223" s="108"/>
       <c r="X223" s="108"/>
     </row>
-    <row r="224" spans="2:26" customFormat="1" ht="16">
+    <row r="224" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B224" s="98"/>
       <c r="C224" s="108"/>
       <c r="D224" s="108"/>
@@ -10741,7 +10628,7 @@
       <c r="X224" s="108"/>
       <c r="Y224" s="108"/>
     </row>
-    <row r="225" spans="2:26" customFormat="1" ht="16">
+    <row r="225" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B225" s="98"/>
       <c r="C225" s="108"/>
       <c r="D225" s="108" t="s">
@@ -10769,7 +10656,7 @@
       <c r="X225" s="108"/>
       <c r="Y225" s="108"/>
     </row>
-    <row r="226" spans="2:26" customFormat="1" ht="16">
+    <row r="226" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B226" s="98"/>
       <c r="C226" s="108"/>
       <c r="D226" s="108"/>
@@ -10802,7 +10689,7 @@
       <c r="Y226" s="108"/>
       <c r="Z226" s="108"/>
     </row>
-    <row r="227" spans="2:26" customFormat="1" ht="16">
+    <row r="227" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B227" s="98"/>
       <c r="C227" s="108"/>
       <c r="D227" s="108"/>
@@ -10835,7 +10722,7 @@
       <c r="Y227" s="108"/>
       <c r="Z227" s="108"/>
     </row>
-    <row r="228" spans="2:26" customFormat="1" ht="16">
+    <row r="228" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B228" s="98"/>
       <c r="C228" s="108"/>
       <c r="D228" s="108"/>
@@ -10862,7 +10749,7 @@
       <c r="Y228" s="108"/>
       <c r="Z228" s="108"/>
     </row>
-    <row r="229" spans="2:26" customFormat="1" ht="16">
+    <row r="229" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B229" s="98"/>
       <c r="C229" s="108"/>
       <c r="D229" s="108"/>
@@ -10889,7 +10776,7 @@
       <c r="Y229" s="108"/>
       <c r="Z229" s="108"/>
     </row>
-    <row r="230" spans="2:26" customFormat="1" ht="16">
+    <row r="230" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B230" s="98"/>
       <c r="C230" s="108"/>
       <c r="D230" s="108"/>
@@ -10916,7 +10803,7 @@
       <c r="Y230" s="108"/>
       <c r="Z230" s="108"/>
     </row>
-    <row r="231" spans="2:26" customFormat="1" ht="16">
+    <row r="231" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B231" s="98"/>
       <c r="C231" s="108"/>
       <c r="D231" s="108"/>
@@ -10943,7 +10830,7 @@
       <c r="Y231" s="108"/>
       <c r="Z231" s="108"/>
     </row>
-    <row r="232" spans="2:26" customFormat="1" ht="16">
+    <row r="232" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B232" s="98"/>
       <c r="C232" s="108"/>
       <c r="D232" s="108"/>
@@ -10970,7 +10857,7 @@
       <c r="Y232" s="108"/>
       <c r="Z232" s="108"/>
     </row>
-    <row r="233" spans="2:26" customFormat="1" ht="16">
+    <row r="233" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B233" s="98"/>
       <c r="C233" s="108"/>
       <c r="D233" s="108"/>
@@ -10997,7 +10884,7 @@
       <c r="Y233" s="108"/>
       <c r="Z233" s="108"/>
     </row>
-    <row r="234" spans="2:26" customFormat="1" ht="16">
+    <row r="234" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B234" s="98"/>
       <c r="C234" s="108"/>
       <c r="D234" s="108"/>
@@ -11024,7 +10911,7 @@
       <c r="Y234" s="108"/>
       <c r="Z234" s="108"/>
     </row>
-    <row r="235" spans="2:26" customFormat="1" ht="16">
+    <row r="235" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B235" s="98"/>
       <c r="C235" s="108"/>
       <c r="D235" s="108"/>
@@ -11051,7 +10938,7 @@
       <c r="Y235" s="108"/>
       <c r="Z235" s="108"/>
     </row>
-    <row r="236" spans="2:26" customFormat="1" ht="16">
+    <row r="236" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B236" s="98"/>
       <c r="C236" s="108"/>
       <c r="D236" s="108"/>
@@ -11078,7 +10965,7 @@
       <c r="Y236" s="108"/>
       <c r="Z236" s="108"/>
     </row>
-    <row r="237" spans="2:26" customFormat="1" ht="16">
+    <row r="237" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B237" s="98"/>
       <c r="C237" s="108"/>
       <c r="D237" s="108"/>
@@ -11105,7 +10992,7 @@
       <c r="Y237" s="108"/>
       <c r="Z237" s="108"/>
     </row>
-    <row r="238" spans="2:26" customFormat="1" ht="16">
+    <row r="238" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B238" s="98"/>
       <c r="C238" s="108"/>
       <c r="D238" s="108"/>
@@ -11132,7 +11019,7 @@
       <c r="Y238" s="108"/>
       <c r="Z238" s="108"/>
     </row>
-    <row r="239" spans="2:26" customFormat="1" ht="16">
+    <row r="239" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B239" s="98"/>
       <c r="C239" s="108"/>
       <c r="D239" s="108"/>
@@ -11159,7 +11046,7 @@
       <c r="Y239" s="108"/>
       <c r="Z239" s="108"/>
     </row>
-    <row r="240" spans="2:26" customFormat="1" ht="16">
+    <row r="240" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B240" s="98"/>
       <c r="C240" s="108"/>
       <c r="D240" s="108"/>
@@ -11186,7 +11073,7 @@
       <c r="Y240" s="108"/>
       <c r="Z240" s="108"/>
     </row>
-    <row r="241" spans="2:26" customFormat="1" ht="16">
+    <row r="241" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B241" s="98"/>
       <c r="C241" s="108"/>
       <c r="D241" s="108"/>
@@ -11213,7 +11100,7 @@
       <c r="Y241" s="108"/>
       <c r="Z241" s="108"/>
     </row>
-    <row r="242" spans="2:26" customFormat="1" ht="16">
+    <row r="242" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B242" s="98"/>
       <c r="C242" s="108"/>
       <c r="D242" s="108"/>
@@ -11240,7 +11127,7 @@
       <c r="Y242" s="108"/>
       <c r="Z242" s="108"/>
     </row>
-    <row r="243" spans="2:26" customFormat="1" ht="16">
+    <row r="243" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B243" s="98"/>
       <c r="C243" s="108"/>
       <c r="D243" s="108"/>
@@ -11267,7 +11154,7 @@
       <c r="Y243" s="108"/>
       <c r="Z243" s="108"/>
     </row>
-    <row r="244" spans="2:26" customFormat="1" ht="16">
+    <row r="244" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B244" s="98"/>
       <c r="C244" s="108"/>
       <c r="D244" s="108"/>
@@ -11294,7 +11181,7 @@
       <c r="Y244" s="108"/>
       <c r="Z244" s="108"/>
     </row>
-    <row r="245" spans="2:26" customFormat="1" ht="16">
+    <row r="245" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B245" s="98"/>
       <c r="C245" s="108"/>
       <c r="D245" s="108"/>
@@ -11321,7 +11208,7 @@
       <c r="Y245" s="108"/>
       <c r="Z245" s="108"/>
     </row>
-    <row r="246" spans="2:26" customFormat="1" ht="16">
+    <row r="246" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B246" s="98"/>
       <c r="C246" s="108"/>
       <c r="D246" s="108"/>
@@ -11348,7 +11235,7 @@
       <c r="Y246" s="108"/>
       <c r="Z246" s="108"/>
     </row>
-    <row r="247" spans="2:26" customFormat="1" ht="16">
+    <row r="247" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B247" s="98"/>
       <c r="C247" s="108"/>
       <c r="D247" s="108"/>
@@ -11375,7 +11262,7 @@
       <c r="Y247" s="108"/>
       <c r="Z247" s="108"/>
     </row>
-    <row r="248" spans="2:26" customFormat="1" ht="16">
+    <row r="248" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B248" s="98"/>
       <c r="C248" s="108"/>
       <c r="D248" s="108"/>
@@ -11402,7 +11289,7 @@
       <c r="Y248" s="108"/>
       <c r="Z248" s="108"/>
     </row>
-    <row r="249" spans="2:26" customFormat="1" ht="16">
+    <row r="249" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B249" s="98"/>
       <c r="C249" s="108"/>
       <c r="D249" s="108"/>
@@ -11429,7 +11316,7 @@
       <c r="Y249" s="108"/>
       <c r="Z249" s="108"/>
     </row>
-    <row r="250" spans="2:26" customFormat="1" ht="16">
+    <row r="250" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B250" s="98"/>
       <c r="C250" s="108"/>
       <c r="D250" s="108"/>
@@ -11456,7 +11343,7 @@
       <c r="Y250" s="108"/>
       <c r="Z250" s="108"/>
     </row>
-    <row r="251" spans="2:26" customFormat="1" ht="16">
+    <row r="251" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B251" s="98"/>
       <c r="C251" s="108"/>
       <c r="D251" s="108"/>
@@ -11483,7 +11370,7 @@
       <c r="Y251" s="108"/>
       <c r="Z251" s="108"/>
     </row>
-    <row r="252" spans="2:26" customFormat="1" ht="16">
+    <row r="252" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B252" s="98"/>
       <c r="C252" s="108"/>
       <c r="D252" s="108"/>
@@ -11510,7 +11397,7 @@
       <c r="Y252" s="108"/>
       <c r="Z252" s="108"/>
     </row>
-    <row r="253" spans="2:26" customFormat="1" ht="16">
+    <row r="253" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B253" s="98"/>
       <c r="C253" s="108"/>
       <c r="D253" s="108"/>
@@ -11537,7 +11424,7 @@
       <c r="Y253" s="108"/>
       <c r="Z253" s="108"/>
     </row>
-    <row r="254" spans="2:26" customFormat="1" ht="16">
+    <row r="254" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B254" s="98"/>
       <c r="C254" s="108"/>
       <c r="D254" s="108"/>
@@ -11564,7 +11451,7 @@
       <c r="Y254" s="108"/>
       <c r="Z254" s="108"/>
     </row>
-    <row r="255" spans="2:26" customFormat="1" ht="16">
+    <row r="255" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B255" s="98"/>
       <c r="C255" s="108"/>
       <c r="D255" s="108"/>
@@ -11591,7 +11478,7 @@
       <c r="Y255" s="108"/>
       <c r="Z255" s="108"/>
     </row>
-    <row r="256" spans="2:26" customFormat="1" ht="16">
+    <row r="256" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B256" s="98"/>
       <c r="C256" s="108"/>
       <c r="D256" s="108"/>
@@ -11618,7 +11505,7 @@
       <c r="Y256" s="108"/>
       <c r="Z256" s="108"/>
     </row>
-    <row r="257" spans="2:26" customFormat="1" ht="16">
+    <row r="257" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B257" s="98"/>
       <c r="C257" s="108"/>
       <c r="D257" s="108"/>
@@ -11645,7 +11532,7 @@
       <c r="Y257" s="108"/>
       <c r="Z257" s="108"/>
     </row>
-    <row r="258" spans="2:26" customFormat="1" ht="16">
+    <row r="258" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B258" s="98"/>
       <c r="C258" s="108"/>
       <c r="D258" s="108"/>
@@ -11672,7 +11559,7 @@
       <c r="Y258" s="108"/>
       <c r="Z258" s="108"/>
     </row>
-    <row r="259" spans="2:26" customFormat="1" ht="16">
+    <row r="259" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B259" s="98"/>
       <c r="C259" s="108"/>
       <c r="D259" s="108"/>
@@ -11699,7 +11586,7 @@
       <c r="Y259" s="108"/>
       <c r="Z259" s="108"/>
     </row>
-    <row r="260" spans="2:26" customFormat="1" ht="17" thickBot="1">
+    <row r="260" spans="2:26" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B260" s="98"/>
       <c r="C260" s="108"/>
       <c r="D260" s="108"/>
@@ -11725,7 +11612,7 @@
       <c r="X260" s="108"/>
       <c r="Y260" s="108"/>
     </row>
-    <row r="261" spans="2:26" s="24" customFormat="1">
+    <row r="261" spans="2:26" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B261" s="101"/>
       <c r="C261" s="101" t="s">
         <v>24</v>
@@ -11753,7 +11640,7 @@
       <c r="T261" s="101"/>
       <c r="U261" s="101"/>
     </row>
-    <row r="262" spans="2:26" customFormat="1" ht="16">
+    <row r="262" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B262" s="98"/>
       <c r="C262" s="108"/>
       <c r="D262" s="108"/>
@@ -11779,7 +11666,7 @@
       <c r="X262" s="108"/>
       <c r="Y262" s="108"/>
     </row>
-    <row r="263" spans="2:26" customFormat="1" ht="16">
+    <row r="263" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B263" s="98"/>
       <c r="C263" s="108" t="s">
         <v>51</v>
@@ -11807,7 +11694,7 @@
       <c r="X263" s="108"/>
       <c r="Y263" s="108"/>
     </row>
-    <row r="264" spans="2:26" customFormat="1" ht="16">
+    <row r="264" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B264" s="98"/>
       <c r="C264" s="108"/>
       <c r="D264" s="108"/>
@@ -11833,7 +11720,7 @@
       <c r="X264" s="108"/>
       <c r="Y264" s="108"/>
     </row>
-    <row r="265" spans="2:26" customFormat="1" ht="16">
+    <row r="265" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B265" s="98"/>
       <c r="C265" s="108"/>
       <c r="D265" s="108"/>
@@ -11859,7 +11746,7 @@
       <c r="X265" s="108"/>
       <c r="Y265" s="108"/>
     </row>
-    <row r="266" spans="2:26" customFormat="1" ht="16">
+    <row r="266" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B266" s="98"/>
       <c r="C266" s="108"/>
       <c r="D266" s="108"/>
@@ -11885,7 +11772,7 @@
       <c r="X266" s="108"/>
       <c r="Y266" s="108"/>
     </row>
-    <row r="267" spans="2:26" customFormat="1" ht="16">
+    <row r="267" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B267" s="98"/>
       <c r="C267" s="108"/>
       <c r="D267" s="108">
@@ -11916,7 +11803,7 @@
       <c r="X267" s="108"/>
       <c r="Y267" s="108"/>
     </row>
-    <row r="268" spans="2:26" customFormat="1" ht="16">
+    <row r="268" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B268" s="98"/>
       <c r="C268" s="108"/>
       <c r="D268" s="108"/>
@@ -11947,7 +11834,7 @@
       <c r="X268" s="108"/>
       <c r="Y268" s="108"/>
     </row>
-    <row r="269" spans="2:26" customFormat="1" ht="16">
+    <row r="269" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B269" s="98"/>
       <c r="C269" s="108"/>
       <c r="D269" s="108"/>
@@ -11976,7 +11863,7 @@
       <c r="X269" s="108"/>
       <c r="Y269" s="108"/>
     </row>
-    <row r="270" spans="2:26" customFormat="1" ht="16">
+    <row r="270" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B270" s="98"/>
       <c r="C270" s="108"/>
       <c r="D270" s="108"/>
@@ -12005,7 +11892,7 @@
       <c r="X270" s="108"/>
       <c r="Y270" s="108"/>
     </row>
-    <row r="271" spans="2:26" customFormat="1" ht="16">
+    <row r="271" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B271" s="98"/>
       <c r="C271" s="108"/>
       <c r="D271" s="108"/>
@@ -12031,7 +11918,7 @@
       <c r="X271" s="108"/>
       <c r="Y271" s="108"/>
     </row>
-    <row r="272" spans="2:26" customFormat="1" ht="16">
+    <row r="272" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B272" s="98"/>
       <c r="C272" s="108"/>
       <c r="D272" s="108"/>
@@ -12062,7 +11949,7 @@
       <c r="X272" s="108"/>
       <c r="Y272" s="108"/>
     </row>
-    <row r="273" spans="2:25" customFormat="1" ht="16">
+    <row r="273" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B273" s="98"/>
       <c r="C273" s="108"/>
       <c r="D273" s="108"/>
@@ -12097,7 +11984,7 @@
       <c r="X273" s="108"/>
       <c r="Y273" s="108"/>
     </row>
-    <row r="274" spans="2:25" customFormat="1" ht="16">
+    <row r="274" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B274" s="98"/>
       <c r="C274" s="108"/>
       <c r="D274" s="108"/>
@@ -12123,7 +12010,7 @@
       <c r="X274" s="108"/>
       <c r="Y274" s="108"/>
     </row>
-    <row r="275" spans="2:25" customFormat="1" ht="16">
+    <row r="275" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B275" s="98"/>
       <c r="C275" s="108"/>
       <c r="D275" s="108"/>
@@ -12149,7 +12036,7 @@
       <c r="X275" s="108"/>
       <c r="Y275" s="108"/>
     </row>
-    <row r="276" spans="2:25" customFormat="1" ht="16">
+    <row r="276" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B276" s="98"/>
       <c r="C276" s="108"/>
       <c r="D276" s="108"/>
@@ -12175,7 +12062,7 @@
       <c r="X276" s="108"/>
       <c r="Y276" s="108"/>
     </row>
-    <row r="277" spans="2:25" customFormat="1" ht="16">
+    <row r="277" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B277" s="98"/>
       <c r="C277" s="108"/>
       <c r="D277" s="108"/>
@@ -12201,7 +12088,7 @@
       <c r="X277" s="108"/>
       <c r="Y277" s="108"/>
     </row>
-    <row r="278" spans="2:25" customFormat="1" ht="16">
+    <row r="278" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B278" s="98"/>
       <c r="C278" s="108"/>
       <c r="D278" s="108"/>
@@ -12227,7 +12114,7 @@
       <c r="X278" s="108"/>
       <c r="Y278" s="108"/>
     </row>
-    <row r="279" spans="2:25" customFormat="1" ht="16">
+    <row r="279" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B279" s="98"/>
       <c r="C279" s="108"/>
       <c r="D279" s="108"/>
@@ -12253,7 +12140,7 @@
       <c r="X279" s="108"/>
       <c r="Y279" s="108"/>
     </row>
-    <row r="280" spans="2:25" customFormat="1" ht="16">
+    <row r="280" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B280" s="98"/>
       <c r="C280" s="108"/>
       <c r="D280" s="108"/>
@@ -12279,7 +12166,7 @@
       <c r="X280" s="108"/>
       <c r="Y280" s="108"/>
     </row>
-    <row r="281" spans="2:25" customFormat="1" ht="16">
+    <row r="281" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B281" s="98"/>
       <c r="C281" s="108"/>
       <c r="D281" s="108"/>
@@ -12305,7 +12192,7 @@
       <c r="X281" s="108"/>
       <c r="Y281" s="108"/>
     </row>
-    <row r="282" spans="2:25" customFormat="1" ht="16">
+    <row r="282" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B282" s="98"/>
       <c r="C282" s="108"/>
       <c r="D282" s="108"/>
@@ -12331,7 +12218,7 @@
       <c r="X282" s="108"/>
       <c r="Y282" s="108"/>
     </row>
-    <row r="283" spans="2:25" customFormat="1" ht="16">
+    <row r="283" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B283" s="98"/>
       <c r="C283" s="108"/>
       <c r="D283" s="108"/>
@@ -12357,7 +12244,7 @@
       <c r="X283" s="108"/>
       <c r="Y283" s="108"/>
     </row>
-    <row r="284" spans="2:25" customFormat="1" ht="16">
+    <row r="284" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B284" s="98"/>
       <c r="C284" s="108"/>
       <c r="D284" s="108"/>
@@ -12383,7 +12270,7 @@
       <c r="X284" s="108"/>
       <c r="Y284" s="108"/>
     </row>
-    <row r="285" spans="2:25" customFormat="1" ht="16">
+    <row r="285" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B285" s="98"/>
       <c r="C285" s="108"/>
       <c r="D285" s="108"/>
@@ -12409,7 +12296,7 @@
       <c r="X285" s="108"/>
       <c r="Y285" s="108"/>
     </row>
-    <row r="286" spans="2:25" customFormat="1" ht="16">
+    <row r="286" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B286" s="98"/>
       <c r="C286" s="108"/>
       <c r="D286" s="108"/>
@@ -12435,7 +12322,7 @@
       <c r="X286" s="108"/>
       <c r="Y286" s="108"/>
     </row>
-    <row r="287" spans="2:25" customFormat="1" ht="16">
+    <row r="287" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B287" s="98"/>
       <c r="C287" s="108"/>
       <c r="D287" s="108"/>
@@ -12461,106 +12348,106 @@
       <c r="X287" s="108"/>
       <c r="Y287" s="108"/>
     </row>
-    <row r="288" spans="2:25" customFormat="1" ht="16">
+    <row r="288" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B288" s="98"/>
     </row>
-    <row r="289" spans="2:2" customFormat="1" ht="16">
+    <row r="289" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B289" s="98"/>
     </row>
-    <row r="290" spans="2:2" customFormat="1" ht="16">
+    <row r="290" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B290" s="98"/>
     </row>
-    <row r="291" spans="2:2" customFormat="1" ht="16">
+    <row r="291" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B291" s="98"/>
     </row>
-    <row r="292" spans="2:2" customFormat="1" ht="16">
+    <row r="292" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B292" s="98"/>
     </row>
-    <row r="293" spans="2:2" customFormat="1" ht="16">
+    <row r="293" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B293" s="98"/>
     </row>
-    <row r="294" spans="2:2" customFormat="1" ht="16">
+    <row r="294" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B294" s="98"/>
     </row>
-    <row r="295" spans="2:2" customFormat="1" ht="16">
+    <row r="295" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B295" s="98"/>
     </row>
-    <row r="296" spans="2:2" customFormat="1" ht="16">
+    <row r="296" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B296" s="98"/>
     </row>
-    <row r="297" spans="2:2" customFormat="1" ht="16">
+    <row r="297" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B297" s="98"/>
     </row>
-    <row r="298" spans="2:2" customFormat="1" ht="16">
+    <row r="298" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B298" s="98"/>
     </row>
-    <row r="299" spans="2:2" customFormat="1" ht="16">
+    <row r="299" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B299" s="98"/>
     </row>
-    <row r="300" spans="2:2" customFormat="1" ht="16">
+    <row r="300" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B300" s="98"/>
     </row>
-    <row r="301" spans="2:2" customFormat="1" ht="16">
+    <row r="301" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B301" s="98"/>
     </row>
-    <row r="302" spans="2:2" customFormat="1" ht="16">
+    <row r="302" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B302" s="98"/>
     </row>
-    <row r="303" spans="2:2" customFormat="1" ht="16">
+    <row r="303" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B303" s="98"/>
     </row>
-    <row r="304" spans="2:2" customFormat="1" ht="16">
+    <row r="304" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B304" s="98"/>
     </row>
-    <row r="305" spans="2:2" customFormat="1" ht="16">
+    <row r="305" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B305" s="98"/>
     </row>
-    <row r="306" spans="2:2" customFormat="1" ht="16">
+    <row r="306" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B306" s="98"/>
     </row>
-    <row r="307" spans="2:2" customFormat="1" ht="16">
+    <row r="307" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B307" s="98"/>
     </row>
-    <row r="308" spans="2:2" customFormat="1" ht="16">
+    <row r="308" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B308" s="98"/>
     </row>
-    <row r="309" spans="2:2" customFormat="1" ht="16">
+    <row r="309" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B309" s="98"/>
     </row>
-    <row r="310" spans="2:2" customFormat="1" ht="16">
+    <row r="310" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B310" s="98"/>
     </row>
-    <row r="311" spans="2:2" customFormat="1" ht="16">
+    <row r="311" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B311" s="98"/>
     </row>
-    <row r="312" spans="2:2" customFormat="1" ht="16">
+    <row r="312" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B312" s="98"/>
     </row>
-    <row r="313" spans="2:2" customFormat="1" ht="16">
+    <row r="313" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B313" s="98"/>
     </row>
-    <row r="314" spans="2:2" customFormat="1" ht="16">
+    <row r="314" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B314" s="98"/>
     </row>
-    <row r="315" spans="2:2" customFormat="1" ht="16">
+    <row r="315" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B315" s="98"/>
     </row>
-    <row r="316" spans="2:2" customFormat="1" ht="16">
+    <row r="316" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B316" s="98"/>
     </row>
-    <row r="317" spans="2:2" customFormat="1" ht="16">
+    <row r="317" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B317" s="98"/>
     </row>
-    <row r="318" spans="2:2" customFormat="1" ht="16">
+    <row r="318" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B318" s="98"/>
     </row>
-    <row r="319" spans="2:2" customFormat="1" ht="16">
+    <row r="319" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B319" s="98"/>
     </row>
-    <row r="320" spans="2:2" customFormat="1" ht="17" thickBot="1">
+    <row r="320" spans="2:2" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B320" s="98"/>
     </row>
-    <row r="321" spans="2:25" s="24" customFormat="1">
+    <row r="321" spans="2:25" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B321" s="101"/>
       <c r="C321" s="101" t="s">
         <v>24</v>
@@ -12588,7 +12475,7 @@
       <c r="T321" s="101"/>
       <c r="U321" s="101"/>
     </row>
-    <row r="322" spans="2:25" customFormat="1" ht="16">
+    <row r="322" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B322" s="98"/>
       <c r="C322" s="108"/>
       <c r="D322" s="108"/>
@@ -12614,7 +12501,7 @@
       <c r="X322" s="108"/>
       <c r="Y322" s="108"/>
     </row>
-    <row r="323" spans="2:25" customFormat="1" ht="16">
+    <row r="323" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B323" s="98"/>
       <c r="C323" s="114" t="s">
         <v>59</v>
@@ -12642,7 +12529,7 @@
       <c r="X323" s="108"/>
       <c r="Y323" s="108"/>
     </row>
-    <row r="324" spans="2:25" customFormat="1" ht="16">
+    <row r="324" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B324" s="98"/>
       <c r="C324" s="97"/>
       <c r="D324" s="108"/>
@@ -12668,7 +12555,7 @@
       <c r="X324" s="108"/>
       <c r="Y324" s="108"/>
     </row>
-    <row r="325" spans="2:25" customFormat="1" ht="16">
+    <row r="325" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B325" s="98"/>
       <c r="C325" s="108"/>
       <c r="D325">
@@ -12696,7 +12583,7 @@
       <c r="X325" s="108"/>
       <c r="Y325" s="108"/>
     </row>
-    <row r="326" spans="2:25" customFormat="1" ht="16">
+    <row r="326" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B326" s="98"/>
       <c r="C326" s="108"/>
       <c r="D326" s="108"/>
@@ -12722,7 +12609,7 @@
       <c r="X326" s="108"/>
       <c r="Y326" s="108"/>
     </row>
-    <row r="327" spans="2:25" customFormat="1" ht="16">
+    <row r="327" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B327" s="98"/>
       <c r="C327" s="108"/>
       <c r="D327" s="108"/>
@@ -12747,7 +12634,7 @@
       <c r="X327" s="108"/>
       <c r="Y327" s="108"/>
     </row>
-    <row r="328" spans="2:25" customFormat="1" ht="16">
+    <row r="328" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B328" s="98"/>
       <c r="C328" s="108"/>
       <c r="D328" s="108"/>
@@ -12772,7 +12659,7 @@
       <c r="X328" s="108"/>
       <c r="Y328" s="108"/>
     </row>
-    <row r="329" spans="2:25" customFormat="1" ht="16">
+    <row r="329" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B329" s="98"/>
       <c r="C329" s="108"/>
       <c r="D329" s="108"/>
@@ -12796,7 +12683,7 @@
       <c r="X329" s="108"/>
       <c r="Y329" s="108"/>
     </row>
-    <row r="330" spans="2:25" customFormat="1" ht="16">
+    <row r="330" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B330" s="98"/>
       <c r="C330" s="108"/>
       <c r="D330" s="108"/>
@@ -12821,7 +12708,7 @@
       <c r="X330" s="108"/>
       <c r="Y330" s="108"/>
     </row>
-    <row r="331" spans="2:25" customFormat="1" ht="16">
+    <row r="331" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B331" s="98"/>
       <c r="C331" s="108"/>
       <c r="D331" s="108"/>
@@ -12847,7 +12734,7 @@
       <c r="X331" s="108"/>
       <c r="Y331" s="108"/>
     </row>
-    <row r="332" spans="2:25" customFormat="1" ht="16">
+    <row r="332" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B332" s="98"/>
       <c r="C332" s="108"/>
       <c r="D332" s="108"/>
@@ -12873,7 +12760,7 @@
       <c r="X332" s="108"/>
       <c r="Y332" s="108"/>
     </row>
-    <row r="333" spans="2:25" customFormat="1" ht="16">
+    <row r="333" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B333" s="98"/>
       <c r="C333" s="108"/>
       <c r="D333" s="108"/>
@@ -12899,7 +12786,7 @@
       <c r="X333" s="108"/>
       <c r="Y333" s="108"/>
     </row>
-    <row r="334" spans="2:25" customFormat="1" ht="16">
+    <row r="334" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B334" s="98"/>
       <c r="C334" s="108"/>
       <c r="D334" s="108"/>
@@ -12925,7 +12812,7 @@
       <c r="X334" s="108"/>
       <c r="Y334" s="108"/>
     </row>
-    <row r="335" spans="2:25" customFormat="1" ht="16">
+    <row r="335" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B335" s="98"/>
       <c r="C335" s="108"/>
       <c r="D335" s="108"/>
@@ -12951,7 +12838,7 @@
       <c r="X335" s="108"/>
       <c r="Y335" s="108"/>
     </row>
-    <row r="336" spans="2:25" customFormat="1" ht="16">
+    <row r="336" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B336" s="98"/>
       <c r="C336" s="108"/>
       <c r="D336" s="108"/>
@@ -12977,7 +12864,7 @@
       <c r="X336" s="108"/>
       <c r="Y336" s="108"/>
     </row>
-    <row r="337" spans="2:25" customFormat="1" ht="16">
+    <row r="337" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B337" s="98"/>
       <c r="C337" s="108"/>
       <c r="D337" s="108"/>
@@ -13003,7 +12890,7 @@
       <c r="X337" s="108"/>
       <c r="Y337" s="108"/>
     </row>
-    <row r="338" spans="2:25" customFormat="1" ht="16">
+    <row r="338" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B338" s="98"/>
       <c r="C338" s="108"/>
       <c r="D338" s="108"/>
@@ -13029,7 +12916,7 @@
       <c r="X338" s="108"/>
       <c r="Y338" s="108"/>
     </row>
-    <row r="339" spans="2:25" customFormat="1" ht="16">
+    <row r="339" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B339" s="98"/>
       <c r="C339" s="108"/>
       <c r="D339" s="108"/>
@@ -13055,7 +12942,7 @@
       <c r="X339" s="108"/>
       <c r="Y339" s="108"/>
     </row>
-    <row r="340" spans="2:25" customFormat="1" ht="16">
+    <row r="340" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B340" s="98"/>
       <c r="C340" s="108"/>
       <c r="D340" s="108"/>
@@ -13081,7 +12968,7 @@
       <c r="X340" s="108"/>
       <c r="Y340" s="108"/>
     </row>
-    <row r="341" spans="2:25" customFormat="1" ht="16">
+    <row r="341" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B341" s="98"/>
       <c r="C341" s="108"/>
       <c r="D341" s="108"/>
@@ -13107,7 +12994,7 @@
       <c r="X341" s="108"/>
       <c r="Y341" s="108"/>
     </row>
-    <row r="342" spans="2:25" customFormat="1" ht="16">
+    <row r="342" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B342" s="98"/>
       <c r="C342" s="108"/>
       <c r="D342" s="108"/>
@@ -13133,7 +13020,7 @@
       <c r="X342" s="108"/>
       <c r="Y342" s="108"/>
     </row>
-    <row r="343" spans="2:25" customFormat="1" ht="16">
+    <row r="343" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B343" s="98"/>
       <c r="C343" s="108"/>
       <c r="D343" s="108"/>
@@ -13159,7 +13046,7 @@
       <c r="X343" s="108"/>
       <c r="Y343" s="108"/>
     </row>
-    <row r="344" spans="2:25" customFormat="1" ht="16">
+    <row r="344" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B344" s="98"/>
       <c r="C344" s="108"/>
       <c r="D344" s="108"/>
@@ -13185,7 +13072,7 @@
       <c r="X344" s="108"/>
       <c r="Y344" s="108"/>
     </row>
-    <row r="345" spans="2:25" customFormat="1" ht="16">
+    <row r="345" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B345" s="98"/>
       <c r="C345" s="108"/>
       <c r="D345" s="108"/>
@@ -13211,7 +13098,7 @@
       <c r="X345" s="108"/>
       <c r="Y345" s="108"/>
     </row>
-    <row r="346" spans="2:25" customFormat="1" ht="16">
+    <row r="346" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B346" s="98"/>
       <c r="C346" s="108"/>
       <c r="D346" s="108"/>
@@ -13237,7 +13124,7 @@
       <c r="X346" s="108"/>
       <c r="Y346" s="108"/>
     </row>
-    <row r="347" spans="2:25" customFormat="1" ht="16">
+    <row r="347" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B347" s="98"/>
       <c r="C347" s="108"/>
       <c r="D347" s="108"/>
@@ -13263,352 +13150,352 @@
       <c r="X347" s="108"/>
       <c r="Y347" s="108"/>
     </row>
-    <row r="348" spans="2:25" customFormat="1" ht="16">
+    <row r="348" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B348" s="98"/>
     </row>
-    <row r="349" spans="2:25" customFormat="1" ht="16">
+    <row r="349" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B349" s="98"/>
     </row>
-    <row r="350" spans="2:25" customFormat="1" ht="16">
+    <row r="350" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B350" s="98"/>
     </row>
-    <row r="351" spans="2:25" customFormat="1" ht="16">
+    <row r="351" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B351" s="98"/>
     </row>
-    <row r="352" spans="2:25" customFormat="1" ht="16">
+    <row r="352" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B352" s="98"/>
       <c r="D352">
         <v>111</v>
       </c>
     </row>
-    <row r="353" spans="2:2" customFormat="1" ht="16">
+    <row r="353" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B353" s="98"/>
     </row>
-    <row r="354" spans="2:2" customFormat="1" ht="16">
+    <row r="354" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B354" s="98"/>
     </row>
-    <row r="355" spans="2:2" customFormat="1" ht="16">
+    <row r="355" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B355" s="98"/>
     </row>
-    <row r="356" spans="2:2" customFormat="1" ht="16">
+    <row r="356" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B356" s="98"/>
     </row>
-    <row r="357" spans="2:2" customFormat="1" ht="16">
+    <row r="357" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B357" s="98"/>
     </row>
-    <row r="358" spans="2:2" customFormat="1" ht="16">
+    <row r="358" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B358" s="98"/>
     </row>
-    <row r="359" spans="2:2" customFormat="1" ht="16">
+    <row r="359" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B359" s="98"/>
     </row>
-    <row r="360" spans="2:2" customFormat="1" ht="16">
+    <row r="360" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B360" s="98"/>
     </row>
-    <row r="361" spans="2:2" customFormat="1" ht="16">
+    <row r="361" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B361" s="98"/>
     </row>
-    <row r="362" spans="2:2" customFormat="1" ht="16">
+    <row r="362" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B362" s="98"/>
     </row>
-    <row r="363" spans="2:2" customFormat="1" ht="16">
+    <row r="363" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B363" s="98"/>
     </row>
-    <row r="364" spans="2:2" customFormat="1" ht="16">
+    <row r="364" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B364" s="98"/>
     </row>
-    <row r="365" spans="2:2" customFormat="1" ht="16">
+    <row r="365" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B365" s="98"/>
     </row>
-    <row r="366" spans="2:2" customFormat="1" ht="16">
+    <row r="366" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B366" s="98"/>
     </row>
-    <row r="367" spans="2:2" customFormat="1" ht="16">
+    <row r="367" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B367" s="98"/>
     </row>
-    <row r="368" spans="2:2" customFormat="1" ht="16">
+    <row r="368" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B368" s="98"/>
     </row>
-    <row r="369" spans="2:4" customFormat="1" ht="16">
+    <row r="369" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B369" s="98"/>
     </row>
-    <row r="370" spans="2:4" customFormat="1" ht="16">
+    <row r="370" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B370" s="98"/>
     </row>
-    <row r="371" spans="2:4" customFormat="1" ht="16">
+    <row r="371" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B371" s="98"/>
     </row>
-    <row r="372" spans="2:4" customFormat="1" ht="16">
+    <row r="372" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B372" s="98"/>
     </row>
-    <row r="373" spans="2:4" customFormat="1" ht="16">
+    <row r="373" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B373" s="98"/>
     </row>
-    <row r="374" spans="2:4" customFormat="1" ht="16">
+    <row r="374" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B374" s="98"/>
     </row>
-    <row r="375" spans="2:4" customFormat="1" ht="16">
+    <row r="375" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B375" s="98"/>
       <c r="D375">
         <v>112</v>
       </c>
     </row>
-    <row r="376" spans="2:4" customFormat="1" ht="16">
+    <row r="376" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B376" s="98"/>
     </row>
-    <row r="377" spans="2:4" customFormat="1" ht="16">
+    <row r="377" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B377" s="98"/>
     </row>
-    <row r="378" spans="2:4" customFormat="1" ht="16">
+    <row r="378" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B378" s="98"/>
     </row>
-    <row r="379" spans="2:4" customFormat="1" ht="16">
+    <row r="379" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B379" s="98"/>
     </row>
-    <row r="380" spans="2:4" customFormat="1" ht="16">
+    <row r="380" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B380" s="98"/>
     </row>
-    <row r="381" spans="2:4" customFormat="1" ht="16">
+    <row r="381" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B381" s="98"/>
     </row>
-    <row r="382" spans="2:4" customFormat="1" ht="16">
+    <row r="382" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B382" s="98"/>
     </row>
-    <row r="383" spans="2:4" customFormat="1" ht="16">
+    <row r="383" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B383" s="98"/>
     </row>
-    <row r="384" spans="2:4" customFormat="1" ht="16">
+    <row r="384" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B384" s="98"/>
     </row>
-    <row r="385" spans="2:4" customFormat="1" ht="16">
+    <row r="385" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B385" s="98"/>
     </row>
-    <row r="386" spans="2:4" customFormat="1" ht="16">
+    <row r="386" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B386" s="98"/>
     </row>
-    <row r="387" spans="2:4" customFormat="1" ht="16">
+    <row r="387" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B387" s="98"/>
     </row>
-    <row r="388" spans="2:4" customFormat="1" ht="16">
+    <row r="388" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B388" s="98"/>
     </row>
-    <row r="389" spans="2:4" customFormat="1" ht="16">
+    <row r="389" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B389" s="98"/>
     </row>
-    <row r="390" spans="2:4" customFormat="1" ht="16">
+    <row r="390" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B390" s="98"/>
     </row>
-    <row r="391" spans="2:4" customFormat="1" ht="16">
+    <row r="391" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B391" s="98"/>
     </row>
-    <row r="392" spans="2:4" customFormat="1" ht="16">
+    <row r="392" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B392" s="98"/>
     </row>
-    <row r="393" spans="2:4" customFormat="1" ht="16">
+    <row r="393" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B393" s="98"/>
     </row>
-    <row r="394" spans="2:4" customFormat="1" ht="16">
+    <row r="394" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B394" s="98"/>
     </row>
-    <row r="395" spans="2:4" customFormat="1" ht="16">
+    <row r="395" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B395" s="98"/>
     </row>
-    <row r="396" spans="2:4" customFormat="1" ht="16">
+    <row r="396" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B396" s="98"/>
     </row>
-    <row r="397" spans="2:4" customFormat="1" ht="16">
+    <row r="397" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B397" s="98"/>
     </row>
-    <row r="398" spans="2:4" customFormat="1" ht="16">
+    <row r="398" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B398" s="98"/>
     </row>
-    <row r="399" spans="2:4" customFormat="1" ht="16">
+    <row r="399" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B399" s="98"/>
       <c r="D399">
         <v>113</v>
       </c>
     </row>
-    <row r="400" spans="2:4" customFormat="1" ht="16">
+    <row r="400" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B400" s="98"/>
     </row>
-    <row r="401" spans="2:2" customFormat="1" ht="16">
+    <row r="401" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B401" s="98"/>
     </row>
-    <row r="402" spans="2:2" customFormat="1" ht="16">
+    <row r="402" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B402" s="98"/>
     </row>
-    <row r="403" spans="2:2" customFormat="1" ht="16">
+    <row r="403" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B403" s="98"/>
     </row>
-    <row r="404" spans="2:2" customFormat="1" ht="16">
+    <row r="404" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B404" s="98"/>
     </row>
-    <row r="405" spans="2:2" customFormat="1" ht="16">
+    <row r="405" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B405" s="98"/>
     </row>
-    <row r="406" spans="2:2" customFormat="1" ht="16">
+    <row r="406" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B406" s="98"/>
     </row>
-    <row r="407" spans="2:2" customFormat="1" ht="16">
+    <row r="407" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B407" s="98"/>
     </row>
-    <row r="408" spans="2:2" customFormat="1" ht="16">
+    <row r="408" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B408" s="98"/>
     </row>
-    <row r="409" spans="2:2" customFormat="1" ht="16">
+    <row r="409" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B409" s="98"/>
     </row>
-    <row r="410" spans="2:2" customFormat="1" ht="16">
+    <row r="410" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B410" s="98"/>
     </row>
-    <row r="411" spans="2:2" customFormat="1" ht="16">
+    <row r="411" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B411" s="98"/>
     </row>
-    <row r="412" spans="2:2" customFormat="1" ht="16">
+    <row r="412" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B412" s="98"/>
     </row>
-    <row r="413" spans="2:2" customFormat="1" ht="16">
+    <row r="413" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B413" s="98"/>
     </row>
-    <row r="414" spans="2:2" customFormat="1" ht="16">
+    <row r="414" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B414" s="98"/>
     </row>
-    <row r="415" spans="2:2" customFormat="1" ht="16">
+    <row r="415" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B415" s="98"/>
     </row>
-    <row r="416" spans="2:2" customFormat="1" ht="16">
+    <row r="416" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B416" s="98"/>
     </row>
-    <row r="417" spans="2:4" customFormat="1" ht="16">
+    <row r="417" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B417" s="98"/>
     </row>
-    <row r="418" spans="2:4" customFormat="1" ht="16">
+    <row r="418" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B418" s="98"/>
     </row>
-    <row r="419" spans="2:4" customFormat="1" ht="16">
+    <row r="419" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B419" s="98"/>
     </row>
-    <row r="420" spans="2:4" customFormat="1" ht="16">
+    <row r="420" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B420" s="98"/>
     </row>
-    <row r="421" spans="2:4" customFormat="1" ht="16">
+    <row r="421" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B421" s="98"/>
     </row>
-    <row r="422" spans="2:4" customFormat="1" ht="16">
+    <row r="422" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B422" s="98"/>
     </row>
-    <row r="423" spans="2:4" customFormat="1" ht="16">
+    <row r="423" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B423" s="98"/>
     </row>
-    <row r="424" spans="2:4" customFormat="1" ht="16">
+    <row r="424" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B424" s="98"/>
     </row>
-    <row r="425" spans="2:4" customFormat="1" ht="16">
+    <row r="425" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B425" s="98"/>
       <c r="D425">
         <v>114</v>
       </c>
     </row>
-    <row r="426" spans="2:4" customFormat="1" ht="16">
+    <row r="426" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B426" s="98"/>
     </row>
-    <row r="427" spans="2:4" customFormat="1" ht="16">
+    <row r="427" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B427" s="98"/>
     </row>
-    <row r="428" spans="2:4" customFormat="1" ht="16">
+    <row r="428" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B428" s="98"/>
     </row>
-    <row r="429" spans="2:4" customFormat="1" ht="16">
+    <row r="429" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B429" s="98"/>
     </row>
-    <row r="430" spans="2:4" customFormat="1" ht="16">
+    <row r="430" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B430" s="98"/>
     </row>
-    <row r="431" spans="2:4" customFormat="1" ht="16">
+    <row r="431" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B431" s="98"/>
     </row>
-    <row r="432" spans="2:4" customFormat="1" ht="16">
+    <row r="432" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B432" s="98"/>
     </row>
-    <row r="433" spans="2:7" customFormat="1" ht="16">
+    <row r="433" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B433" s="98"/>
     </row>
-    <row r="434" spans="2:7" customFormat="1" ht="16">
+    <row r="434" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B434" s="98"/>
     </row>
-    <row r="435" spans="2:7" customFormat="1" ht="16">
+    <row r="435" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B435" s="98"/>
     </row>
-    <row r="436" spans="2:7" customFormat="1" ht="16">
+    <row r="436" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B436" s="98"/>
       <c r="G436" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="437" spans="2:7" customFormat="1" ht="16">
+    <row r="437" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B437" s="98"/>
       <c r="G437" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="438" spans="2:7" customFormat="1" ht="16">
+    <row r="438" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B438" s="98"/>
       <c r="G438" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="439" spans="2:7" customFormat="1" ht="16">
+    <row r="439" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B439" s="98"/>
     </row>
-    <row r="440" spans="2:7" customFormat="1" ht="16">
+    <row r="440" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B440" s="98"/>
     </row>
-    <row r="441" spans="2:7" customFormat="1" ht="16">
+    <row r="441" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B441" s="98"/>
     </row>
-    <row r="442" spans="2:7" customFormat="1" ht="16">
+    <row r="442" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B442" s="98"/>
     </row>
-    <row r="443" spans="2:7" customFormat="1" ht="16">
+    <row r="443" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B443" s="98"/>
     </row>
-    <row r="444" spans="2:7" customFormat="1" ht="16">
+    <row r="444" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B444" s="98"/>
     </row>
-    <row r="445" spans="2:7" customFormat="1" ht="16">
+    <row r="445" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B445" s="98"/>
     </row>
-    <row r="446" spans="2:7" customFormat="1" ht="16">
+    <row r="446" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B446" s="98"/>
     </row>
-    <row r="447" spans="2:7" customFormat="1" ht="16">
+    <row r="447" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B447" s="98"/>
     </row>
-    <row r="448" spans="2:7" customFormat="1" ht="16">
+    <row r="448" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B448" s="98"/>
     </row>
-    <row r="449" spans="2:35" customFormat="1" ht="16">
+    <row r="449" spans="2:35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B449" s="98"/>
     </row>
-    <row r="450" spans="2:35" customFormat="1" ht="16">
+    <row r="450" spans="2:35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B450" s="98"/>
     </row>
-    <row r="451" spans="2:35" customFormat="1" ht="16">
+    <row r="451" spans="2:35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B451" s="98"/>
     </row>
-    <row r="452" spans="2:35" customFormat="1" ht="16">
+    <row r="452" spans="2:35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B452" s="98"/>
     </row>
-    <row r="453" spans="2:35" customFormat="1" ht="16">
+    <row r="453" spans="2:35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B453" s="98"/>
     </row>
-    <row r="454" spans="2:35" customFormat="1" ht="16">
+    <row r="454" spans="2:35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B454" s="98"/>
     </row>
-    <row r="455" spans="2:35" customFormat="1" ht="17" thickBot="1">
+    <row r="455" spans="2:35" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B455" s="98"/>
     </row>
-    <row r="456" spans="2:35" s="171" customFormat="1">
+    <row r="456" spans="2:35" s="171" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B456" s="169"/>
       <c r="C456" s="170" t="s">
         <v>24</v>
@@ -13650,7 +13537,7 @@
       <c r="AH456" s="159"/>
       <c r="AI456" s="159"/>
     </row>
-    <row r="457" spans="2:35" s="171" customFormat="1">
+    <row r="457" spans="2:35" s="171" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B457" s="172"/>
       <c r="C457" s="173"/>
       <c r="D457" s="173"/>
@@ -13686,10 +13573,10 @@
       <c r="AH457" s="173"/>
       <c r="AI457" s="173"/>
     </row>
-    <row r="458" spans="2:35" s="171" customFormat="1" ht="16">
+    <row r="458" spans="2:35" s="171" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B458" s="172"/>
       <c r="C458" s="174" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D458" s="175"/>
       <c r="E458" s="175"/>
@@ -13724,7 +13611,7 @@
       <c r="AH458" s="176"/>
       <c r="AI458" s="176"/>
     </row>
-    <row r="459" spans="2:35" s="171" customFormat="1" ht="16">
+    <row r="459" spans="2:35" s="171" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B459" s="172"/>
       <c r="C459" s="175"/>
       <c r="D459" s="175"/>
@@ -13760,7 +13647,7 @@
       <c r="AH459" s="176"/>
       <c r="AI459" s="176"/>
     </row>
-    <row r="460" spans="2:35" s="171" customFormat="1" ht="16">
+    <row r="460" spans="2:35" s="171" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B460" s="172"/>
       <c r="C460" s="175"/>
       <c r="D460" s="175"/>
@@ -13796,7 +13683,7 @@
       <c r="AH460" s="176"/>
       <c r="AI460" s="176"/>
     </row>
-    <row r="461" spans="2:35" s="171" customFormat="1" ht="16">
+    <row r="461" spans="2:35" s="171" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B461" s="172"/>
       <c r="C461" s="177"/>
       <c r="D461" s="177"/>
@@ -13832,7 +13719,7 @@
       <c r="AH461" s="176"/>
       <c r="AI461" s="176"/>
     </row>
-    <row r="462" spans="2:35" s="171" customFormat="1" ht="16">
+    <row r="462" spans="2:35" s="171" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B462" s="172"/>
       <c r="C462" s="177"/>
       <c r="D462" s="177"/>
@@ -13868,7 +13755,7 @@
       <c r="AH462" s="176"/>
       <c r="AI462" s="176"/>
     </row>
-    <row r="463" spans="2:35" s="171" customFormat="1" ht="16">
+    <row r="463" spans="2:35" s="171" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B463" s="172"/>
       <c r="C463" s="177"/>
       <c r="D463" s="178"/>
@@ -13904,7 +13791,7 @@
       <c r="AH463" s="176"/>
       <c r="AI463" s="176"/>
     </row>
-    <row r="464" spans="2:35" s="171" customFormat="1" ht="16">
+    <row r="464" spans="2:35" s="171" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B464" s="172"/>
       <c r="C464" s="177"/>
       <c r="D464" s="178"/>
@@ -13940,7 +13827,7 @@
       <c r="AH464" s="176"/>
       <c r="AI464" s="176"/>
     </row>
-    <row r="465" spans="2:35" s="171" customFormat="1" ht="16">
+    <row r="465" spans="2:35" s="171" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B465" s="172"/>
       <c r="C465" s="177"/>
       <c r="D465" s="178"/>
@@ -13976,7 +13863,7 @@
       <c r="AH465" s="176"/>
       <c r="AI465" s="176"/>
     </row>
-    <row r="466" spans="2:35" s="171" customFormat="1" ht="16">
+    <row r="466" spans="2:35" s="171" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B466" s="172"/>
       <c r="C466" s="143"/>
       <c r="D466" s="143"/>
@@ -14012,7 +13899,7 @@
       <c r="AH466" s="176"/>
       <c r="AI466" s="176"/>
     </row>
-    <row r="467" spans="2:35" s="171" customFormat="1" ht="16">
+    <row r="467" spans="2:35" s="171" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B467" s="172"/>
       <c r="C467" s="143"/>
       <c r="D467" s="143"/>
@@ -14048,7 +13935,7 @@
       <c r="AH467" s="176"/>
       <c r="AI467" s="176"/>
     </row>
-    <row r="468" spans="2:35" s="171" customFormat="1" ht="16">
+    <row r="468" spans="2:35" s="171" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B468" s="172"/>
       <c r="C468" s="143"/>
       <c r="D468" s="143"/>
@@ -14084,7 +13971,7 @@
       <c r="AH468" s="176"/>
       <c r="AI468" s="176"/>
     </row>
-    <row r="469" spans="2:35" s="171" customFormat="1" ht="16">
+    <row r="469" spans="2:35" s="171" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B469" s="172"/>
       <c r="C469" s="143"/>
       <c r="D469" s="143"/>
@@ -14120,7 +14007,7 @@
       <c r="AH469" s="176"/>
       <c r="AI469" s="176"/>
     </row>
-    <row r="470" spans="2:35" s="171" customFormat="1" ht="16">
+    <row r="470" spans="2:35" s="171" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B470" s="172"/>
       <c r="C470" s="143"/>
       <c r="D470" s="143"/>
@@ -14156,7 +14043,7 @@
       <c r="AH470" s="176"/>
       <c r="AI470" s="176"/>
     </row>
-    <row r="471" spans="2:35" s="171" customFormat="1" ht="16">
+    <row r="471" spans="2:35" s="171" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B471" s="172"/>
       <c r="C471" s="143"/>
       <c r="D471" s="143"/>
@@ -14192,7 +14079,7 @@
       <c r="AH471" s="176"/>
       <c r="AI471" s="176"/>
     </row>
-    <row r="472" spans="2:35" s="171" customFormat="1" ht="16">
+    <row r="472" spans="2:35" s="171" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B472" s="172"/>
       <c r="C472" s="143"/>
       <c r="D472" s="143"/>
@@ -14228,7 +14115,7 @@
       <c r="AH472" s="176"/>
       <c r="AI472" s="176"/>
     </row>
-    <row r="473" spans="2:35" s="171" customFormat="1" ht="16">
+    <row r="473" spans="2:35" s="171" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B473" s="172"/>
       <c r="C473" s="143"/>
       <c r="D473" s="143"/>
@@ -14264,7 +14151,7 @@
       <c r="AH473" s="176"/>
       <c r="AI473" s="176"/>
     </row>
-    <row r="474" spans="2:35" s="171" customFormat="1" ht="16">
+    <row r="474" spans="2:35" s="171" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B474" s="172"/>
       <c r="C474" s="143"/>
       <c r="D474" s="143"/>
@@ -14300,7 +14187,7 @@
       <c r="AH474" s="176"/>
       <c r="AI474" s="176"/>
     </row>
-    <row r="475" spans="2:35" s="171" customFormat="1" ht="16">
+    <row r="475" spans="2:35" s="171" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B475" s="172"/>
       <c r="C475" s="143"/>
       <c r="D475" s="143"/>
@@ -14336,7 +14223,7 @@
       <c r="AH475" s="176"/>
       <c r="AI475" s="176"/>
     </row>
-    <row r="476" spans="2:35" s="171" customFormat="1" ht="16">
+    <row r="476" spans="2:35" s="171" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B476" s="172"/>
       <c r="C476" s="143"/>
       <c r="D476" s="143"/>
@@ -14372,7 +14259,7 @@
       <c r="AH476" s="176"/>
       <c r="AI476" s="176"/>
     </row>
-    <row r="477" spans="2:35" s="171" customFormat="1" ht="16">
+    <row r="477" spans="2:35" s="171" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B477" s="172"/>
       <c r="C477" s="143"/>
       <c r="D477" s="143"/>
@@ -14408,7 +14295,7 @@
       <c r="AH477" s="176"/>
       <c r="AI477" s="176"/>
     </row>
-    <row r="478" spans="2:35" s="171" customFormat="1" ht="16">
+    <row r="478" spans="2:35" s="171" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B478" s="172"/>
       <c r="C478" s="143"/>
       <c r="D478" s="143"/>
@@ -14444,7 +14331,7 @@
       <c r="AH478" s="176"/>
       <c r="AI478" s="176"/>
     </row>
-    <row r="479" spans="2:35" s="171" customFormat="1" ht="16">
+    <row r="479" spans="2:35" s="171" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B479" s="172"/>
       <c r="C479" s="143"/>
       <c r="D479" s="143"/>
@@ -14480,7 +14367,7 @@
       <c r="AH479" s="176"/>
       <c r="AI479" s="176"/>
     </row>
-    <row r="480" spans="2:35" s="171" customFormat="1" ht="16">
+    <row r="480" spans="2:35" s="171" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B480" s="172"/>
       <c r="C480" s="143"/>
       <c r="D480" s="143"/>
@@ -14516,7 +14403,7 @@
       <c r="AH480" s="176"/>
       <c r="AI480" s="176"/>
     </row>
-    <row r="481" spans="2:35" s="171" customFormat="1" ht="16">
+    <row r="481" spans="2:35" s="171" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B481" s="172"/>
       <c r="C481" s="143"/>
       <c r="D481" s="143"/>
@@ -14552,7 +14439,7 @@
       <c r="AH481" s="176"/>
       <c r="AI481" s="176"/>
     </row>
-    <row r="482" spans="2:35" s="171" customFormat="1" ht="16">
+    <row r="482" spans="2:35" s="171" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B482" s="172"/>
       <c r="C482" s="143"/>
       <c r="D482" s="143"/>
@@ -14588,7 +14475,7 @@
       <c r="AH482" s="176"/>
       <c r="AI482" s="176"/>
     </row>
-    <row r="483" spans="2:35" s="171" customFormat="1" ht="16">
+    <row r="483" spans="2:35" s="171" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B483" s="172"/>
       <c r="C483" s="179"/>
       <c r="D483" s="179"/>
@@ -14624,7 +14511,7 @@
       <c r="AH483" s="176"/>
       <c r="AI483" s="176"/>
     </row>
-    <row r="484" spans="2:35" s="171" customFormat="1" ht="16">
+    <row r="484" spans="2:35" s="171" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B484" s="172"/>
       <c r="C484" s="179"/>
       <c r="D484" s="178"/>
@@ -14660,7 +14547,7 @@
       <c r="AH484" s="176"/>
       <c r="AI484" s="176"/>
     </row>
-    <row r="485" spans="2:35" s="171" customFormat="1" ht="16">
+    <row r="485" spans="2:35" s="171" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B485" s="172"/>
       <c r="C485" s="179"/>
       <c r="D485" s="178"/>
@@ -14696,7 +14583,7 @@
       <c r="AH485" s="176"/>
       <c r="AI485" s="176"/>
     </row>
-    <row r="486" spans="2:35" s="171" customFormat="1" ht="16">
+    <row r="486" spans="2:35" s="171" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B486" s="172"/>
       <c r="C486" s="179"/>
       <c r="D486" s="178"/>
@@ -14732,7 +14619,7 @@
       <c r="AH486" s="176"/>
       <c r="AI486" s="176"/>
     </row>
-    <row r="487" spans="2:35" s="171" customFormat="1" ht="16">
+    <row r="487" spans="2:35" s="171" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B487" s="172"/>
       <c r="C487" s="179"/>
       <c r="D487" s="179"/>
@@ -14768,7 +14655,7 @@
       <c r="AH487" s="176"/>
       <c r="AI487" s="176"/>
     </row>
-    <row r="488" spans="2:35" s="171" customFormat="1" ht="16">
+    <row r="488" spans="2:35" s="171" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B488" s="172"/>
       <c r="C488" s="176"/>
       <c r="D488" s="175">
@@ -14780,10 +14667,10 @@
         <v>54600</v>
       </c>
       <c r="H488" s="175" t="s">
+        <v>155</v>
+      </c>
+      <c r="I488" s="175" t="s">
         <v>156</v>
-      </c>
-      <c r="I488" s="175" t="s">
-        <v>157</v>
       </c>
       <c r="J488" s="176"/>
       <c r="K488" s="176"/>
@@ -14812,7 +14699,7 @@
       <c r="AH488" s="176"/>
       <c r="AI488" s="176"/>
     </row>
-    <row r="489" spans="2:35" s="171" customFormat="1" ht="16">
+    <row r="489" spans="2:35" s="171" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B489" s="172"/>
       <c r="C489" s="176"/>
       <c r="D489" s="175"/>
@@ -14822,7 +14709,7 @@
         <v>1000000</v>
       </c>
       <c r="H489" s="175" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I489" s="176"/>
       <c r="J489" s="176"/>
@@ -14852,7 +14739,7 @@
       <c r="AH489" s="176"/>
       <c r="AI489" s="176"/>
     </row>
-    <row r="490" spans="2:35" s="171" customFormat="1" ht="16">
+    <row r="490" spans="2:35" s="171" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B490" s="172"/>
       <c r="C490" s="176"/>
       <c r="D490" s="175"/>
@@ -14862,7 +14749,7 @@
         <v>5.4600000000000003E-2</v>
       </c>
       <c r="H490" s="175" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I490" s="176"/>
       <c r="J490" s="176"/>
@@ -14892,7 +14779,7 @@
       <c r="AH490" s="176"/>
       <c r="AI490" s="176"/>
     </row>
-    <row r="491" spans="2:35" s="171" customFormat="1" ht="16">
+    <row r="491" spans="2:35" s="171" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B491" s="172"/>
       <c r="C491" s="176"/>
       <c r="D491" s="176"/>
@@ -14928,7 +14815,7 @@
       <c r="AH491" s="176"/>
       <c r="AI491" s="176"/>
     </row>
-    <row r="492" spans="2:35" s="171" customFormat="1" ht="16">
+    <row r="492" spans="2:35" s="171" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B492" s="172"/>
       <c r="C492" s="176"/>
       <c r="D492" s="176"/>
@@ -14964,7 +14851,7 @@
       <c r="AH492" s="176"/>
       <c r="AI492" s="176"/>
     </row>
-    <row r="493" spans="2:35" s="171" customFormat="1" ht="16">
+    <row r="493" spans="2:35" s="171" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B493" s="172"/>
       <c r="C493" s="176"/>
       <c r="D493" s="176"/>
@@ -15000,7 +14887,7 @@
       <c r="AH493" s="176"/>
       <c r="AI493" s="176"/>
     </row>
-    <row r="494" spans="2:35" s="171" customFormat="1" ht="16">
+    <row r="494" spans="2:35" s="171" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B494" s="172"/>
       <c r="C494" s="176"/>
       <c r="D494" s="176"/>
@@ -15036,7 +14923,7 @@
       <c r="AH494" s="176"/>
       <c r="AI494" s="176"/>
     </row>
-    <row r="495" spans="2:35" s="171" customFormat="1" ht="16">
+    <row r="495" spans="2:35" s="171" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B495" s="172"/>
       <c r="C495" s="176"/>
       <c r="D495" s="176"/>
@@ -15072,7 +14959,7 @@
       <c r="AH495" s="176"/>
       <c r="AI495" s="176"/>
     </row>
-    <row r="496" spans="2:35" s="171" customFormat="1" ht="16">
+    <row r="496" spans="2:35" s="171" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B496" s="172"/>
       <c r="C496" s="176"/>
       <c r="D496" s="176"/>
@@ -15108,7 +14995,7 @@
       <c r="AH496" s="176"/>
       <c r="AI496" s="176"/>
     </row>
-    <row r="497" spans="2:35" s="171" customFormat="1" ht="16">
+    <row r="497" spans="2:35" s="171" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B497" s="172"/>
       <c r="C497" s="176"/>
       <c r="D497" s="176"/>
@@ -15144,7 +15031,7 @@
       <c r="AH497" s="176"/>
       <c r="AI497" s="176"/>
     </row>
-    <row r="498" spans="2:35" s="171" customFormat="1" ht="16">
+    <row r="498" spans="2:35" s="171" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B498" s="172"/>
       <c r="C498" s="176"/>
       <c r="D498" s="176"/>
@@ -15180,7 +15067,7 @@
       <c r="AH498" s="176"/>
       <c r="AI498" s="176"/>
     </row>
-    <row r="499" spans="2:35" s="171" customFormat="1" ht="16">
+    <row r="499" spans="2:35" s="171" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B499" s="172"/>
       <c r="C499" s="176"/>
       <c r="D499" s="176"/>
@@ -15216,7 +15103,7 @@
       <c r="AH499" s="176"/>
       <c r="AI499" s="176"/>
     </row>
-    <row r="500" spans="2:35" s="171" customFormat="1" ht="16">
+    <row r="500" spans="2:35" s="171" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B500" s="172"/>
       <c r="C500" s="176"/>
       <c r="D500" s="176"/>
@@ -15252,7 +15139,7 @@
       <c r="AH500" s="176"/>
       <c r="AI500" s="176"/>
     </row>
-    <row r="501" spans="2:35" s="171" customFormat="1" ht="16">
+    <row r="501" spans="2:35" s="171" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B501" s="172"/>
       <c r="C501" s="176"/>
       <c r="D501" s="176"/>
@@ -15292,10 +15179,5 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/carriers_source_analyses/corn.carrier.xlsx
+++ b/carriers_source_analyses/corn.carrier.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28908"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/carriers_source_analyses/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michieldenhaan/Projects/etdataset/carriers_source_analyses/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="43680" yWindow="-1440" windowWidth="27860" windowHeight="16100" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="25600" yWindow="460" windowWidth="25600" windowHeight="26900" tabRatio="762" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -20,7 +20,6 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId6"/>
-    <externalReference r:id="rId7"/>
   </externalReferences>
   <definedNames>
     <definedName name="exchange_rate_2011_2010">#REF!</definedName>
@@ -50,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="168">
   <si>
     <t>Source</t>
   </si>
@@ -450,9 +449,6 @@
   </si>
   <si>
     <t>EUR/ton</t>
-  </si>
-  <si>
-    <t>aanname ton ds</t>
   </si>
   <si>
     <t>Opbrengst co-product</t>
@@ -600,6 +596,24 @@
   <si>
     <t xml:space="preserve">This sheet summarizes all carrier attributes formatted in the way they are used by the Energy Transition Model. This sheet contains only pure carrier values. For some countries and carriers Fuel Chain Emissions are defined (only for NL); if so these FCE are documented in a separate sheet (e.g. nl_fce). Use the Excel formulas to find the original data and sources for these numbers. The carrier analysis can be imported on ETSource by running the following rake task: rake import:carrier CARRIER="carrier name" (eg rake import:carrier CARRIER=crude_oil) </t>
   </si>
+  <si>
+    <t>prijs verse snijmais (forage maize)</t>
+  </si>
+  <si>
+    <t>https://www.nieuweoogst.nu/nieuws/2017/10/13/prijs-verse-snijmais-ligt-rond-de-45-euro</t>
+  </si>
+  <si>
+    <t>NL</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>12/2017</t>
+  </si>
+  <si>
+    <t>Nieuwe Oogst</t>
+  </si>
 </sst>
 </file>
 
@@ -616,12 +630,19 @@
     <numFmt numFmtId="171" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="172" formatCode="0.00000000000000"/>
   </numFmts>
-  <fonts count="38" x14ac:knownFonts="1">
+  <fonts count="39" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Lettertype hoofdtekst"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -747,6 +768,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -754,6 +776,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -761,6 +784,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -768,6 +792,7 @@
       <sz val="16"/>
       <color rgb="FF1F497D"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -775,17 +800,20 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -799,6 +827,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1222,652 +1251,652 @@
   </borders>
   <cellStyleXfs count="350">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="198">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="18" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="19" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="25" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="13" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="2" fontId="17" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="167" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="12" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="183" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="168" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="183" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="168" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="27" fillId="0" borderId="0" xfId="320" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="28" fillId="0" borderId="0" xfId="320" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="170" fontId="31" fillId="0" borderId="0" xfId="320" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="32" fillId="0" borderId="0" xfId="320" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="27" fillId="0" borderId="0" xfId="321" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="31" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="28" fillId="0" borderId="0" xfId="321" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="32" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="171" fontId="27" fillId="0" borderId="0" xfId="320" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="27" fillId="0" borderId="0" xfId="320" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="12" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="28" fillId="0" borderId="0" xfId="320" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="171" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="28" fillId="0" borderId="0" xfId="320" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="13" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="2" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="167" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="5" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2536,7 +2565,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>604495</xdr:colOff>
+      <xdr:colOff>528295</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
@@ -2581,8 +2610,8 @@
       <xdr:rowOff>198782</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>664245</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>7159</xdr:colOff>
       <xdr:row>123</xdr:row>
       <xdr:rowOff>151295</xdr:rowOff>
     </xdr:to>
@@ -2627,8 +2656,8 @@
       <xdr:rowOff>74012</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>639428</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>7741</xdr:colOff>
       <xdr:row>187</xdr:row>
       <xdr:rowOff>153153</xdr:rowOff>
     </xdr:to>
@@ -2719,8 +2748,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>627556</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>8569</xdr:colOff>
       <xdr:row>256</xdr:row>
       <xdr:rowOff>113567</xdr:rowOff>
     </xdr:to>
@@ -2765,8 +2794,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>3313</xdr:colOff>
       <xdr:row>497</xdr:row>
       <xdr:rowOff>38099</xdr:rowOff>
     </xdr:to>
@@ -2906,28 +2935,6 @@
       <sheetData sheetId="45" refreshError="1"/>
       <sheetData sheetId="46" refreshError="1"/>
       <sheetData sheetId="47" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Cover sheet"/>
-      <sheetName val="Dashboard"/>
-      <sheetName val="carrier_manager.xlsm"/>
-      <sheetName val="carrier_manager"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="update_attributes"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3262,11 +3269,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="29" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="21" customWidth="1"/>
-    <col min="3" max="3" width="44.140625" style="21" customWidth="1"/>
-    <col min="4" max="4" width="2.140625" style="21" customWidth="1"/>
-    <col min="5" max="16384" width="10.7109375" style="21"/>
+    <col min="1" max="1" width="3.5" style="29" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" style="21" customWidth="1"/>
+    <col min="3" max="3" width="44.1640625" style="21" customWidth="1"/>
+    <col min="4" max="4" width="2.1640625" style="21" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.2">
@@ -3289,10 +3296,10 @@
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="7"/>
       <c r="B4" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>147</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3460,23 +3467,23 @@
   </sheetPr>
   <dimension ref="B1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="35" customWidth="1"/>
-    <col min="2" max="2" width="3.7109375" style="35" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" style="35" customWidth="1"/>
+    <col min="2" max="2" width="3.6640625" style="35" customWidth="1"/>
     <col min="3" max="3" width="46" style="35" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="35" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" style="35" customWidth="1"/>
-    <col min="6" max="6" width="4.5703125" style="35" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="35" customWidth="1"/>
+    <col min="5" max="5" width="17.5" style="35" customWidth="1"/>
+    <col min="6" max="6" width="4.5" style="35" customWidth="1"/>
     <col min="7" max="7" width="45" style="35" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" style="35" customWidth="1"/>
-    <col min="9" max="9" width="51.42578125" style="35" customWidth="1"/>
-    <col min="10" max="10" width="5.42578125" style="35" customWidth="1"/>
-    <col min="11" max="16384" width="10.7109375" style="35"/>
+    <col min="8" max="8" width="5.1640625" style="35" customWidth="1"/>
+    <col min="9" max="9" width="51.5" style="35" customWidth="1"/>
+    <col min="10" max="10" width="5.5" style="35" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" x14ac:dyDescent="0.2">
@@ -3487,7 +3494,7 @@
     </row>
     <row r="2" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="189" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C2" s="190"/>
       <c r="D2" s="190"/>
@@ -3560,7 +3567,7 @@
     <row r="9" spans="2:11" s="39" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="23"/>
       <c r="C9" s="159" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D9" s="31"/>
       <c r="E9" s="18"/>
@@ -3602,7 +3609,7 @@
       </c>
       <c r="E11" s="150">
         <f>'Research data'!G7</f>
-        <v>3.8642436019166648E-3</v>
+        <v>8.2805220041071385E-3</v>
       </c>
       <c r="F11" s="34"/>
       <c r="G11" s="102"/>
@@ -3615,7 +3622,7 @@
     <row r="12" spans="2:11" s="39" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="23"/>
       <c r="C12" s="102" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D12" s="22" t="s">
         <v>45</v>
@@ -3656,7 +3663,7 @@
     <row r="14" spans="2:11" s="39" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="23"/>
       <c r="C14" s="165" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D14" s="22" t="s">
         <v>42</v>
@@ -3667,11 +3674,11 @@
       </c>
       <c r="F14" s="165"/>
       <c r="G14" s="167" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H14" s="30"/>
       <c r="I14" s="188" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J14" s="40"/>
     </row>
@@ -3702,27 +3709,29 @@
   </sheetPr>
   <dimension ref="B1:R12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="3.42578125" style="62" customWidth="1"/>
-    <col min="3" max="3" width="35.85546875" style="62" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" style="62" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="62" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" style="62" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="62" customWidth="1"/>
-    <col min="8" max="8" width="4.7109375" style="62" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" style="63" customWidth="1"/>
+    <col min="1" max="2" width="3.5" style="62" customWidth="1"/>
+    <col min="3" max="3" width="35.83203125" style="62" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="62" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" style="62" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="62" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" style="62" customWidth="1"/>
+    <col min="8" max="8" width="4.6640625" style="62" customWidth="1"/>
+    <col min="9" max="9" width="9.83203125" style="63" customWidth="1"/>
     <col min="10" max="10" width="3" style="63" customWidth="1"/>
-    <col min="11" max="11" width="8.7109375" style="63" customWidth="1"/>
-    <col min="12" max="12" width="3.28515625" style="63" customWidth="1"/>
-    <col min="13" max="13" width="8.42578125" style="63" customWidth="1"/>
-    <col min="14" max="14" width="2.7109375" style="63" customWidth="1"/>
-    <col min="15" max="16" width="8.42578125" style="63" customWidth="1"/>
-    <col min="17" max="17" width="2.7109375" style="63" customWidth="1"/>
+    <col min="11" max="11" width="16.33203125" style="63" customWidth="1"/>
+    <col min="12" max="12" width="3.33203125" style="63" customWidth="1"/>
+    <col min="13" max="13" width="8.5" style="63" customWidth="1"/>
+    <col min="14" max="14" width="2.6640625" style="63" customWidth="1"/>
+    <col min="15" max="16" width="8.5" style="63" customWidth="1"/>
+    <col min="17" max="17" width="2.6640625" style="63" customWidth="1"/>
     <col min="18" max="18" width="60" style="62" customWidth="1"/>
-    <col min="19" max="16384" width="10.7109375" style="62"/>
+    <col min="19" max="16384" width="10.83203125" style="62"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -3764,18 +3773,18 @@
       </c>
       <c r="J3" s="60"/>
       <c r="K3" s="60" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L3" s="60"/>
       <c r="M3" s="60" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N3" s="60"/>
       <c r="O3" s="60" t="s">
         <v>49</v>
       </c>
       <c r="P3" s="60" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Q3" s="60"/>
       <c r="R3" s="1" t="s">
@@ -3867,14 +3876,14 @@
       </c>
       <c r="G7" s="117">
         <f>K7</f>
-        <v>3.8642436019166648E-3</v>
+        <v>8.2805220041071385E-3</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="17"/>
       <c r="J7" s="17"/>
       <c r="K7" s="116">
         <f>Notes!H216/1000</f>
-        <v>3.8642436019166648E-3</v>
+        <v>8.2805220041071385E-3</v>
       </c>
       <c r="L7" s="17"/>
       <c r="M7" s="17"/>
@@ -3887,7 +3896,7 @@
     <row r="8" spans="2:18" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
       <c r="C8" s="106" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D8" s="106" t="s">
         <v>44</v>
@@ -3943,13 +3952,13 @@
       <c r="P9" s="16"/>
       <c r="Q9" s="16"/>
       <c r="R9" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="2:18" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
       <c r="C10" s="168" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D10" s="107" t="s">
         <v>38</v>
@@ -3978,7 +3987,7 @@
       </c>
       <c r="Q10" s="16"/>
       <c r="R10" s="182" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -4046,21 +4055,23 @@
   </sheetPr>
   <dimension ref="B1:L12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="42" customWidth="1"/>
-    <col min="2" max="2" width="3.42578125" style="42" customWidth="1"/>
-    <col min="3" max="3" width="28.7109375" style="42" customWidth="1"/>
-    <col min="4" max="4" width="3.140625" style="42" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" style="42" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" style="42" customWidth="1"/>
+    <col min="2" max="2" width="3.5" style="42" customWidth="1"/>
+    <col min="3" max="3" width="28.6640625" style="42" customWidth="1"/>
+    <col min="4" max="4" width="3.1640625" style="42" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" style="42" customWidth="1"/>
     <col min="6" max="6" width="5" style="42" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" style="42" customWidth="1"/>
-    <col min="8" max="10" width="12.140625" style="42" customWidth="1"/>
-    <col min="11" max="11" width="33.140625" style="43" customWidth="1"/>
-    <col min="12" max="12" width="87.28515625" style="42" customWidth="1"/>
-    <col min="13" max="16384" width="33.140625" style="42"/>
+    <col min="7" max="7" width="10.33203125" style="42" customWidth="1"/>
+    <col min="8" max="10" width="12.1640625" style="42" customWidth="1"/>
+    <col min="11" max="11" width="33.1640625" style="43" customWidth="1"/>
+    <col min="12" max="12" width="87.33203125" style="42" customWidth="1"/>
+    <col min="13" max="16384" width="33.1640625" style="42"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -4150,7 +4161,7 @@
     <row r="7" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B7" s="47"/>
       <c r="C7" s="119" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D7" s="55"/>
       <c r="E7" s="108" t="s">
@@ -4160,37 +4171,37 @@
         <v>60</v>
       </c>
       <c r="H7" s="51" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I7" s="51" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J7" s="51"/>
       <c r="K7" s="51" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L7" s="115"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B8" s="47"/>
       <c r="C8" s="184" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D8" s="56"/>
       <c r="E8" s="185" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F8" s="185"/>
       <c r="G8" s="50" t="s">
+        <v>158</v>
+      </c>
+      <c r="H8" s="51" t="s">
         <v>159</v>
-      </c>
-      <c r="H8" s="51" t="s">
-        <v>160</v>
       </c>
       <c r="I8" s="51"/>
       <c r="J8" s="51"/>
       <c r="K8" s="187" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L8" s="61"/>
     </row>
@@ -4221,13 +4232,23 @@
         <v>37</v>
       </c>
       <c r="D11" s="59"/>
-      <c r="E11" s="108"/>
+      <c r="E11" s="108" t="s">
+        <v>167</v>
+      </c>
       <c r="F11" s="114"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="58"/>
+      <c r="G11" s="57" t="s">
+        <v>164</v>
+      </c>
+      <c r="H11" s="58" t="s">
+        <v>165</v>
+      </c>
       <c r="I11" s="58"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="51"/>
+      <c r="J11" s="58" t="s">
+        <v>166</v>
+      </c>
+      <c r="K11" s="51" t="s">
+        <v>163</v>
+      </c>
       <c r="L11" s="115"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.2">
@@ -4243,18 +4264,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AI501"/>
   <sheetViews>
-    <sheetView topLeftCell="A472" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="F483" sqref="F483"/>
+    <sheetView topLeftCell="A171" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="H216" sqref="H216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" style="97" customWidth="1"/>
+    <col min="1" max="1" width="5.5" style="97" customWidth="1"/>
     <col min="2" max="2" width="5" style="97" customWidth="1"/>
     <col min="3" max="5" width="7" style="97"/>
-    <col min="6" max="6" width="10.85546875" style="97" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="97" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" style="97"/>
-    <col min="8" max="8" width="8.85546875" style="97" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.83203125" style="97" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="7" style="97"/>
   </cols>
   <sheetData>
@@ -4998,7 +5019,7 @@
       <c r="D28" s="108"/>
       <c r="E28" s="108"/>
       <c r="F28" s="145" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G28" s="145"/>
       <c r="H28" s="147">
@@ -5006,7 +5027,7 @@
         <v>1363.2</v>
       </c>
       <c r="I28" s="145" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J28" s="108"/>
       <c r="K28" s="108"/>
@@ -5163,7 +5184,7 @@
       <c r="D33" s="108"/>
       <c r="E33" s="108"/>
       <c r="F33" s="124" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G33" s="124"/>
       <c r="H33" s="108">
@@ -5264,7 +5285,7 @@
       <c r="D36" s="108"/>
       <c r="E36" s="108"/>
       <c r="F36" s="124" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G36" s="124"/>
       <c r="H36" s="108">
@@ -5366,7 +5387,7 @@
       <c r="D39" s="108"/>
       <c r="E39" s="108"/>
       <c r="F39" s="145" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G39" s="146"/>
       <c r="H39" s="148">
@@ -5400,7 +5421,7 @@
       <c r="D40" s="108"/>
       <c r="E40" s="108"/>
       <c r="F40" s="145" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G40" s="146"/>
       <c r="H40" s="148">
@@ -10202,12 +10223,10 @@
       <c r="C210" s="108"/>
       <c r="D210" s="108"/>
       <c r="E210" s="108"/>
-      <c r="F210" s="108" t="s">
-        <v>123</v>
-      </c>
-      <c r="G210" s="108"/>
-      <c r="H210" s="108"/>
-      <c r="I210" s="108"/>
+      <c r="F210" s="97"/>
+      <c r="G210" s="97"/>
+      <c r="H210" s="97"/>
+      <c r="I210" s="97"/>
       <c r="J210" s="108"/>
       <c r="K210" s="108"/>
       <c r="L210" s="108"/>
@@ -10233,16 +10252,10 @@
         <v>124</v>
       </c>
       <c r="E211" s="108"/>
-      <c r="F211" s="123" t="s">
-        <v>125</v>
-      </c>
-      <c r="G211" s="123"/>
-      <c r="H211" s="108">
-        <v>21</v>
-      </c>
-      <c r="I211" s="108" t="s">
-        <v>126</v>
-      </c>
+      <c r="F211" s="97"/>
+      <c r="G211" s="97"/>
+      <c r="H211" s="97"/>
+      <c r="I211" s="97"/>
       <c r="K211" s="108"/>
       <c r="L211" s="108"/>
       <c r="M211" s="108"/>
@@ -10293,7 +10306,7 @@
       <c r="D213" s="108"/>
       <c r="E213" s="108"/>
       <c r="F213" s="108" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G213" s="108"/>
       <c r="H213" s="144">
@@ -10301,7 +10314,7 @@
         <v>1420</v>
       </c>
       <c r="I213" s="123" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K213" s="108"/>
       <c r="M213" s="108"/>
@@ -10325,7 +10338,7 @@
       <c r="D214" s="108"/>
       <c r="E214" s="108"/>
       <c r="F214" s="108" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G214" s="108"/>
       <c r="H214" s="144">
@@ -10357,7 +10370,7 @@
       <c r="D215" s="108"/>
       <c r="E215" s="108"/>
       <c r="F215" s="108" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G215" s="108"/>
       <c r="H215" s="144">
@@ -10365,7 +10378,7 @@
         <v>5.4344400000000004</v>
       </c>
       <c r="I215" s="123" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J215" s="108" t="s">
         <v>45</v>
@@ -10392,12 +10405,12 @@
       <c r="D216" s="108"/>
       <c r="E216" s="108"/>
       <c r="F216" s="108" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G216" s="108"/>
       <c r="H216" s="140">
-        <f>H211/H215</f>
-        <v>3.8642436019166646</v>
+        <f>H219/H215</f>
+        <v>8.280522004107139</v>
       </c>
       <c r="I216" s="123" t="s">
         <v>110</v>
@@ -10450,7 +10463,9 @@
       <c r="C218" s="108"/>
       <c r="D218" s="108"/>
       <c r="E218" s="108"/>
-      <c r="F218" s="108"/>
+      <c r="F218" s="108" t="s">
+        <v>123</v>
+      </c>
       <c r="G218" s="108"/>
       <c r="H218" s="108"/>
       <c r="I218" s="108"/>
@@ -10476,9 +10491,16 @@
       <c r="C219" s="108"/>
       <c r="D219" s="108"/>
       <c r="E219" s="108"/>
-      <c r="G219" s="108"/>
-      <c r="H219" s="108"/>
-      <c r="I219" s="108"/>
+      <c r="F219" s="123" t="s">
+        <v>125</v>
+      </c>
+      <c r="G219" s="123"/>
+      <c r="H219" s="108">
+        <v>45</v>
+      </c>
+      <c r="I219" s="108" t="s">
+        <v>162</v>
+      </c>
       <c r="J219" s="108"/>
       <c r="K219" s="108"/>
       <c r="L219" s="108"/>
@@ -10578,7 +10600,7 @@
     <row r="223" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B223" s="98"/>
       <c r="C223" s="108" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D223" s="108"/>
       <c r="E223" s="108"/>
@@ -10632,7 +10654,7 @@
       <c r="B225" s="98"/>
       <c r="C225" s="108"/>
       <c r="D225" s="108" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E225" s="108"/>
       <c r="F225" s="108"/>
@@ -11928,7 +11950,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="G272" s="108" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H272" s="108"/>
       <c r="I272" s="108"/>
@@ -11954,7 +11976,7 @@
       <c r="C273" s="108"/>
       <c r="D273" s="108"/>
       <c r="E273" s="108" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F273" s="108">
         <f>F272*F268</f>
@@ -13576,7 +13598,7 @@
     <row r="458" spans="2:35" s="171" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B458" s="172"/>
       <c r="C458" s="174" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D458" s="175"/>
       <c r="E458" s="175"/>
@@ -14667,10 +14689,10 @@
         <v>54600</v>
       </c>
       <c r="H488" s="175" t="s">
+        <v>154</v>
+      </c>
+      <c r="I488" s="175" t="s">
         <v>155</v>
-      </c>
-      <c r="I488" s="175" t="s">
-        <v>156</v>
       </c>
       <c r="J488" s="176"/>
       <c r="K488" s="176"/>
@@ -14709,7 +14731,7 @@
         <v>1000000</v>
       </c>
       <c r="H489" s="175" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I489" s="176"/>
       <c r="J489" s="176"/>
@@ -14749,7 +14771,7 @@
         <v>5.4600000000000003E-2</v>
       </c>
       <c r="H490" s="175" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I490" s="176"/>
       <c r="J490" s="176"/>
